--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -412,6 +412,48 @@
   </si>
   <si>
     <t>20/4/2023</t>
+  </si>
+  <si>
+    <t>21/4/2023</t>
+  </si>
+  <si>
+    <t>22/4/2023</t>
+  </si>
+  <si>
+    <t>23/4/2023</t>
+  </si>
+  <si>
+    <t>24/4/2023</t>
+  </si>
+  <si>
+    <t>25/4/2023</t>
+  </si>
+  <si>
+    <t>26/4/2023</t>
+  </si>
+  <si>
+    <t>27/4/2023</t>
+  </si>
+  <si>
+    <t>28/4/2023</t>
+  </si>
+  <si>
+    <t>29/4/2023</t>
+  </si>
+  <si>
+    <t>30/4/2023</t>
+  </si>
+  <si>
+    <t>13/5/2023</t>
+  </si>
+  <si>
+    <t>14/5/2023</t>
+  </si>
+  <si>
+    <t>15/5/2023</t>
+  </si>
+  <si>
+    <t>16/5/2023</t>
   </si>
 </sst>
 </file>
@@ -495,11 +537,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,8 +825,8 @@
   <dimension ref="A1:DX495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +910,7 @@
     <col min="122" max="122" width="10.5703125" customWidth="1"/>
     <col min="123" max="123" width="8.7109375" customWidth="1"/>
     <col min="124" max="126" width="9.7109375" customWidth="1"/>
+    <col min="128" max="128" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
@@ -1293,8 +1336,8 @@
       <c r="CN2" s="1">
         <v>2</v>
       </c>
-      <c r="DI2" s="15"/>
-      <c r="DJ2" s="15"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
       <c r="DX2" s="1">
         <f>SUM(C2:DU2)</f>
         <v>18</v>
@@ -1531,219 +1574,921 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="DX7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B7" s="8">
+        <v>258400</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="DX8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="8">
+        <v>151900</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="DX9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="8">
+        <v>136900</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="DX10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="8">
+        <v>171250</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="DX11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="8">
+        <v>193500</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="DX12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="8">
+        <v>350810</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX12" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="DX13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="8">
+        <v>208300</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX13" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="DX14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="8">
+        <v>224250</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX14" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="DX15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="8">
+        <v>78950</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="DX16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="8">
+        <v>345150</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW16" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL16" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX16" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="DX17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="8">
+        <v>287100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX17" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="DX18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A18" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B18" s="8">
+        <v>83450</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-      <c r="DX19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A19" s="4">
+        <v>44962</v>
+      </c>
+      <c r="B19" s="9">
+        <v>165900</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="DX20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A20" s="4">
+        <v>44990</v>
+      </c>
+      <c r="B20" s="9">
+        <v>205200</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX20" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="DX21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A21" s="4">
+        <v>45021</v>
+      </c>
+      <c r="B21" s="9">
+        <v>182300</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="DX22" s="14">
+      <c r="A22" s="4">
+        <v>45051</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="DX22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="DX23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A23" s="4">
+        <v>45082</v>
+      </c>
+      <c r="B23" s="9">
+        <v>93050</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX23" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="DX24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A24" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B24" s="9">
+        <v>235550</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX24" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="DX25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A25" s="4">
+        <v>45143</v>
+      </c>
+      <c r="B25" s="9">
+        <v>144000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX25" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="DX26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A26" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B26" s="9">
+        <v>181900</v>
+      </c>
+      <c r="L26" s="1">
+        <v>8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX26" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="DX27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A27" s="4">
+        <v>45204</v>
+      </c>
+      <c r="B27" s="9">
+        <v>223500</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX27" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="DX28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A28" s="4">
+        <v>45235</v>
+      </c>
+      <c r="B28" s="9">
+        <v>376750</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX28" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="DX29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="DX30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A29" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="DX29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="9">
+        <v>529323</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX30" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="9"/>
-      <c r="DX31" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="9">
+        <v>286900</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX31" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="9"/>
-      <c r="DX32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="9"/>
-      <c r="DX33" s="14">
+      <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="9">
+        <v>107500</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX32" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="DX33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1751,7 +2496,7 @@
     <row r="34" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="9"/>
-      <c r="DX34" s="14">
+      <c r="DX34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1759,7 +2504,7 @@
     <row r="35" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="9"/>
-      <c r="DX35" s="14">
+      <c r="DX35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1767,14 +2512,14 @@
     <row r="36" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="9"/>
-      <c r="DX36" s="14">
+      <c r="DX36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
-      <c r="DX37" s="14">
+      <c r="DX37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,7 +2527,7 @@
     <row r="38" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
-      <c r="DX38" s="14">
+      <c r="DX38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1790,7 +2535,7 @@
     <row r="39" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="9"/>
-      <c r="DX39" s="14">
+      <c r="DX39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1798,7 +2543,7 @@
     <row r="40" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
-      <c r="DX40" s="14">
+      <c r="DX40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1806,7 +2551,7 @@
     <row r="41" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
-      <c r="DX41" s="14">
+      <c r="DX41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1814,7 +2559,7 @@
     <row r="42" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="9"/>
-      <c r="DX42" s="14">
+      <c r="DX42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1822,7 +2567,7 @@
     <row r="43" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="9"/>
-      <c r="DX43" s="14">
+      <c r="DX43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1830,7 +2575,7 @@
     <row r="44" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="9"/>
-      <c r="DX44" s="14">
+      <c r="DX44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1838,7 +2583,7 @@
     <row r="45" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="9"/>
-      <c r="DX45" s="14">
+      <c r="DX45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1846,7 +2591,7 @@
     <row r="46" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="9"/>
-      <c r="DX46" s="14">
+      <c r="DX46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1854,7 +2599,7 @@
     <row r="47" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="9"/>
-      <c r="DX47" s="14">
+      <c r="DX47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1862,7 +2607,7 @@
     <row r="48" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="9"/>
-      <c r="DX48" s="14">
+      <c r="DX48" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1870,7 +2615,7 @@
     <row r="49" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
-      <c r="DX49" s="14">
+      <c r="DX49" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1878,7 +2623,7 @@
     <row r="50" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="9"/>
-      <c r="DX50" s="14">
+      <c r="DX50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1886,7 +2631,7 @@
     <row r="51" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="9"/>
-      <c r="DX51" s="14">
+      <c r="DX51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1894,7 +2639,7 @@
     <row r="52" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="9"/>
-      <c r="DX52" s="14">
+      <c r="DX52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1902,7 +2647,7 @@
     <row r="53" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="9"/>
-      <c r="DX53" s="14">
+      <c r="DX53" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1910,7 +2655,7 @@
     <row r="54" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="9"/>
-      <c r="DX54" s="14">
+      <c r="DX54" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1918,7 +2663,7 @@
     <row r="55" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="9"/>
-      <c r="DX55" s="14">
+      <c r="DX55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1926,7 +2671,7 @@
     <row r="56" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="9"/>
-      <c r="DX56" s="14">
+      <c r="DX56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1934,7 +2679,7 @@
     <row r="57" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="9"/>
-      <c r="DX57" s="14">
+      <c r="DX57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1942,7 +2687,7 @@
     <row r="58" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="9"/>
-      <c r="DX58" s="14">
+      <c r="DX58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1950,7 +2695,7 @@
     <row r="59" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="9"/>
-      <c r="DX59" s="14">
+      <c r="DX59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1958,7 +2703,7 @@
     <row r="60" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="9"/>
-      <c r="DX60" s="14">
+      <c r="DX60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1966,7 +2711,7 @@
     <row r="61" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="9"/>
-      <c r="DX61" s="14">
+      <c r="DX61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1974,7 +2719,7 @@
     <row r="62" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="9"/>
-      <c r="DX62" s="14">
+      <c r="DX62" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1982,7 +2727,7 @@
     <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="9"/>
-      <c r="DX63" s="14">
+      <c r="DX63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1990,7 +2735,7 @@
     <row r="64" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="9"/>
-      <c r="DX64" s="14">
+      <c r="DX64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1998,7 +2743,7 @@
     <row r="65" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="9"/>
-      <c r="DX65" s="14">
+      <c r="DX65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2006,7 +2751,7 @@
     <row r="66" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="9"/>
-      <c r="DX66" s="14">
+      <c r="DX66" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2014,7 +2759,7 @@
     <row r="67" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="9"/>
-      <c r="DX67" s="14">
+      <c r="DX67" s="1">
         <f t="shared" ref="DX67:DX130" si="1">SUM(C67:DU67)</f>
         <v>0</v>
       </c>
@@ -2022,7 +2767,7 @@
     <row r="68" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="9"/>
-      <c r="DX68" s="14">
+      <c r="DX68" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2030,7 +2775,7 @@
     <row r="69" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="9"/>
-      <c r="DX69" s="14">
+      <c r="DX69" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2038,7 +2783,7 @@
     <row r="70" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="9"/>
-      <c r="DX70" s="14">
+      <c r="DX70" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2046,7 +2791,7 @@
     <row r="71" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="9"/>
-      <c r="DX71" s="14">
+      <c r="DX71" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2054,7 +2799,7 @@
     <row r="72" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="9"/>
-      <c r="DX72" s="14">
+      <c r="DX72" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2062,7 +2807,7 @@
     <row r="73" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="9"/>
-      <c r="DX73" s="14">
+      <c r="DX73" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2070,7 +2815,7 @@
     <row r="74" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="9"/>
-      <c r="DX74" s="14">
+      <c r="DX74" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2078,7 +2823,7 @@
     <row r="75" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="9"/>
-      <c r="DX75" s="14">
+      <c r="DX75" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2086,7 +2831,7 @@
     <row r="76" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
-      <c r="DX76" s="14">
+      <c r="DX76" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2094,7 +2839,7 @@
     <row r="77" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="9"/>
-      <c r="DX77" s="14">
+      <c r="DX77" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2102,7 +2847,7 @@
     <row r="78" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="9"/>
-      <c r="DX78" s="14">
+      <c r="DX78" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2110,7 +2855,7 @@
     <row r="79" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
-      <c r="DX79" s="14">
+      <c r="DX79" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2118,7 +2863,7 @@
     <row r="80" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="9"/>
-      <c r="DX80" s="14">
+      <c r="DX80" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2126,7 +2871,7 @@
     <row r="81" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="9"/>
-      <c r="DX81" s="14">
+      <c r="DX81" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2134,7 +2879,7 @@
     <row r="82" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="9"/>
-      <c r="DX82" s="14">
+      <c r="DX82" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2142,7 +2887,7 @@
     <row r="83" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="9"/>
-      <c r="DX83" s="14">
+      <c r="DX83" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2150,7 +2895,7 @@
     <row r="84" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="9"/>
-      <c r="DX84" s="14">
+      <c r="DX84" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2158,7 +2903,7 @@
     <row r="85" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="9"/>
-      <c r="DX85" s="14">
+      <c r="DX85" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2166,7 +2911,7 @@
     <row r="86" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="9"/>
-      <c r="DX86" s="14">
+      <c r="DX86" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2174,7 +2919,7 @@
     <row r="87" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="9"/>
-      <c r="DX87" s="14">
+      <c r="DX87" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2182,7 +2927,7 @@
     <row r="88" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="9"/>
-      <c r="DX88" s="14">
+      <c r="DX88" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2190,7 +2935,7 @@
     <row r="89" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="9"/>
-      <c r="DX89" s="14">
+      <c r="DX89" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2198,7 +2943,7 @@
     <row r="90" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="9"/>
-      <c r="DX90" s="14">
+      <c r="DX90" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2206,7 +2951,7 @@
     <row r="91" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="9"/>
-      <c r="DX91" s="14">
+      <c r="DX91" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2214,7 +2959,7 @@
     <row r="92" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="9"/>
-      <c r="DX92" s="14">
+      <c r="DX92" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2222,7 +2967,7 @@
     <row r="93" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="9"/>
-      <c r="DX93" s="14">
+      <c r="DX93" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2230,7 +2975,7 @@
     <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="9"/>
-      <c r="DX94" s="14">
+      <c r="DX94" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2238,7 +2983,7 @@
     <row r="95" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="9"/>
-      <c r="DX95" s="14">
+      <c r="DX95" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2246,7 +2991,7 @@
     <row r="96" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="9"/>
-      <c r="DX96" s="14">
+      <c r="DX96" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2254,7 +2999,7 @@
     <row r="97" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="9"/>
-      <c r="DX97" s="14">
+      <c r="DX97" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2262,7 +3007,7 @@
     <row r="98" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="9"/>
-      <c r="DX98" s="14">
+      <c r="DX98" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2270,7 +3015,7 @@
     <row r="99" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="9"/>
-      <c r="DX99" s="14">
+      <c r="DX99" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2278,7 +3023,7 @@
     <row r="100" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="9"/>
-      <c r="DX100" s="14">
+      <c r="DX100" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2286,7 +3031,7 @@
     <row r="101" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="9"/>
-      <c r="DX101" s="14">
+      <c r="DX101" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2294,7 +3039,7 @@
     <row r="102" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="9"/>
-      <c r="DX102" s="14">
+      <c r="DX102" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2302,7 +3047,7 @@
     <row r="103" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="9"/>
-      <c r="DX103" s="14">
+      <c r="DX103" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2310,7 +3055,7 @@
     <row r="104" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="9"/>
-      <c r="DX104" s="14">
+      <c r="DX104" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2318,7 +3063,7 @@
     <row r="105" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="9"/>
-      <c r="DX105" s="14">
+      <c r="DX105" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2326,7 +3071,7 @@
     <row r="106" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="9"/>
-      <c r="DX106" s="14">
+      <c r="DX106" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2334,7 +3079,7 @@
     <row r="107" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="9"/>
-      <c r="DX107" s="14">
+      <c r="DX107" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2342,7 +3087,7 @@
     <row r="108" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="9"/>
-      <c r="DX108" s="14">
+      <c r="DX108" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2350,7 +3095,7 @@
     <row r="109" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="9"/>
-      <c r="DX109" s="14">
+      <c r="DX109" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2358,7 +3103,7 @@
     <row r="110" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="9"/>
-      <c r="DX110" s="14">
+      <c r="DX110" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2366,7 +3111,7 @@
     <row r="111" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="9"/>
-      <c r="DX111" s="14">
+      <c r="DX111" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2374,7 +3119,7 @@
     <row r="112" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="9"/>
-      <c r="DX112" s="14">
+      <c r="DX112" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2382,7 +3127,7 @@
     <row r="113" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="9"/>
-      <c r="DX113" s="14">
+      <c r="DX113" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2390,7 +3135,7 @@
     <row r="114" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="9"/>
-      <c r="DX114" s="14">
+      <c r="DX114" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2398,7 +3143,7 @@
     <row r="115" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="9"/>
-      <c r="DX115" s="14">
+      <c r="DX115" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2406,7 +3151,7 @@
     <row r="116" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="9"/>
-      <c r="DX116" s="14">
+      <c r="DX116" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2414,7 +3159,7 @@
     <row r="117" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="9"/>
-      <c r="DX117" s="14">
+      <c r="DX117" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2422,7 +3167,7 @@
     <row r="118" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="9"/>
-      <c r="DX118" s="14">
+      <c r="DX118" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2430,7 +3175,7 @@
     <row r="119" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="9"/>
-      <c r="DX119" s="14">
+      <c r="DX119" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2438,7 +3183,7 @@
     <row r="120" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="9"/>
-      <c r="DX120" s="14">
+      <c r="DX120" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2446,7 +3191,7 @@
     <row r="121" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="9"/>
-      <c r="DX121" s="14">
+      <c r="DX121" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2454,7 +3199,7 @@
     <row r="122" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="9"/>
-      <c r="DX122" s="14">
+      <c r="DX122" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2462,7 +3207,7 @@
     <row r="123" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="9"/>
-      <c r="DX123" s="14">
+      <c r="DX123" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2470,7 +3215,7 @@
     <row r="124" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="9"/>
-      <c r="DX124" s="14">
+      <c r="DX124" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2478,7 +3223,7 @@
     <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="9"/>
-      <c r="DX125" s="14">
+      <c r="DX125" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2486,7 +3231,7 @@
     <row r="126" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="9"/>
-      <c r="DX126" s="14">
+      <c r="DX126" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2494,7 +3239,7 @@
     <row r="127" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="9"/>
-      <c r="DX127" s="14">
+      <c r="DX127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2502,7 +3247,7 @@
     <row r="128" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="9"/>
-      <c r="DX128" s="14">
+      <c r="DX128" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2510,7 +3255,7 @@
     <row r="129" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="9"/>
-      <c r="DX129" s="14">
+      <c r="DX129" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2518,7 +3263,7 @@
     <row r="130" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="9"/>
-      <c r="DX130" s="14">
+      <c r="DX130" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2526,7 +3271,7 @@
     <row r="131" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="9"/>
-      <c r="DX131" s="14">
+      <c r="DX131" s="1">
         <f t="shared" ref="DX131:DX194" si="2">SUM(C131:DU131)</f>
         <v>0</v>
       </c>
@@ -2534,7 +3279,7 @@
     <row r="132" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="9"/>
-      <c r="DX132" s="14">
+      <c r="DX132" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2542,7 +3287,7 @@
     <row r="133" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="9"/>
-      <c r="DX133" s="14">
+      <c r="DX133" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2550,7 +3295,7 @@
     <row r="134" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="9"/>
-      <c r="DX134" s="14">
+      <c r="DX134" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2558,7 +3303,7 @@
     <row r="135" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="9"/>
-      <c r="DX135" s="14">
+      <c r="DX135" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2566,7 +3311,7 @@
     <row r="136" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="9"/>
-      <c r="DX136" s="14">
+      <c r="DX136" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2574,7 +3319,7 @@
     <row r="137" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="9"/>
-      <c r="DX137" s="14">
+      <c r="DX137" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2582,7 +3327,7 @@
     <row r="138" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="9"/>
-      <c r="DX138" s="14">
+      <c r="DX138" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2590,7 +3335,7 @@
     <row r="139" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="9"/>
-      <c r="DX139" s="14">
+      <c r="DX139" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2598,7 +3343,7 @@
     <row r="140" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="9"/>
-      <c r="DX140" s="14">
+      <c r="DX140" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2606,7 +3351,7 @@
     <row r="141" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="9"/>
-      <c r="DX141" s="14">
+      <c r="DX141" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2614,7 +3359,7 @@
     <row r="142" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="9"/>
-      <c r="DX142" s="14">
+      <c r="DX142" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2622,7 +3367,7 @@
     <row r="143" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="9"/>
-      <c r="DX143" s="14">
+      <c r="DX143" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2630,7 +3375,7 @@
     <row r="144" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="9"/>
-      <c r="DX144" s="14">
+      <c r="DX144" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2638,7 +3383,7 @@
     <row r="145" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="9"/>
-      <c r="DX145" s="14">
+      <c r="DX145" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2646,7 +3391,7 @@
     <row r="146" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="9"/>
-      <c r="DX146" s="14">
+      <c r="DX146" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2654,7 +3399,7 @@
     <row r="147" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="9"/>
-      <c r="DX147" s="14">
+      <c r="DX147" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2662,7 +3407,7 @@
     <row r="148" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="9"/>
-      <c r="DX148" s="14">
+      <c r="DX148" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2670,7 +3415,7 @@
     <row r="149" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="9"/>
-      <c r="DX149" s="14">
+      <c r="DX149" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2678,7 +3423,7 @@
     <row r="150" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="9"/>
-      <c r="DX150" s="14">
+      <c r="DX150" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2686,7 +3431,7 @@
     <row r="151" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="9"/>
-      <c r="DX151" s="14">
+      <c r="DX151" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2694,7 +3439,7 @@
     <row r="152" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="9"/>
-      <c r="DX152" s="14">
+      <c r="DX152" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2702,7 +3447,7 @@
     <row r="153" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="9"/>
-      <c r="DX153" s="14">
+      <c r="DX153" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2710,7 +3455,7 @@
     <row r="154" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="9"/>
-      <c r="DX154" s="14">
+      <c r="DX154" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2718,14 +3463,14 @@
     <row r="155" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="9"/>
-      <c r="DX155" s="14">
+      <c r="DX155" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B156" s="10"/>
-      <c r="DX156" s="14">
+      <c r="DX156" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2733,7 +3478,7 @@
     <row r="157" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="9"/>
-      <c r="DX157" s="14">
+      <c r="DX157" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2741,7 +3486,7 @@
     <row r="158" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="9"/>
-      <c r="DX158" s="14">
+      <c r="DX158" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2749,7 +3494,7 @@
     <row r="159" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="9"/>
-      <c r="DX159" s="14">
+      <c r="DX159" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2757,7 +3502,7 @@
     <row r="160" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="9"/>
-      <c r="DX160" s="14">
+      <c r="DX160" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2765,7 +3510,7 @@
     <row r="161" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="9"/>
-      <c r="DX161" s="14">
+      <c r="DX161" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2773,7 +3518,7 @@
     <row r="162" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="9"/>
-      <c r="DX162" s="14">
+      <c r="DX162" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2781,7 +3526,7 @@
     <row r="163" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="9"/>
-      <c r="DX163" s="14">
+      <c r="DX163" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2789,7 +3534,7 @@
     <row r="164" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="9"/>
-      <c r="DX164" s="14">
+      <c r="DX164" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2797,7 +3542,7 @@
     <row r="165" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="9"/>
-      <c r="DX165" s="14">
+      <c r="DX165" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2805,7 +3550,7 @@
     <row r="166" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="9"/>
-      <c r="DX166" s="14">
+      <c r="DX166" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2813,7 +3558,7 @@
     <row r="167" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="9"/>
-      <c r="DX167" s="14">
+      <c r="DX167" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2821,7 +3566,7 @@
     <row r="168" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="9"/>
-      <c r="DX168" s="14">
+      <c r="DX168" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2829,7 +3574,7 @@
     <row r="169" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="9"/>
-      <c r="DX169" s="14">
+      <c r="DX169" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2837,7 +3582,7 @@
     <row r="170" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="9"/>
-      <c r="DX170" s="14">
+      <c r="DX170" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2845,7 +3590,7 @@
     <row r="171" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="9"/>
-      <c r="DX171" s="14">
+      <c r="DX171" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2853,7 +3598,7 @@
     <row r="172" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="9"/>
-      <c r="DX172" s="14">
+      <c r="DX172" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2861,7 +3606,7 @@
     <row r="173" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="9"/>
-      <c r="DX173" s="14">
+      <c r="DX173" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2869,7 +3614,7 @@
     <row r="174" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="9"/>
-      <c r="DX174" s="14">
+      <c r="DX174" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2877,7 +3622,7 @@
     <row r="175" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="9"/>
-      <c r="DX175" s="14">
+      <c r="DX175" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2885,7 +3630,7 @@
     <row r="176" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="9"/>
-      <c r="DX176" s="14">
+      <c r="DX176" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2893,7 +3638,7 @@
     <row r="177" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="9"/>
-      <c r="DX177" s="14">
+      <c r="DX177" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2901,7 +3646,7 @@
     <row r="178" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="9"/>
-      <c r="DX178" s="14">
+      <c r="DX178" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2909,7 +3654,7 @@
     <row r="179" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="9"/>
-      <c r="DX179" s="14">
+      <c r="DX179" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2917,7 +3662,7 @@
     <row r="180" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="9"/>
-      <c r="DX180" s="14">
+      <c r="DX180" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2925,7 +3670,7 @@
     <row r="181" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="9"/>
-      <c r="DX181" s="14">
+      <c r="DX181" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2933,7 +3678,7 @@
     <row r="182" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="9"/>
-      <c r="DX182" s="14">
+      <c r="DX182" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2941,7 +3686,7 @@
     <row r="183" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="8"/>
-      <c r="DX183" s="14">
+      <c r="DX183" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2949,7 +3694,7 @@
     <row r="184" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="8"/>
-      <c r="DX184" s="14">
+      <c r="DX184" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2957,7 +3702,7 @@
     <row r="185" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="8"/>
-      <c r="DX185" s="14">
+      <c r="DX185" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2965,7 +3710,7 @@
     <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="9"/>
-      <c r="DX186" s="14">
+      <c r="DX186" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2973,7 +3718,7 @@
     <row r="187" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="9"/>
-      <c r="DX187" s="14">
+      <c r="DX187" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2981,7 +3726,7 @@
     <row r="188" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="9"/>
-      <c r="DX188" s="14">
+      <c r="DX188" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2989,7 +3734,7 @@
     <row r="189" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="9"/>
-      <c r="DX189" s="14">
+      <c r="DX189" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2997,7 +3742,7 @@
     <row r="190" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="9"/>
-      <c r="DX190" s="14">
+      <c r="DX190" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3005,7 +3750,7 @@
     <row r="191" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="9"/>
-      <c r="DX191" s="14">
+      <c r="DX191" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3013,7 +3758,7 @@
     <row r="192" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="9"/>
-      <c r="DX192" s="14">
+      <c r="DX192" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3021,7 +3766,7 @@
     <row r="193" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="9"/>
-      <c r="DX193" s="14">
+      <c r="DX193" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3029,7 +3774,7 @@
     <row r="194" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="9"/>
-      <c r="DX194" s="14">
+      <c r="DX194" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3037,7 +3782,7 @@
     <row r="195" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="9"/>
-      <c r="DX195" s="14">
+      <c r="DX195" s="1">
         <f t="shared" ref="DX195:DX258" si="3">SUM(C195:DU195)</f>
         <v>0</v>
       </c>
@@ -3045,7 +3790,7 @@
     <row r="196" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="9"/>
-      <c r="DX196" s="14">
+      <c r="DX196" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3053,7 +3798,7 @@
     <row r="197" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="9"/>
-      <c r="DX197" s="14">
+      <c r="DX197" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3061,7 +3806,7 @@
     <row r="198" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="9"/>
-      <c r="DX198" s="14">
+      <c r="DX198" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3069,7 +3814,7 @@
     <row r="199" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="9"/>
-      <c r="DX199" s="14">
+      <c r="DX199" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3077,7 +3822,7 @@
     <row r="200" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="9"/>
-      <c r="DX200" s="14">
+      <c r="DX200" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3085,7 +3830,7 @@
     <row r="201" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="9"/>
-      <c r="DX201" s="14">
+      <c r="DX201" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3093,7 +3838,7 @@
     <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="9"/>
-      <c r="DX202" s="14">
+      <c r="DX202" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3101,7 +3846,7 @@
     <row r="203" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="9"/>
-      <c r="DX203" s="14">
+      <c r="DX203" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3109,7 +3854,7 @@
     <row r="204" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="9"/>
-      <c r="DX204" s="14">
+      <c r="DX204" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3117,7 +3862,7 @@
     <row r="205" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="9"/>
-      <c r="DX205" s="14">
+      <c r="DX205" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3125,7 +3870,7 @@
     <row r="206" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="9"/>
-      <c r="DX206" s="14">
+      <c r="DX206" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3133,7 +3878,7 @@
     <row r="207" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="9"/>
-      <c r="DX207" s="14">
+      <c r="DX207" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3141,7 +3886,7 @@
     <row r="208" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="9"/>
-      <c r="DX208" s="14">
+      <c r="DX208" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3149,7 +3894,7 @@
     <row r="209" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="9"/>
-      <c r="DX209" s="14">
+      <c r="DX209" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3157,7 +3902,7 @@
     <row r="210" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="9"/>
-      <c r="DX210" s="14">
+      <c r="DX210" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3165,7 +3910,7 @@
     <row r="211" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="9"/>
-      <c r="DX211" s="14">
+      <c r="DX211" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3173,7 +3918,7 @@
     <row r="212" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="9"/>
-      <c r="DX212" s="14">
+      <c r="DX212" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3181,7 +3926,7 @@
     <row r="213" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="9"/>
-      <c r="DX213" s="14">
+      <c r="DX213" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3189,7 +3934,7 @@
     <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="9"/>
-      <c r="DX214" s="14">
+      <c r="DX214" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3197,7 +3942,7 @@
     <row r="215" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="9"/>
-      <c r="DX215" s="14">
+      <c r="DX215" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3205,7 +3950,7 @@
     <row r="216" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="9"/>
-      <c r="DX216" s="14">
+      <c r="DX216" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3213,7 +3958,7 @@
     <row r="217" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="9"/>
-      <c r="DX217" s="14">
+      <c r="DX217" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3221,7 +3966,7 @@
     <row r="218" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="9"/>
-      <c r="DX218" s="14">
+      <c r="DX218" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3229,7 +3974,7 @@
     <row r="219" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="9"/>
-      <c r="DX219" s="14">
+      <c r="DX219" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3237,7 +3982,7 @@
     <row r="220" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="9"/>
-      <c r="DX220" s="14">
+      <c r="DX220" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3245,7 +3990,7 @@
     <row r="221" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="9"/>
-      <c r="DX221" s="14">
+      <c r="DX221" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3253,7 +3998,7 @@
     <row r="222" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="9"/>
-      <c r="DX222" s="14">
+      <c r="DX222" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3261,7 +4006,7 @@
     <row r="223" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="9"/>
-      <c r="DX223" s="14">
+      <c r="DX223" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3269,7 +4014,7 @@
     <row r="224" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="9"/>
-      <c r="DX224" s="14">
+      <c r="DX224" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3277,7 +4022,7 @@
     <row r="225" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="9"/>
-      <c r="DX225" s="14">
+      <c r="DX225" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3285,7 +4030,7 @@
     <row r="226" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="9"/>
-      <c r="DX226" s="14">
+      <c r="DX226" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3293,7 +4038,7 @@
     <row r="227" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="9"/>
-      <c r="DX227" s="14">
+      <c r="DX227" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3301,7 +4046,7 @@
     <row r="228" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="9"/>
-      <c r="DX228" s="14">
+      <c r="DX228" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3309,7 +4054,7 @@
     <row r="229" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="9"/>
-      <c r="DX229" s="14">
+      <c r="DX229" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3317,7 +4062,7 @@
     <row r="230" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="9"/>
-      <c r="DX230" s="14">
+      <c r="DX230" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3325,7 +4070,7 @@
     <row r="231" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="9"/>
-      <c r="DX231" s="14">
+      <c r="DX231" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3333,7 +4078,7 @@
     <row r="232" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="9"/>
-      <c r="DX232" s="14">
+      <c r="DX232" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3341,7 +4086,7 @@
     <row r="233" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="9"/>
-      <c r="DX233" s="14">
+      <c r="DX233" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3349,7 +4094,7 @@
     <row r="234" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="9"/>
-      <c r="DX234" s="14">
+      <c r="DX234" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3357,7 +4102,7 @@
     <row r="235" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="9"/>
-      <c r="DX235" s="14">
+      <c r="DX235" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3365,7 +4110,7 @@
     <row r="236" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="9"/>
-      <c r="DX236" s="14">
+      <c r="DX236" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3373,7 +4118,7 @@
     <row r="237" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="9"/>
-      <c r="DX237" s="14">
+      <c r="DX237" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3381,7 +4126,7 @@
     <row r="238" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="9"/>
-      <c r="DX238" s="14">
+      <c r="DX238" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3389,7 +4134,7 @@
     <row r="239" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="9"/>
-      <c r="DX239" s="14">
+      <c r="DX239" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3397,7 +4142,7 @@
     <row r="240" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="9"/>
-      <c r="DX240" s="14">
+      <c r="DX240" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3405,7 +4150,7 @@
     <row r="241" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="10"/>
-      <c r="DX241" s="14">
+      <c r="DX241" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3413,7 +4158,7 @@
     <row r="242" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="9"/>
-      <c r="DX242" s="14">
+      <c r="DX242" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3421,7 +4166,7 @@
     <row r="243" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="9"/>
-      <c r="DX243" s="14">
+      <c r="DX243" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3429,7 +4174,7 @@
     <row r="244" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="9"/>
-      <c r="DX244" s="14">
+      <c r="DX244" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3437,7 +4182,7 @@
     <row r="245" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="9"/>
-      <c r="DX245" s="14">
+      <c r="DX245" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3445,14 +4190,14 @@
     <row r="246" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="9"/>
-      <c r="DX246" s="14">
+      <c r="DX246" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B247" s="10"/>
-      <c r="DX247" s="14">
+      <c r="DX247" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3460,7 +4205,7 @@
     <row r="248" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="9"/>
-      <c r="DX248" s="14">
+      <c r="DX248" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3468,7 +4213,7 @@
     <row r="249" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="9"/>
-      <c r="DX249" s="14">
+      <c r="DX249" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3476,7 +4221,7 @@
     <row r="250" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="9"/>
-      <c r="DX250" s="14">
+      <c r="DX250" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3484,7 +4229,7 @@
     <row r="251" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="9"/>
-      <c r="DX251" s="14">
+      <c r="DX251" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3492,7 +4237,7 @@
     <row r="252" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="9"/>
-      <c r="DX252" s="14">
+      <c r="DX252" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3500,7 +4245,7 @@
     <row r="253" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="9"/>
-      <c r="DX253" s="14">
+      <c r="DX253" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3508,7 +4253,7 @@
     <row r="254" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="9"/>
-      <c r="DX254" s="14">
+      <c r="DX254" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3516,7 +4261,7 @@
     <row r="255" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="9"/>
-      <c r="DX255" s="14">
+      <c r="DX255" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3524,7 +4269,7 @@
     <row r="256" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="9"/>
-      <c r="DX256" s="14">
+      <c r="DX256" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3532,7 +4277,7 @@
     <row r="257" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="9"/>
-      <c r="DX257" s="14">
+      <c r="DX257" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3540,7 +4285,7 @@
     <row r="258" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="9"/>
-      <c r="DX258" s="14">
+      <c r="DX258" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3548,7 +4293,7 @@
     <row r="259" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="9"/>
-      <c r="DX259" s="14">
+      <c r="DX259" s="1">
         <f t="shared" ref="DX259:DX322" si="4">SUM(C259:DU259)</f>
         <v>0</v>
       </c>
@@ -3556,14 +4301,14 @@
     <row r="260" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="9"/>
-      <c r="DX260" s="14">
+      <c r="DX260" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B261" s="10"/>
-      <c r="DX261" s="14">
+      <c r="DX261" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3571,7 +4316,7 @@
     <row r="262" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="9"/>
-      <c r="DX262" s="14">
+      <c r="DX262" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3579,7 +4324,7 @@
     <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="9"/>
-      <c r="DX263" s="14">
+      <c r="DX263" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3587,7 +4332,7 @@
     <row r="264" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="9"/>
-      <c r="DX264" s="14">
+      <c r="DX264" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3595,7 +4340,7 @@
     <row r="265" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="9"/>
-      <c r="DX265" s="14">
+      <c r="DX265" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3603,7 +4348,7 @@
     <row r="266" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="9"/>
-      <c r="DX266" s="14">
+      <c r="DX266" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3611,7 +4356,7 @@
     <row r="267" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="9"/>
-      <c r="DX267" s="14">
+      <c r="DX267" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3619,7 +4364,7 @@
     <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="8"/>
-      <c r="DX268" s="14">
+      <c r="DX268" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3627,7 +4372,7 @@
     <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="9"/>
-      <c r="DX269" s="14">
+      <c r="DX269" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3635,7 +4380,7 @@
     <row r="270" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="9"/>
-      <c r="DX270" s="14">
+      <c r="DX270" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3643,7 +4388,7 @@
     <row r="271" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="9"/>
-      <c r="DX271" s="14">
+      <c r="DX271" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3651,7 +4396,7 @@
     <row r="272" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="9"/>
-      <c r="DX272" s="14">
+      <c r="DX272" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3659,7 +4404,7 @@
     <row r="273" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="9"/>
-      <c r="DX273" s="14">
+      <c r="DX273" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3667,7 +4412,7 @@
     <row r="274" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="9"/>
-      <c r="DX274" s="14">
+      <c r="DX274" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3675,7 +4420,7 @@
     <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="9"/>
-      <c r="DX275" s="14">
+      <c r="DX275" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3683,7 +4428,7 @@
     <row r="276" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="9"/>
-      <c r="DX276" s="14">
+      <c r="DX276" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3691,7 +4436,7 @@
     <row r="277" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="9"/>
-      <c r="DX277" s="14">
+      <c r="DX277" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3699,7 +4444,7 @@
     <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="9"/>
-      <c r="DX278" s="14">
+      <c r="DX278" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3707,7 +4452,7 @@
     <row r="279" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="9"/>
-      <c r="DX279" s="14">
+      <c r="DX279" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3715,7 +4460,7 @@
     <row r="280" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="9"/>
-      <c r="DX280" s="14">
+      <c r="DX280" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3723,7 +4468,7 @@
     <row r="281" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="9"/>
-      <c r="DX281" s="14">
+      <c r="DX281" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3731,7 +4476,7 @@
     <row r="282" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="9"/>
-      <c r="DX282" s="14">
+      <c r="DX282" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3739,7 +4484,7 @@
     <row r="283" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="9"/>
-      <c r="DX283" s="14">
+      <c r="DX283" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3747,7 +4492,7 @@
     <row r="284" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="9"/>
-      <c r="DX284" s="14">
+      <c r="DX284" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3755,7 +4500,7 @@
     <row r="285" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="9"/>
-      <c r="DX285" s="14">
+      <c r="DX285" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3763,7 +4508,7 @@
     <row r="286" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="9"/>
-      <c r="DX286" s="14">
+      <c r="DX286" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3771,7 +4516,7 @@
     <row r="287" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="9"/>
-      <c r="DX287" s="14">
+      <c r="DX287" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3779,7 +4524,7 @@
     <row r="288" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="9"/>
-      <c r="DX288" s="14">
+      <c r="DX288" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3787,7 +4532,7 @@
     <row r="289" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="9"/>
-      <c r="DX289" s="14">
+      <c r="DX289" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3795,7 +4540,7 @@
     <row r="290" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="9"/>
-      <c r="DX290" s="14">
+      <c r="DX290" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3803,7 +4548,7 @@
     <row r="291" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="9"/>
-      <c r="DX291" s="14">
+      <c r="DX291" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3811,7 +4556,7 @@
     <row r="292" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="9"/>
-      <c r="DX292" s="14">
+      <c r="DX292" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3819,7 +4564,7 @@
     <row r="293" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="9"/>
-      <c r="DX293" s="14">
+      <c r="DX293" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3827,7 +4572,7 @@
     <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="9"/>
-      <c r="DX294" s="14">
+      <c r="DX294" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3835,7 +4580,7 @@
     <row r="295" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="9"/>
-      <c r="DX295" s="14">
+      <c r="DX295" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3843,7 +4588,7 @@
     <row r="296" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="9"/>
-      <c r="DX296" s="14">
+      <c r="DX296" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3851,7 +4596,7 @@
     <row r="297" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="9"/>
-      <c r="DX297" s="14">
+      <c r="DX297" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3859,7 +4604,7 @@
     <row r="298" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="9"/>
-      <c r="DX298" s="14">
+      <c r="DX298" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3867,7 +4612,7 @@
     <row r="299" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="9"/>
-      <c r="DX299" s="14">
+      <c r="DX299" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3875,7 +4620,7 @@
     <row r="300" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="9"/>
-      <c r="DX300" s="14">
+      <c r="DX300" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3883,7 +4628,7 @@
     <row r="301" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="9"/>
-      <c r="DX301" s="14">
+      <c r="DX301" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3891,7 +4636,7 @@
     <row r="302" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="9"/>
-      <c r="DX302" s="14">
+      <c r="DX302" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3899,7 +4644,7 @@
     <row r="303" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="9"/>
-      <c r="DX303" s="14">
+      <c r="DX303" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3907,7 +4652,7 @@
     <row r="304" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="9"/>
-      <c r="DX304" s="14">
+      <c r="DX304" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3915,7 +4660,7 @@
     <row r="305" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="9"/>
-      <c r="DX305" s="14">
+      <c r="DX305" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3923,7 +4668,7 @@
     <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="9"/>
-      <c r="DX306" s="14">
+      <c r="DX306" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3931,7 +4676,7 @@
     <row r="307" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="9"/>
-      <c r="DX307" s="14">
+      <c r="DX307" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3939,7 +4684,7 @@
     <row r="308" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="9"/>
-      <c r="DX308" s="14">
+      <c r="DX308" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3947,14 +4692,14 @@
     <row r="309" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="9"/>
-      <c r="DX309" s="14">
+      <c r="DX309" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B310" s="10"/>
-      <c r="DX310" s="14">
+      <c r="DX310" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3962,7 +4707,7 @@
     <row r="311" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="9"/>
-      <c r="DX311" s="14">
+      <c r="DX311" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3970,7 +4715,7 @@
     <row r="312" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="9"/>
-      <c r="DX312" s="14">
+      <c r="DX312" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3978,7 +4723,7 @@
     <row r="313" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="9"/>
-      <c r="DX313" s="14">
+      <c r="DX313" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3986,7 +4731,7 @@
     <row r="314" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="9"/>
-      <c r="DX314" s="14">
+      <c r="DX314" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3994,7 +4739,7 @@
     <row r="315" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="9"/>
-      <c r="DX315" s="14">
+      <c r="DX315" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4002,7 +4747,7 @@
     <row r="316" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="9"/>
-      <c r="DX316" s="14">
+      <c r="DX316" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4010,7 +4755,7 @@
     <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="9"/>
-      <c r="DX317" s="14">
+      <c r="DX317" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4018,7 +4763,7 @@
     <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="9"/>
-      <c r="DX318" s="14">
+      <c r="DX318" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4026,7 +4771,7 @@
     <row r="319" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="9"/>
-      <c r="DX319" s="14">
+      <c r="DX319" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4034,7 +4779,7 @@
     <row r="320" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="9"/>
-      <c r="DX320" s="14">
+      <c r="DX320" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4042,7 +4787,7 @@
     <row r="321" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="9"/>
-      <c r="DX321" s="14">
+      <c r="DX321" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4050,7 +4795,7 @@
     <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="9"/>
-      <c r="DX322" s="14">
+      <c r="DX322" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4058,7 +4803,7 @@
     <row r="323" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="9"/>
-      <c r="DX323" s="14">
+      <c r="DX323" s="1">
         <f t="shared" ref="DX323:DX386" si="5">SUM(C323:DU323)</f>
         <v>0</v>
       </c>
@@ -4066,7 +4811,7 @@
     <row r="324" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="9"/>
-      <c r="DX324" s="14">
+      <c r="DX324" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4074,7 +4819,7 @@
     <row r="325" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="9"/>
-      <c r="DX325" s="14">
+      <c r="DX325" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4082,7 +4827,7 @@
     <row r="326" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="9"/>
-      <c r="DX326" s="14">
+      <c r="DX326" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4090,7 +4835,7 @@
     <row r="327" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="9"/>
-      <c r="DX327" s="14">
+      <c r="DX327" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4098,7 +4843,7 @@
     <row r="328" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="9"/>
-      <c r="DX328" s="14">
+      <c r="DX328" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4106,7 +4851,7 @@
     <row r="329" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="9"/>
-      <c r="DX329" s="14">
+      <c r="DX329" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4114,7 +4859,7 @@
     <row r="330" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="9"/>
-      <c r="DX330" s="14">
+      <c r="DX330" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4122,7 +4867,7 @@
     <row r="331" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="9"/>
-      <c r="DX331" s="14">
+      <c r="DX331" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4130,7 +4875,7 @@
     <row r="332" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="9"/>
-      <c r="DX332" s="14">
+      <c r="DX332" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4138,7 +4883,7 @@
     <row r="333" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="9"/>
-      <c r="DX333" s="14">
+      <c r="DX333" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4146,7 +4891,7 @@
     <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="9"/>
-      <c r="DX334" s="14">
+      <c r="DX334" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4154,7 +4899,7 @@
     <row r="335" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="9"/>
-      <c r="DX335" s="14">
+      <c r="DX335" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4162,7 +4907,7 @@
     <row r="336" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="9"/>
-      <c r="DX336" s="14">
+      <c r="DX336" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4170,7 +4915,7 @@
     <row r="337" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="9"/>
-      <c r="DX337" s="14">
+      <c r="DX337" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4178,7 +4923,7 @@
     <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="9"/>
-      <c r="DX338" s="14">
+      <c r="DX338" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4186,7 +4931,7 @@
     <row r="339" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="9"/>
-      <c r="DX339" s="14">
+      <c r="DX339" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4194,7 +4939,7 @@
     <row r="340" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="9"/>
-      <c r="DX340" s="14">
+      <c r="DX340" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4202,7 +4947,7 @@
     <row r="341" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="9"/>
-      <c r="DX341" s="14">
+      <c r="DX341" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4210,7 +4955,7 @@
     <row r="342" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="9"/>
-      <c r="DX342" s="14">
+      <c r="DX342" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4218,7 +4963,7 @@
     <row r="343" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="9"/>
-      <c r="DX343" s="14">
+      <c r="DX343" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4226,7 +4971,7 @@
     <row r="344" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="9"/>
-      <c r="DX344" s="14">
+      <c r="DX344" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4234,7 +4979,7 @@
     <row r="345" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="9"/>
-      <c r="DX345" s="14">
+      <c r="DX345" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4242,7 +4987,7 @@
     <row r="346" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="9"/>
-      <c r="DX346" s="14">
+      <c r="DX346" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4250,7 +4995,7 @@
     <row r="347" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="9"/>
-      <c r="DX347" s="14">
+      <c r="DX347" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4258,7 +5003,7 @@
     <row r="348" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="9"/>
-      <c r="DX348" s="14">
+      <c r="DX348" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4266,7 +5011,7 @@
     <row r="349" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="9"/>
-      <c r="DX349" s="14">
+      <c r="DX349" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4274,7 +5019,7 @@
     <row r="350" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="9"/>
-      <c r="DX350" s="14">
+      <c r="DX350" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4282,7 +5027,7 @@
     <row r="351" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="9"/>
-      <c r="DX351" s="14">
+      <c r="DX351" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4290,7 +5035,7 @@
     <row r="352" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="9"/>
-      <c r="DX352" s="14">
+      <c r="DX352" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4298,7 +5043,7 @@
     <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="9"/>
-      <c r="DX353" s="14">
+      <c r="DX353" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4306,7 +5051,7 @@
     <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="9"/>
-      <c r="DX354" s="14">
+      <c r="DX354" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4314,7 +5059,7 @@
     <row r="355" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="9"/>
-      <c r="DX355" s="14">
+      <c r="DX355" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4322,7 +5067,7 @@
     <row r="356" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="9"/>
-      <c r="DX356" s="14">
+      <c r="DX356" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4330,7 +5075,7 @@
     <row r="357" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="9"/>
-      <c r="DX357" s="14">
+      <c r="DX357" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4338,7 +5083,7 @@
     <row r="358" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="9"/>
-      <c r="DX358" s="14">
+      <c r="DX358" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4346,7 +5091,7 @@
     <row r="359" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="9"/>
-      <c r="DX359" s="14">
+      <c r="DX359" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4354,7 +5099,7 @@
     <row r="360" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="9"/>
-      <c r="DX360" s="14">
+      <c r="DX360" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4362,7 +5107,7 @@
     <row r="361" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="9"/>
-      <c r="DX361" s="14">
+      <c r="DX361" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4370,7 +5115,7 @@
     <row r="362" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="9"/>
-      <c r="DX362" s="14">
+      <c r="DX362" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4378,7 +5123,7 @@
     <row r="363" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="9"/>
-      <c r="DX363" s="14">
+      <c r="DX363" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4386,7 +5131,7 @@
     <row r="364" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="9"/>
-      <c r="DX364" s="14">
+      <c r="DX364" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4394,7 +5139,7 @@
     <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="8"/>
-      <c r="DX365" s="14">
+      <c r="DX365" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4402,782 +5147,782 @@
     <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="8"/>
-      <c r="DX366" s="14">
+      <c r="DX366" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:128" x14ac:dyDescent="0.25">
       <c r="B367" s="11"/>
-      <c r="DX367" s="14">
+      <c r="DX367" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="DX368" s="14">
+      <c r="DX368" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX369" s="14">
+      <c r="DX369" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX370" s="14">
+      <c r="DX370" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX371" s="14">
+      <c r="DX371" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX372" s="14">
+      <c r="DX372" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX373" s="14">
+      <c r="DX373" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX374" s="14">
+      <c r="DX374" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX375" s="14">
+      <c r="DX375" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX376" s="14">
+      <c r="DX376" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX377" s="14">
+      <c r="DX377" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX378" s="14">
+      <c r="DX378" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX379" s="14">
+      <c r="DX379" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX380" s="14">
+      <c r="DX380" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX381" s="14">
+      <c r="DX381" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX382" s="14">
+      <c r="DX382" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX383" s="14">
+      <c r="DX383" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX384" s="14">
+      <c r="DX384" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX385" s="14">
+      <c r="DX385" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX386" s="14">
+      <c r="DX386" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX387" s="14">
+      <c r="DX387" s="1">
         <f t="shared" ref="DX387:DX450" si="6">SUM(C387:DU387)</f>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX388" s="14">
+      <c r="DX388" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX389" s="14">
+      <c r="DX389" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX390" s="14">
+      <c r="DX390" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX391" s="14">
+      <c r="DX391" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX392" s="14">
+      <c r="DX392" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX393" s="14">
+      <c r="DX393" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX394" s="14">
+      <c r="DX394" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX395" s="14">
+      <c r="DX395" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX396" s="14">
+      <c r="DX396" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX397" s="14">
+      <c r="DX397" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX398" s="14">
+      <c r="DX398" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX399" s="14">
+      <c r="DX399" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX400" s="14">
+      <c r="DX400" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX401" s="14">
+      <c r="DX401" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX402" s="14">
+      <c r="DX402" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX403" s="14">
+      <c r="DX403" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX404" s="14">
+      <c r="DX404" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX405" s="14">
+      <c r="DX405" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX406" s="14">
+      <c r="DX406" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX407" s="14">
+      <c r="DX407" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX408" s="14">
+      <c r="DX408" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX409" s="14">
+      <c r="DX409" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX410" s="14">
+      <c r="DX410" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX411" s="14">
+      <c r="DX411" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX412" s="14">
+      <c r="DX412" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX413" s="14">
+      <c r="DX413" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX414" s="14">
+      <c r="DX414" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX415" s="14">
+      <c r="DX415" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX416" s="14">
+      <c r="DX416" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX417" s="14">
+      <c r="DX417" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX418" s="14">
+      <c r="DX418" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX419" s="14">
+      <c r="DX419" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX420" s="14">
+      <c r="DX420" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX421" s="14">
+      <c r="DX421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX422" s="14">
+      <c r="DX422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX423" s="14">
+      <c r="DX423" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX424" s="14">
+      <c r="DX424" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX425" s="14">
+      <c r="DX425" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX426" s="14">
+      <c r="DX426" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX427" s="14">
+      <c r="DX427" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX428" s="14">
+      <c r="DX428" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX429" s="14">
+      <c r="DX429" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX430" s="14">
+      <c r="DX430" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX431" s="14">
+      <c r="DX431" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX432" s="14">
+      <c r="DX432" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX433" s="14">
+      <c r="DX433" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX434" s="14">
+      <c r="DX434" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX435" s="14">
+      <c r="DX435" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX436" s="14">
+      <c r="DX436" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX437" s="14">
+      <c r="DX437" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX438" s="14">
+      <c r="DX438" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX439" s="14">
+      <c r="DX439" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX440" s="14">
+      <c r="DX440" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX441" s="14">
+      <c r="DX441" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX442" s="14">
+      <c r="DX442" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX443" s="14">
+      <c r="DX443" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX444" s="14">
+      <c r="DX444" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX445" s="14">
+      <c r="DX445" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX446" s="14">
+      <c r="DX446" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX447" s="14">
+      <c r="DX447" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX448" s="14">
+      <c r="DX448" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX449" s="14">
+      <c r="DX449" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX450" s="14">
+      <c r="DX450" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX451" s="14">
+      <c r="DX451" s="1">
         <f t="shared" ref="DX451:DX495" si="7">SUM(C451:DU451)</f>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX452" s="14">
+      <c r="DX452" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX453" s="14">
+      <c r="DX453" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX454" s="14">
+      <c r="DX454" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX455" s="14">
+      <c r="DX455" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX456" s="14">
+      <c r="DX456" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX457" s="14">
+      <c r="DX457" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX458" s="14">
+      <c r="DX458" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX459" s="14">
+      <c r="DX459" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX460" s="14">
+      <c r="DX460" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX461" s="14">
+      <c r="DX461" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX462" s="14">
+      <c r="DX462" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX463" s="14">
+      <c r="DX463" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX464" s="14">
+      <c r="DX464" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX465" s="14">
+      <c r="DX465" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX466" s="14">
+      <c r="DX466" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX467" s="14">
+      <c r="DX467" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX468" s="14">
+      <c r="DX468" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX469" s="14">
+      <c r="DX469" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX470" s="14">
+      <c r="DX470" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX471" s="14">
+      <c r="DX471" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX472" s="14">
+      <c r="DX472" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX473" s="14">
+      <c r="DX473" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX474" s="14">
+      <c r="DX474" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX475" s="14">
+      <c r="DX475" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX476" s="14">
+      <c r="DX476" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX477" s="14">
+      <c r="DX477" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX478" s="14">
+      <c r="DX478" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX479" s="14">
+      <c r="DX479" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX480" s="14">
+      <c r="DX480" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX481" s="14">
+      <c r="DX481" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX482" s="14">
+      <c r="DX482" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX483" s="14">
+      <c r="DX483" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX484" s="14">
+      <c r="DX484" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX485" s="14">
+      <c r="DX485" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX486" s="14">
+      <c r="DX486" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX487" s="14">
+      <c r="DX487" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX488" s="14">
+      <c r="DX488" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX489" s="14">
+      <c r="DX489" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX490" s="14">
+      <c r="DX490" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX491" s="14">
+      <c r="DX491" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX492" s="14">
+      <c r="DX492" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX493" s="14">
+      <c r="DX493" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX494" s="14">
+      <c r="DX494" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="128:128" x14ac:dyDescent="0.25">
-      <c r="DX495" s="14">
+      <c r="DX495" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -454,6 +454,60 @@
   </si>
   <si>
     <t>16/5/2023</t>
+  </si>
+  <si>
+    <t>17/5/2023</t>
+  </si>
+  <si>
+    <t>18/5/2023</t>
+  </si>
+  <si>
+    <t>19/5/2023</t>
+  </si>
+  <si>
+    <t>20/5/2023</t>
+  </si>
+  <si>
+    <t>21/5/2023</t>
+  </si>
+  <si>
+    <t>22/5/2023</t>
+  </si>
+  <si>
+    <t>23/5/2023</t>
+  </si>
+  <si>
+    <t>24/5/2023</t>
+  </si>
+  <si>
+    <t>25/5/2023</t>
+  </si>
+  <si>
+    <t>26/5/2023</t>
+  </si>
+  <si>
+    <t>27/5/2023</t>
+  </si>
+  <si>
+    <t>28/5/2023</t>
+  </si>
+  <si>
+    <t>29/5/2023</t>
+  </si>
+  <si>
+    <t>30/5/2023</t>
+  </si>
+  <si>
+    <t>31/5/2023</t>
+  </si>
+  <si>
+    <t>13/6/2023</t>
+  </si>
+  <si>
+    <t>14/6/2023</t>
+  </si>
+  <si>
+    <t>15/6/2023</t>
   </si>
 </sst>
 </file>
@@ -825,8 +879,8 @@
   <dimension ref="A1:DX495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,251 +2537,1071 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="DX33" s="13">
+      <c r="B33" s="9">
+        <v>157700</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="9">
+        <v>253550</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV34" s="1">
+        <v>1</v>
+      </c>
       <c r="DX34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="9">
+        <v>367200</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD35" s="1">
+        <v>1</v>
+      </c>
       <c r="DX35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
       <c r="DX36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+    <row r="37" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="9">
+        <v>142200</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>1</v>
+      </c>
       <c r="DX37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="9">
+        <v>161450</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV38" s="1">
+        <v>1</v>
+      </c>
       <c r="DX38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="9">
+        <v>128900</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU39" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ39" s="1">
+        <v>1</v>
+      </c>
       <c r="DX39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="9">
+        <v>109600</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>1</v>
+      </c>
       <c r="DX40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="9">
+        <v>42200</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>1</v>
+      </c>
       <c r="DX41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="9">
+        <v>192100</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF42" s="1">
+        <v>1</v>
+      </c>
       <c r="DX42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0</v>
+      </c>
       <c r="DX43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="9">
+        <v>164230</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX44" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA44" s="1">
+        <v>1</v>
+      </c>
       <c r="DX44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="9">
+        <v>175050</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX45" s="1">
+        <v>1</v>
+      </c>
       <c r="DX45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="9">
+        <v>186450</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP46" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ46" s="1">
+        <v>1</v>
+      </c>
       <c r="DX46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="9">
+        <v>94850</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>2</v>
+      </c>
       <c r="DX47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="9">
+        <v>180180</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>6</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN48" s="1">
+        <v>1</v>
+      </c>
       <c r="DX48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="4">
+        <v>44932</v>
+      </c>
+      <c r="B49" s="9">
+        <v>308650</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>14</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2</v>
+      </c>
+      <c r="O49" s="1">
+        <v>5</v>
+      </c>
+      <c r="W49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX49" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG49" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS49" s="1">
+        <v>1</v>
+      </c>
       <c r="DX49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0</v>
+      </c>
       <c r="DX50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="4">
+        <v>44991</v>
+      </c>
+      <c r="B51" s="9">
+        <v>305050</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7</v>
+      </c>
+      <c r="L51" s="1">
+        <v>12</v>
+      </c>
+      <c r="M51" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW51" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS51" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD51" s="1">
+        <v>1</v>
+      </c>
       <c r="DX51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B52" s="9">
+        <v>391810</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX52" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN52" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG52" s="1">
+        <v>1</v>
+      </c>
       <c r="DX52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B53" s="9">
+        <v>303850</v>
+      </c>
+      <c r="K53" s="1">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>13</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU53" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL53" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO53" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ53" s="1">
+        <v>1</v>
+      </c>
       <c r="DX53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="4">
+        <v>45083</v>
+      </c>
+      <c r="B54" s="9">
+        <v>284950</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC54" s="1">
+        <v>1</v>
+      </c>
       <c r="DX54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B55" s="9">
+        <v>294220</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY55" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS55" s="1">
+        <v>1</v>
+      </c>
       <c r="DX55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="4">
+        <v>45144</v>
+      </c>
+      <c r="B56" s="9">
+        <v>156150</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI56" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN56" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO56" s="1">
+        <v>1</v>
+      </c>
       <c r="DX56" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
       <c r="DX57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="4">
+        <v>45205</v>
+      </c>
+      <c r="B58" s="9">
+        <v>262000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA58" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS58" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO58" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR58" s="1">
+        <v>1</v>
+      </c>
       <c r="DX58" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B59" s="9">
+        <v>568350</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN59" s="1">
+        <v>1</v>
+      </c>
       <c r="DX59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="4">
+        <v>45266</v>
+      </c>
+      <c r="B60" s="9">
+        <v>192800</v>
+      </c>
+      <c r="BA60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ60" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN60" s="1">
+        <v>1</v>
+      </c>
       <c r="DX60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="9">
+        <v>558200</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE61" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI61" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM61" s="1">
+        <v>1</v>
+      </c>
       <c r="DX61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="9">
+        <v>431400</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ62" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP62" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN62" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ62" s="1">
+        <v>1</v>
+      </c>
       <c r="DX62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="9"/>
-      <c r="DX63" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="DX63" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -508,6 +508,63 @@
   </si>
   <si>
     <t>15/6/2023</t>
+  </si>
+  <si>
+    <t>16/6/2023</t>
+  </si>
+  <si>
+    <t>17/6/2023</t>
+  </si>
+  <si>
+    <t>18/6/2023</t>
+  </si>
+  <si>
+    <t>19/6/2023</t>
+  </si>
+  <si>
+    <t>20/6/2023</t>
+  </si>
+  <si>
+    <t>21/6/2023</t>
+  </si>
+  <si>
+    <t>22/6/2023</t>
+  </si>
+  <si>
+    <t>23/6/2023</t>
+  </si>
+  <si>
+    <t>24/6/2023</t>
+  </si>
+  <si>
+    <t>25/6/2023</t>
+  </si>
+  <si>
+    <t>26/6/2023</t>
+  </si>
+  <si>
+    <t>27/6/2023</t>
+  </si>
+  <si>
+    <t>28/6/2023</t>
+  </si>
+  <si>
+    <t>29/6/2023</t>
+  </si>
+  <si>
+    <t>30/6/2023</t>
+  </si>
+  <si>
+    <t>13/7/2023</t>
+  </si>
+  <si>
+    <t>14/7/2023</t>
+  </si>
+  <si>
+    <t>15/7/2023</t>
+  </si>
+  <si>
+    <t>16/7/2023</t>
   </si>
 </sst>
 </file>
@@ -879,8 +936,8 @@
   <dimension ref="A1:DX495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,9 +1015,8 @@
     <col min="114" max="114" width="10.7109375" customWidth="1"/>
     <col min="115" max="115" width="10.28515625" customWidth="1"/>
     <col min="116" max="116" width="12.140625" customWidth="1"/>
-    <col min="117" max="117" width="12.28515625" customWidth="1"/>
-    <col min="118" max="118" width="15.28515625" customWidth="1"/>
-    <col min="119" max="121" width="12.7109375" customWidth="1"/>
+    <col min="117" max="117" width="9.28515625" customWidth="1"/>
+    <col min="118" max="121" width="12.7109375" customWidth="1"/>
     <col min="122" max="122" width="10.5703125" customWidth="1"/>
     <col min="123" max="123" width="8.7109375" customWidth="1"/>
     <col min="124" max="126" width="9.7109375" customWidth="1"/>
@@ -3596,260 +3652,1185 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="DX63" s="13">
+      <c r="B63" s="9">
+        <v>296600</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK63" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT63" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN63" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD63" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="9">
+        <v>102400</v>
+      </c>
+      <c r="L64" s="1">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP64" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC64" s="1">
+        <v>1</v>
+      </c>
       <c r="DX64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="9">
+        <v>161500</v>
+      </c>
+      <c r="M65" s="1">
+        <v>3</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ65" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN65" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM65" s="1">
+        <v>1</v>
+      </c>
       <c r="DX65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="9">
+        <v>250200</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO66" s="1">
+        <v>1</v>
+      </c>
       <c r="DX66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="9">
+        <v>209400</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI67" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX67" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF67" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP67" s="1">
+        <v>1</v>
+      </c>
       <c r="DX67" s="1">
         <f t="shared" ref="DX67:DX130" si="1">SUM(C67:DU67)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="9">
+        <v>223300</v>
+      </c>
+      <c r="BA68" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU68" s="1">
+        <v>1</v>
+      </c>
       <c r="DX68" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="9">
+        <v>196000</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="W69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ69" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP69" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD69" s="1">
+        <v>1</v>
+      </c>
       <c r="DX69" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="9">
+        <v>556850</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+      <c r="U70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>8</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP70" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT70" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM70" s="1">
+        <v>1</v>
+      </c>
       <c r="DX70" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="9">
+        <v>276200</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX71" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF71" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN71" s="1">
+        <v>1</v>
+      </c>
       <c r="DX71" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="9">
+        <v>554650</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP72" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW72" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA72" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN72" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO72" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP72" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ72" s="1">
+        <v>1</v>
+      </c>
       <c r="DX72" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="9">
+        <v>770900</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ73" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP73" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW73" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA73" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF73" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG73" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN73" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU73" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE73" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG73" s="1">
+        <v>1</v>
+      </c>
       <c r="DX73" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="9">
+        <v>910800</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>3</v>
+      </c>
+      <c r="X74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ74" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR74" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN74" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO74" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP74" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD74" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE74" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH74" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM74" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN74" s="1">
+        <v>1</v>
+      </c>
       <c r="DX74" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1110200</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>5</v>
+      </c>
+      <c r="X75" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR75" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA75" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI75" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX75" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA75" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF75" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL75" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM75" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN75" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP75" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV75" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG75" s="1">
+        <v>1</v>
+      </c>
       <c r="DX75" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="9">
+        <v>789950</v>
+      </c>
+      <c r="S76" s="1">
+        <v>1</v>
+      </c>
+      <c r="T76" s="1">
+        <v>1</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY76" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ76" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX76" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA76" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF76" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN76" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP76" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX76" s="1">
+        <v>1</v>
+      </c>
       <c r="DX76" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="9">
+        <v>47700</v>
+      </c>
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR77" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA77" s="1">
+        <v>1</v>
+      </c>
       <c r="DX77" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="9">
+        <v>62000</v>
+      </c>
+      <c r="AY78" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>2</v>
+      </c>
       <c r="DX78" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="4">
+        <v>44933</v>
+      </c>
+      <c r="B79" s="9">
+        <v>266500</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ79" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ79" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD79" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM79" s="1">
+        <v>1</v>
+      </c>
       <c r="DX79" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="4">
+        <v>44964</v>
+      </c>
+      <c r="B80" s="9">
+        <v>148600</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ80" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ80" s="1">
+        <v>1</v>
+      </c>
       <c r="DX80" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="4">
+        <v>44992</v>
+      </c>
+      <c r="B81" s="9">
+        <v>131700</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU81" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI81" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ81" s="1">
+        <v>1</v>
+      </c>
       <c r="DX81" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="4">
+        <v>45023</v>
+      </c>
+      <c r="B82" s="9">
+        <v>289300</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX82" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK82" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW82" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN82" s="1">
+        <v>1</v>
+      </c>
       <c r="DX82" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B83" s="9">
+        <v>246800</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="S83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK83" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK83" s="1">
+        <v>1</v>
+      </c>
       <c r="DX83" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="4">
+        <v>45084</v>
+      </c>
+      <c r="B84" s="9">
+        <v>267100</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>3</v>
+      </c>
+      <c r="W84" s="1">
+        <v>1</v>
+      </c>
+      <c r="X84" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO84" s="1">
+        <v>1</v>
+      </c>
       <c r="DX84" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B85" s="9">
+        <v>0</v>
+      </c>
       <c r="DX85" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="4">
+        <v>45145</v>
+      </c>
+      <c r="B86" s="9">
+        <v>160050</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="W86" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU86" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ86" s="1">
+        <v>1</v>
+      </c>
       <c r="DX86" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B87" s="9">
+        <v>273900</v>
+      </c>
+      <c r="W87" s="1">
+        <v>3</v>
+      </c>
+      <c r="X87" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK87" s="1">
+        <v>1</v>
+      </c>
       <c r="DX87" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B88" s="9">
+        <v>178060</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ88" s="1">
+        <v>1</v>
+      </c>
       <c r="DX88" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="4">
+        <v>45237</v>
+      </c>
+      <c r="B89" s="9">
+        <v>183150</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>3</v>
+      </c>
+      <c r="X89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP89" s="1">
+        <v>1</v>
+      </c>
       <c r="DX89" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="4">
+        <v>45267</v>
+      </c>
+      <c r="B90" s="9">
+        <v>126100</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB90" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ90" s="1">
+        <v>1</v>
+      </c>
       <c r="DX90" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="9">
+        <v>277750</v>
+      </c>
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="S91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF91" s="1">
+        <v>1</v>
+      </c>
       <c r="DX91" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="9">
+        <v>0</v>
+      </c>
       <c r="DX92" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="9">
+        <v>198100</v>
+      </c>
+      <c r="M93" s="1">
+        <v>2</v>
+      </c>
+      <c r="O93" s="1">
+        <v>5</v>
+      </c>
+      <c r="X93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM93" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS93" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA93" s="1">
+        <v>1</v>
+      </c>
       <c r="DX93" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="9"/>
-      <c r="DX94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="DX94" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -565,6 +565,63 @@
   </si>
   <si>
     <t>16/7/2023</t>
+  </si>
+  <si>
+    <t>17/7/2023</t>
+  </si>
+  <si>
+    <t>18/7/2023</t>
+  </si>
+  <si>
+    <t>19/7/2023</t>
+  </si>
+  <si>
+    <t>20/7/2023</t>
+  </si>
+  <si>
+    <t>21/7/2023</t>
+  </si>
+  <si>
+    <t>22/7/2023</t>
+  </si>
+  <si>
+    <t>23/7/2023</t>
+  </si>
+  <si>
+    <t>24/7/2023</t>
+  </si>
+  <si>
+    <t>25/7/2023</t>
+  </si>
+  <si>
+    <t>26/7/2023</t>
+  </si>
+  <si>
+    <t>27/7/2023</t>
+  </si>
+  <si>
+    <t>28/7/2023</t>
+  </si>
+  <si>
+    <t>29/7/2023</t>
+  </si>
+  <si>
+    <t>30/7/2023</t>
+  </si>
+  <si>
+    <t>31/7/2023</t>
+  </si>
+  <si>
+    <t>13/8/2023</t>
+  </si>
+  <si>
+    <t>14/8/2023</t>
+  </si>
+  <si>
+    <t>15/8/2023</t>
+  </si>
+  <si>
+    <t>16/8/2023</t>
   </si>
 </sst>
 </file>
@@ -936,8 +993,8 @@
   <dimension ref="A1:DX495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,260 +4882,921 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="DX94" s="13">
+      <c r="B94" s="9">
+        <v>227150</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP94" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK94" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX94" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="9">
+        <v>103300</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ95" s="1">
+        <v>1</v>
+      </c>
       <c r="DX95" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="9">
+        <v>211200</v>
+      </c>
+      <c r="M96" s="1">
+        <v>4</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS96" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ96" s="1">
+        <v>1</v>
+      </c>
       <c r="DX96" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="9">
+        <v>132600</v>
+      </c>
+      <c r="M97" s="1">
+        <v>3</v>
+      </c>
+      <c r="W97" s="1">
+        <v>1</v>
+      </c>
+      <c r="X97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL97" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX97" s="1">
+        <v>1</v>
+      </c>
       <c r="DX97" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="9">
+        <v>203900</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>8</v>
+      </c>
+      <c r="S98" s="1">
+        <v>1</v>
+      </c>
+      <c r="W98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB98" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE98" s="1">
+        <v>1</v>
+      </c>
       <c r="DX98" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="9">
+        <v>0</v>
+      </c>
       <c r="DX99" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="9">
+        <v>146500</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>3</v>
+      </c>
+      <c r="S100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI100" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA100" s="1">
+        <v>1</v>
+      </c>
       <c r="DX100" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="9">
+        <v>106200</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>3</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="S101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO101" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO101" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR101" s="1">
+        <v>1</v>
+      </c>
       <c r="DX101" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="9">
+        <v>285000</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
+        <v>3</v>
+      </c>
+      <c r="M102" s="1">
+        <v>11</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+      <c r="S102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO102" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE102" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ102" s="1">
+        <v>1</v>
+      </c>
       <c r="DX102" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="9">
+        <v>278700</v>
+      </c>
+      <c r="M103" s="1">
+        <v>12</v>
+      </c>
+      <c r="O103" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU103" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ103" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE103" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG103" s="1">
+        <v>1</v>
+      </c>
       <c r="DX103" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="9">
+        <v>226700</v>
+      </c>
+      <c r="M104" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT104" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA104" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC104" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN104" s="1">
+        <v>1</v>
+      </c>
       <c r="DX104" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="9">
+        <v>214650</v>
+      </c>
+      <c r="M105" s="1">
+        <v>7</v>
+      </c>
+      <c r="S105" s="1">
+        <v>1</v>
+      </c>
+      <c r="X105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP105" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF105" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC105" s="1">
+        <v>1</v>
+      </c>
       <c r="DX105" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="9">
+        <v>0</v>
+      </c>
       <c r="DX106" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="9">
+        <v>187700</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT107" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE107" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN107" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE107" s="1">
+        <v>1</v>
+      </c>
       <c r="DX107" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="9">
+        <v>349000</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>3</v>
+      </c>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
+      <c r="X108" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU108" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI108" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP108" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE108" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ108" s="1">
+        <v>1</v>
+      </c>
       <c r="DX108" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="9">
+        <v>303700</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>6</v>
+      </c>
+      <c r="S109" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK109" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL109" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP109" s="1">
+        <v>1</v>
+      </c>
       <c r="DX109" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="4">
+        <v>44934</v>
+      </c>
+      <c r="B110" s="9">
+        <v>355150</v>
+      </c>
+      <c r="L110" s="1">
+        <v>5</v>
+      </c>
+      <c r="M110" s="1">
+        <v>4</v>
+      </c>
+      <c r="O110" s="1">
+        <v>6</v>
+      </c>
+      <c r="S110" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI110" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI110" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX110" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ110" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ110" s="1">
+        <v>1</v>
+      </c>
       <c r="DX110" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="4">
+        <v>44965</v>
+      </c>
+      <c r="B111" s="9">
+        <v>87400</v>
+      </c>
+      <c r="M111" s="1">
+        <v>4</v>
+      </c>
+      <c r="S111" s="1">
+        <v>2</v>
+      </c>
+      <c r="T111" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR111" s="1">
+        <v>1</v>
+      </c>
       <c r="DX111" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B112" s="9">
+        <v>145500</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>3</v>
+      </c>
+      <c r="O112" s="1">
+        <v>2</v>
+      </c>
+      <c r="T112" s="1">
+        <v>1</v>
+      </c>
+      <c r="X112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI112" s="1">
+        <v>1</v>
+      </c>
       <c r="DX112" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="4">
+        <v>45024</v>
+      </c>
+      <c r="B113" s="9">
+        <v>0</v>
+      </c>
       <c r="DX113" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B114" s="9">
+        <v>201700</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA114" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE114" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ114" s="1">
+        <v>1</v>
+      </c>
       <c r="DX114" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="4">
+        <v>45085</v>
+      </c>
+      <c r="B115" s="9">
+        <v>56400</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="1">
+        <v>1</v>
+      </c>
       <c r="DX115" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B116" s="9">
+        <v>67350</v>
+      </c>
+      <c r="AH116" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ116" s="1">
+        <v>1</v>
+      </c>
       <c r="DX116" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="4">
+        <v>45146</v>
+      </c>
+      <c r="B117" s="9">
+        <v>218800</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI117" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL117" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI117" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP117" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP117" s="1">
+        <v>1</v>
+      </c>
       <c r="DX117" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="4">
+        <v>45177</v>
+      </c>
+      <c r="B118" s="9">
+        <v>80000</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA118" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI118" s="1">
+        <v>1</v>
+      </c>
       <c r="DX118" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="4">
+        <v>45207</v>
+      </c>
+      <c r="B119" s="9">
+        <v>190300</v>
+      </c>
+      <c r="L119" s="1">
+        <v>1</v>
+      </c>
+      <c r="W119" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ119" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA119" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI119" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX119" s="1">
+        <v>1</v>
+      </c>
       <c r="DX119" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B120" s="9">
+        <v>0</v>
+      </c>
       <c r="DX120" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="4">
+        <v>45268</v>
+      </c>
+      <c r="B121" s="9">
+        <v>211200</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="S121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD121" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE121" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF121" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL121" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW121" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX121" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE121" s="1">
+        <v>1</v>
+      </c>
       <c r="DX121" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="9">
+        <v>190100</v>
+      </c>
+      <c r="L122" s="1">
+        <v>1</v>
+      </c>
+      <c r="W122" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="1">
+        <v>1</v>
+      </c>
       <c r="DX122" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="9">
+        <v>84000</v>
+      </c>
+      <c r="AI123" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI123" s="1">
+        <v>1</v>
+      </c>
       <c r="DX123" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="9">
+        <v>187000</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV124" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN124" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP124" s="1">
+        <v>1</v>
+      </c>
       <c r="DX124" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="9"/>
-      <c r="DX125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="DX125" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -622,6 +622,117 @@
   </si>
   <si>
     <t>16/8/2023</t>
+  </si>
+  <si>
+    <t>17/8/2023</t>
+  </si>
+  <si>
+    <t>18/8/2023</t>
+  </si>
+  <si>
+    <t>19/8/2023</t>
+  </si>
+  <si>
+    <t>20/8/2023</t>
+  </si>
+  <si>
+    <t>21/8/2023</t>
+  </si>
+  <si>
+    <t>22/8/2023</t>
+  </si>
+  <si>
+    <t>23/8/2023</t>
+  </si>
+  <si>
+    <t>24/8/2023</t>
+  </si>
+  <si>
+    <t>25/8/2023</t>
+  </si>
+  <si>
+    <t>26/8/2023</t>
+  </si>
+  <si>
+    <t>27/8/2023</t>
+  </si>
+  <si>
+    <t>28/8/2023</t>
+  </si>
+  <si>
+    <t>29/8/2023</t>
+  </si>
+  <si>
+    <t>30/8/2023</t>
+  </si>
+  <si>
+    <t>31/8/2023</t>
+  </si>
+  <si>
+    <t>13/9/2023</t>
+  </si>
+  <si>
+    <t>14/9/2023</t>
+  </si>
+  <si>
+    <t>15/9/2023</t>
+  </si>
+  <si>
+    <t>16/9/2023</t>
+  </si>
+  <si>
+    <t>17/9/2023</t>
+  </si>
+  <si>
+    <t>18/9/2023</t>
+  </si>
+  <si>
+    <t>19/9/2023</t>
+  </si>
+  <si>
+    <t>20/9/2023</t>
+  </si>
+  <si>
+    <t>21/9/2023</t>
+  </si>
+  <si>
+    <t>22/9/2023</t>
+  </si>
+  <si>
+    <t>23/9/2023</t>
+  </si>
+  <si>
+    <t>24/9/2023</t>
+  </si>
+  <si>
+    <t>25/9/2023</t>
+  </si>
+  <si>
+    <t>26/9/2023</t>
+  </si>
+  <si>
+    <t>27/9/2023</t>
+  </si>
+  <si>
+    <t>28/9/2023</t>
+  </si>
+  <si>
+    <t>29/9/2023</t>
+  </si>
+  <si>
+    <t>30/9/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
   </si>
 </sst>
 </file>
@@ -707,7 +818,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -990,11 +1101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX495"/>
+  <dimension ref="A1:DX496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1127,7 @@
     <col min="21" max="21" width="8.28515625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
     <col min="25" max="25" width="15.28515625" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
     <col min="27" max="27" width="13.85546875" customWidth="1"/>
@@ -5791,499 +5902,1692 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="DX125" s="13">
+      <c r="B125" s="9">
+        <v>191800</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ125" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA125" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ125" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV125" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX125" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="9">
+        <v>80600</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA126" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>1</v>
+      </c>
       <c r="DX126" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="9">
+        <v>0</v>
+      </c>
       <c r="DX127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="9">
+        <v>78100</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN128" s="1">
+        <v>1</v>
+      </c>
       <c r="DX128" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="9">
+        <v>105200</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ129" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ129" s="1">
+        <v>1</v>
+      </c>
       <c r="DX129" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="9">
+        <v>135850</v>
+      </c>
+      <c r="L130" s="1">
+        <v>3</v>
+      </c>
+      <c r="O130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI130" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV130" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW130" s="1">
+        <v>1</v>
+      </c>
       <c r="DX130" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="9">
+        <v>178000</v>
+      </c>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD131" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ131" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU131" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE131" s="1">
+        <v>1</v>
+      </c>
       <c r="DX131" s="1">
-        <f t="shared" ref="DX131:DX194" si="2">SUM(C131:DU131)</f>
-        <v>0</v>
+        <f t="shared" ref="DX131:DX195" si="2">SUM(C131:DU131)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="9">
+        <v>128200</v>
+      </c>
+      <c r="K132" s="1">
+        <v>1</v>
+      </c>
+      <c r="U132" s="1">
+        <v>1</v>
+      </c>
+      <c r="X132" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH132" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI132" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO132" s="1">
+        <v>1</v>
+      </c>
       <c r="DX132" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="9">
+        <v>262700</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ133" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ133" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI133" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE133" s="1">
+        <v>1</v>
+      </c>
       <c r="DX133" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="9">
+        <v>0</v>
+      </c>
       <c r="DX134" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="9">
+        <v>87350</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+      <c r="S135" s="1">
+        <v>1</v>
+      </c>
+      <c r="W135" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI135" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW135" s="1">
+        <v>1</v>
+      </c>
       <c r="DX135" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="9">
+        <v>127200</v>
+      </c>
+      <c r="AJ136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI136" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV136" s="1">
+        <v>1</v>
+      </c>
       <c r="DX136" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="9">
+        <v>87400</v>
+      </c>
+      <c r="S137" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE137" s="1">
+        <v>1</v>
+      </c>
       <c r="DX137" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="9">
+        <v>124900</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="S138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS138" s="1">
+        <v>1</v>
+      </c>
       <c r="DX138" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="9">
+        <v>163900</v>
+      </c>
+      <c r="M139" s="1">
+        <v>2</v>
+      </c>
+      <c r="S139" s="1">
+        <v>2</v>
+      </c>
+      <c r="T139" s="1">
+        <v>2</v>
+      </c>
+      <c r="W139" s="1">
+        <v>1</v>
+      </c>
+      <c r="X139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY139" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO139" s="1">
+        <v>1</v>
+      </c>
       <c r="DX139" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="9">
+        <v>144500</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>6</v>
+      </c>
+      <c r="X140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ140" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA140" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV140" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ140" s="1">
+        <v>1</v>
+      </c>
       <c r="DX140" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="4">
+        <v>44935</v>
+      </c>
+      <c r="B141" s="9">
+        <v>0</v>
+      </c>
       <c r="DX141" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B142" s="9">
+        <v>222400</v>
+      </c>
+      <c r="K142" s="1">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>7</v>
+      </c>
+      <c r="S142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF142" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA142" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI142" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP142" s="1">
+        <v>1</v>
+      </c>
       <c r="DX142" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B143" s="9">
+        <v>132900</v>
+      </c>
+      <c r="M143" s="1">
+        <v>2</v>
+      </c>
+      <c r="T143" s="1">
+        <v>1</v>
+      </c>
+      <c r="W143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU143" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA143" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP143" s="1">
+        <v>1</v>
+      </c>
       <c r="DX143" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="4">
+        <v>45025</v>
+      </c>
+      <c r="B144" s="9">
+        <v>160400</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ144" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU144" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE144" s="1">
+        <v>1</v>
+      </c>
       <c r="DX144" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="9"/>
+      <c r="A145" s="4">
+        <v>45055</v>
+      </c>
+      <c r="B145" s="9">
+        <v>103100</v>
+      </c>
+      <c r="L145" s="1">
+        <v>3</v>
+      </c>
+      <c r="M145" s="1">
+        <v>7</v>
+      </c>
+      <c r="T145" s="1">
+        <v>1</v>
+      </c>
+      <c r="V145" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>1</v>
+      </c>
       <c r="DX145" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="4">
+        <v>45086</v>
+      </c>
+      <c r="B146" s="9">
+        <v>80800</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+      <c r="X146" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI146" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ146" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA146" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP146" s="1">
+        <v>1</v>
+      </c>
       <c r="DX146" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="4">
+        <v>45116</v>
+      </c>
+      <c r="B147" s="9">
+        <v>54800</v>
+      </c>
+      <c r="L147" s="1">
+        <v>2</v>
+      </c>
+      <c r="X147" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV147" s="1">
+        <v>1</v>
+      </c>
       <c r="DX147" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B148" s="9">
+        <v>0</v>
+      </c>
       <c r="DX148" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="4">
+        <v>45178</v>
+      </c>
+      <c r="B149" s="9">
+        <v>270000</v>
+      </c>
+      <c r="M149" s="1">
+        <v>2</v>
+      </c>
+      <c r="N149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY149" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI149" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW149" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC149" s="1">
+        <v>1</v>
+      </c>
       <c r="DX149" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="4">
+        <v>45208</v>
+      </c>
+      <c r="B150" s="9">
+        <v>225400</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="L150" s="1">
+        <v>1</v>
+      </c>
+      <c r="S150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU150" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ150" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX150" s="1">
+        <v>1</v>
+      </c>
       <c r="DX150" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="4">
+        <v>45239</v>
+      </c>
+      <c r="B151" s="9">
+        <v>247500</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1</v>
+      </c>
+      <c r="M151" s="1">
+        <v>1</v>
+      </c>
+      <c r="N151" s="1">
+        <v>1</v>
+      </c>
+      <c r="S151" s="1">
+        <v>1</v>
+      </c>
+      <c r="U151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR151" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD151" s="1">
+        <v>1</v>
+      </c>
       <c r="DX151" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="9"/>
+      <c r="A152" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B152" s="9">
+        <v>56000</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE152" s="1">
+        <v>1</v>
+      </c>
       <c r="DX152" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B153" s="9">
+        <v>160400</v>
+      </c>
+      <c r="L153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR153" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB153" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ153" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV153" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP153" s="1">
+        <v>1</v>
+      </c>
       <c r="DX153" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="9"/>
+      <c r="A154" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" s="9">
+        <v>240600</v>
+      </c>
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1">
+        <v>5</v>
+      </c>
+      <c r="X154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP154" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV154" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC154" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE154" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP154" s="1">
+        <v>1</v>
+      </c>
       <c r="DX154" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="9"/>
+      <c r="A155" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B155" s="9">
+        <v>0</v>
+      </c>
       <c r="DX155" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B156" s="10"/>
+    <row r="156" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" s="9">
+        <v>74200</v>
+      </c>
+      <c r="K156" s="1">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1">
+        <v>2</v>
+      </c>
+      <c r="S156" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE156" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ156" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ156" s="1">
+        <v>1</v>
+      </c>
       <c r="DX156" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="9"/>
+      <c r="A157" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" s="9">
+        <v>286500</v>
+      </c>
+      <c r="M157" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT157" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU157" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE157" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN157" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV157" s="1">
+        <v>1</v>
+      </c>
       <c r="DX157" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B158" s="9">
+        <v>201400</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1">
+        <v>2</v>
+      </c>
+      <c r="W158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE158" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI158" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR158" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB158" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ158" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB158" s="1">
+        <v>1</v>
+      </c>
       <c r="DX158" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" s="9">
+        <v>165000</v>
+      </c>
+      <c r="M159" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB159" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD159" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE159" s="1">
+        <v>1</v>
+      </c>
       <c r="DX159" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="9"/>
+      <c r="A160" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B160" s="9">
+        <v>145800</v>
+      </c>
+      <c r="L160" s="1">
+        <v>1</v>
+      </c>
+      <c r="S160" s="1">
+        <v>1</v>
+      </c>
+      <c r="W160" s="1">
+        <v>1</v>
+      </c>
+      <c r="X160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ160" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA160" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB160" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV160" s="1">
+        <v>1</v>
+      </c>
       <c r="DX160" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="9"/>
+      <c r="A161" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B161" s="9">
+        <v>164300</v>
+      </c>
+      <c r="M161" s="1">
+        <v>1</v>
+      </c>
+      <c r="T161" s="1">
+        <v>1</v>
+      </c>
+      <c r="X161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR161" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR161" s="1">
+        <v>1</v>
+      </c>
       <c r="DX161" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B162" s="9">
+        <v>0</v>
+      </c>
       <c r="DX162" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="9"/>
+      <c r="A163" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" s="9">
+        <v>62600</v>
+      </c>
+      <c r="S163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI163" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO163" s="1">
+        <v>1</v>
+      </c>
       <c r="DX163" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="9"/>
+      <c r="A164" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B164" s="9">
+        <v>144300</v>
+      </c>
+      <c r="M164" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI164" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ164" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE164" s="1">
+        <v>1</v>
+      </c>
       <c r="DX164" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="9"/>
+      <c r="A165" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B165" s="9">
+        <v>123000</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL165" s="1">
+        <v>1</v>
+      </c>
       <c r="DX165" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="9"/>
+      <c r="A166" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" s="9">
+        <v>138700</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE166" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ166" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW166" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA166" s="1">
+        <v>1</v>
+      </c>
       <c r="DX166" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="9"/>
+      <c r="A167" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" s="9">
+        <v>139700</v>
+      </c>
+      <c r="K167" s="1">
+        <v>1</v>
+      </c>
+      <c r="T167" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB167" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD167" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO167" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW167" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF167" s="1">
+        <v>1</v>
+      </c>
       <c r="DX167" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="9"/>
+      <c r="A168" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B168" s="9">
+        <v>135800</v>
+      </c>
+      <c r="M168" s="1">
+        <v>2</v>
+      </c>
+      <c r="X168" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU168" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW168" s="1">
+        <v>1</v>
+      </c>
       <c r="DX168" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="9"/>
+      <c r="A169" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B169" s="9">
+        <v>0</v>
+      </c>
       <c r="DX169" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="9"/>
+      <c r="A170" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170" s="9">
+        <v>172800</v>
+      </c>
+      <c r="M170" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ170" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR170" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA170" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE170" s="1">
+        <v>1</v>
+      </c>
       <c r="DX170" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="9"/>
+      <c r="A171" s="4">
+        <v>44936</v>
+      </c>
+      <c r="B171" s="9">
+        <v>54150</v>
+      </c>
+      <c r="M171" s="1">
+        <v>1</v>
+      </c>
+      <c r="O171" s="1">
+        <v>1</v>
+      </c>
+      <c r="S171" s="1">
+        <v>2</v>
+      </c>
+      <c r="T171" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH171" s="1">
+        <v>1</v>
+      </c>
       <c r="DX171" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="9"/>
+      <c r="A172" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B172" s="9">
+        <v>118650</v>
+      </c>
+      <c r="AE172" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU172" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ172" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ172" s="1">
+        <v>1</v>
+      </c>
       <c r="DX172" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="9"/>
+      <c r="A173" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B173" s="9">
+        <v>95550</v>
+      </c>
+      <c r="N173" s="1">
+        <v>1</v>
+      </c>
+      <c r="X173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ173" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR173" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE173" s="1">
+        <v>1</v>
+      </c>
       <c r="DX173" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="B174" s="9"/>
+      <c r="A174" s="4">
+        <v>45026</v>
+      </c>
+      <c r="B174" s="9">
+        <v>121700</v>
+      </c>
+      <c r="M174" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU174" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB174" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP174" s="1">
+        <v>1</v>
+      </c>
       <c r="DX174" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="B175" s="9"/>
+      <c r="A175" s="4">
+        <v>45056</v>
+      </c>
+      <c r="B175" s="9">
+        <v>144800</v>
+      </c>
+      <c r="T175" s="1">
+        <v>1</v>
+      </c>
+      <c r="X175" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD175" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP175" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU175" s="1">
+        <v>1</v>
+      </c>
       <c r="DX175" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="B176" s="9"/>
+      <c r="A176" s="4">
+        <v>45087</v>
+      </c>
+      <c r="B176" s="9">
+        <v>0</v>
+      </c>
       <c r="DX176" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="B177" s="9"/>
+      <c r="A177" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B177" s="9">
+        <v>143250</v>
+      </c>
+      <c r="L177" s="1">
+        <v>1</v>
+      </c>
+      <c r="S177" s="1">
+        <v>1</v>
+      </c>
+      <c r="W177" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE177" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU177" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT177" s="1">
+        <v>2</v>
+      </c>
       <c r="DX177" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="B178" s="9"/>
+      <c r="A178" s="4">
+        <v>45148</v>
+      </c>
+      <c r="B178" s="9">
+        <v>164700</v>
+      </c>
+      <c r="S178" s="1">
+        <v>1</v>
+      </c>
+      <c r="W178" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE178" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF178" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ178" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI178" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP178" s="1">
+        <v>1</v>
+      </c>
       <c r="DX178" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="B179" s="9"/>
+      <c r="A179" s="4">
+        <v>45179</v>
+      </c>
+      <c r="B179" s="9">
+        <v>121800</v>
+      </c>
+      <c r="W179" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF179" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ179" s="1">
+        <v>1</v>
+      </c>
       <c r="DX179" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="B180" s="9"/>
+      <c r="A180" s="4">
+        <v>45209</v>
+      </c>
+      <c r="B180" s="9">
+        <v>109800</v>
+      </c>
+      <c r="O180" s="1">
+        <v>1</v>
+      </c>
+      <c r="S180" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC180" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ180" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB180" s="1">
+        <v>1</v>
+      </c>
       <c r="DX180" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="4">
+        <v>45240</v>
+      </c>
+      <c r="B181" s="9">
+        <v>133000</v>
+      </c>
+      <c r="M181" s="1">
+        <v>1</v>
+      </c>
+      <c r="X181" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ181" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL181" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN181" s="1">
+        <v>1</v>
+      </c>
       <c r="DX181" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="B182" s="9"/>
+      <c r="A182" s="4">
+        <v>45270</v>
+      </c>
+      <c r="B182" s="9">
+        <v>92500</v>
+      </c>
+      <c r="AB182" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE182" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH182" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI182" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP182" s="1">
+        <v>1</v>
+      </c>
       <c r="DX182" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="8"/>
+      <c r="A183" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183" s="9">
+        <v>0</v>
+      </c>
       <c r="DX183" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="8"/>
+      <c r="A184" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B184" s="8">
+        <v>136950</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1</v>
+      </c>
+      <c r="S184" s="1">
+        <v>1</v>
+      </c>
+      <c r="W184" s="1">
+        <v>1</v>
+      </c>
+      <c r="X184" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ184" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL184" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN184" s="1">
+        <v>1</v>
+      </c>
       <c r="DX184" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="8"/>
+      <c r="A185" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B185" s="8">
+        <v>164700</v>
+      </c>
+      <c r="W185" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE185" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB185" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP185" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW185" s="1">
+        <v>1</v>
+      </c>
       <c r="DX185" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="9"/>
-      <c r="DX186" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" s="15"/>
+      <c r="DX186" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6356,7 +7660,7 @@
       <c r="A195" s="3"/>
       <c r="B195" s="9"/>
       <c r="DX195" s="1">
-        <f t="shared" ref="DX195:DX258" si="3">SUM(C195:DU195)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6364,7 +7668,7 @@
       <c r="A196" s="3"/>
       <c r="B196" s="9"/>
       <c r="DX196" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="DX196:DX259" si="3">SUM(C196:DU196)</f>
         <v>0</v>
       </c>
     </row>
@@ -6409,7 +7713,7 @@
       </c>
     </row>
     <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3"/>
       <c r="B202" s="9"/>
       <c r="DX202" s="1">
         <f t="shared" si="3"/>
@@ -6505,7 +7809,7 @@
       </c>
     </row>
     <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
+      <c r="A214" s="4"/>
       <c r="B214" s="9"/>
       <c r="DX214" s="1">
         <f t="shared" si="3"/>
@@ -6649,7 +7953,7 @@
       </c>
     </row>
     <row r="232" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="3"/>
       <c r="B232" s="9"/>
       <c r="DX232" s="1">
         <f t="shared" si="3"/>
@@ -6720,17 +8024,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
-      <c r="B241" s="10"/>
+    <row r="241" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="9"/>
       <c r="DX241" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="9"/>
+    <row r="242" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+      <c r="B242" s="10"/>
       <c r="DX242" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6745,7 +8049,7 @@
       </c>
     </row>
     <row r="244" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
+      <c r="A244" s="4"/>
       <c r="B244" s="9"/>
       <c r="DX244" s="1">
         <f t="shared" si="3"/>
@@ -6768,16 +8072,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B247" s="10"/>
+    <row r="247" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="9"/>
       <c r="DX247" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="9"/>
+    <row r="248" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="B248" s="10"/>
       <c r="DX248" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6867,7 +8171,7 @@
       <c r="A259" s="3"/>
       <c r="B259" s="9"/>
       <c r="DX259" s="1">
-        <f t="shared" ref="DX259:DX322" si="4">SUM(C259:DU259)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6875,27 +8179,27 @@
       <c r="A260" s="3"/>
       <c r="B260" s="9"/>
       <c r="DX260" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B261" s="10"/>
+        <f t="shared" ref="DX260:DX323" si="4">SUM(C260:DU260)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="9"/>
       <c r="DX261" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="9"/>
+    <row r="262" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="B262" s="10"/>
       <c r="DX262" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="3"/>
       <c r="B263" s="9"/>
       <c r="DX263" s="1">
         <f t="shared" si="4"/>
@@ -6936,7 +8240,7 @@
     </row>
     <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="8"/>
+      <c r="B268" s="9"/>
       <c r="DX268" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6944,7 +8248,7 @@
     </row>
     <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="9"/>
+      <c r="B269" s="8"/>
       <c r="DX269" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6991,7 +8295,7 @@
       </c>
     </row>
     <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
+      <c r="A275" s="4"/>
       <c r="B275" s="9"/>
       <c r="DX275" s="1">
         <f t="shared" si="4"/>
@@ -7143,7 +8447,7 @@
       </c>
     </row>
     <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
+      <c r="A294" s="3"/>
       <c r="B294" s="9"/>
       <c r="DX294" s="1">
         <f t="shared" si="4"/>
@@ -7239,7 +8543,7 @@
       </c>
     </row>
     <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
+      <c r="A306" s="4"/>
       <c r="B306" s="9"/>
       <c r="DX306" s="1">
         <f t="shared" si="4"/>
@@ -7270,16 +8574,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B310" s="10"/>
+    <row r="310" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
+      <c r="B310" s="9"/>
       <c r="DX310" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
-      <c r="B311" s="9"/>
+    <row r="311" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="B311" s="10"/>
       <c r="DX311" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7366,7 +8670,7 @@
       </c>
     </row>
     <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
+      <c r="A322" s="3"/>
       <c r="B322" s="9"/>
       <c r="DX322" s="1">
         <f t="shared" si="4"/>
@@ -7377,7 +8681,7 @@
       <c r="A323" s="4"/>
       <c r="B323" s="9"/>
       <c r="DX323" s="1">
-        <f t="shared" ref="DX323:DX386" si="5">SUM(C323:DU323)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7385,7 +8689,7 @@
       <c r="A324" s="4"/>
       <c r="B324" s="9"/>
       <c r="DX324" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="DX324:DX387" si="5">SUM(C324:DU324)</f>
         <v>0</v>
       </c>
     </row>
@@ -7462,7 +8766,7 @@
       </c>
     </row>
     <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
+      <c r="A334" s="4"/>
       <c r="B334" s="9"/>
       <c r="DX334" s="1">
         <f t="shared" si="5"/>
@@ -7614,7 +8918,7 @@
       </c>
     </row>
     <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
+      <c r="A353" s="3"/>
       <c r="B353" s="9"/>
       <c r="DX353" s="1">
         <f t="shared" si="5"/>
@@ -7710,8 +9014,8 @@
       </c>
     </row>
     <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
-      <c r="B365" s="8"/>
+      <c r="A365" s="4"/>
+      <c r="B365" s="9"/>
       <c r="DX365" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7725,14 +9029,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B367" s="11"/>
+    <row r="367" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="8"/>
       <c r="DX367" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="B368" s="11"/>
       <c r="DX368" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7848,13 +9154,13 @@
     </row>
     <row r="387" spans="128:128" x14ac:dyDescent="0.25">
       <c r="DX387" s="1">
-        <f t="shared" ref="DX387:DX450" si="6">SUM(C387:DU387)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="128:128" x14ac:dyDescent="0.25">
       <c r="DX388" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="DX388:DX451" si="6">SUM(C388:DU388)</f>
         <v>0</v>
       </c>
     </row>
@@ -8232,13 +9538,13 @@
     </row>
     <row r="451" spans="128:128" x14ac:dyDescent="0.25">
       <c r="DX451" s="1">
-        <f t="shared" ref="DX451:DX495" si="7">SUM(C451:DU451)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="128:128" x14ac:dyDescent="0.25">
       <c r="DX452" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="DX452:DX496" si="7">SUM(C452:DU452)</f>
         <v>0</v>
       </c>
     </row>
@@ -8496,6 +9802,12 @@
     </row>
     <row r="495" spans="128:128" x14ac:dyDescent="0.25">
       <c r="DX495" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="128:128" x14ac:dyDescent="0.25">
+      <c r="DX496" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -733,6 +733,66 @@
   </si>
   <si>
     <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
   </si>
 </sst>
 </file>
@@ -756,18 +816,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -782,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,14 +867,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1151,8 @@
   <dimension ref="A1:DX496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1661,8 @@
       <c r="CN2" s="1">
         <v>2</v>
       </c>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
       <c r="DX2" s="1">
         <f>SUM(C2:DU2)</f>
         <v>18</v>
@@ -7582,267 +7629,778 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
+    <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B186" s="15"/>
-      <c r="DX186" s="13">
+      <c r="B186" s="8">
+        <v>80300</v>
+      </c>
+      <c r="AB186" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE186" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE186" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX186" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="9"/>
+      <c r="A187" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B187" s="9">
+        <v>100800</v>
+      </c>
+      <c r="O187" s="1">
+        <v>1</v>
+      </c>
+      <c r="T187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA187" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE187" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ187" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE187" s="1">
+        <v>1</v>
+      </c>
       <c r="DX187" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="9"/>
+      <c r="A188" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B188" s="9">
+        <v>71000</v>
+      </c>
+      <c r="W188" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE188" s="1">
+        <v>2</v>
+      </c>
       <c r="DX188" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="9"/>
+      <c r="A189" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B189" s="9">
+        <v>58600</v>
+      </c>
+      <c r="O189" s="1">
+        <v>2</v>
+      </c>
+      <c r="S189" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE189" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI189" s="1">
+        <v>1</v>
+      </c>
       <c r="DX189" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="9"/>
+      <c r="A190" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B190" s="9">
+        <v>57800</v>
+      </c>
+      <c r="W190" s="1">
+        <v>1</v>
+      </c>
+      <c r="X190" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF190" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV190" s="1">
+        <v>1</v>
+      </c>
       <c r="DX190" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="9"/>
+      <c r="A191" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B191" s="9">
+        <v>15900</v>
+      </c>
+      <c r="AC191" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT191" s="1">
+        <v>1</v>
+      </c>
       <c r="DX191" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="9"/>
+      <c r="A192" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B192" s="9">
+        <v>51000</v>
+      </c>
+      <c r="S192" s="1">
+        <v>1</v>
+      </c>
+      <c r="W192" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU192" s="1">
+        <v>1</v>
+      </c>
       <c r="DX192" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="9"/>
+      <c r="A193" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B193" s="9">
+        <v>41900</v>
+      </c>
+      <c r="N193" s="1">
+        <v>1</v>
+      </c>
+      <c r="W193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK193" s="1">
+        <v>1</v>
+      </c>
       <c r="DX193" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="9"/>
+      <c r="A194" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B194" s="9">
+        <v>119600</v>
+      </c>
+      <c r="I194" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ194" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ194" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ194" s="1">
+        <v>1</v>
+      </c>
       <c r="DX194" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="9"/>
+      <c r="A195" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B195" s="9">
+        <v>158700</v>
+      </c>
+      <c r="X195" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC195" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE195" s="1">
+        <v>1</v>
+      </c>
       <c r="DX195" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="9"/>
+      <c r="A196" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B196" s="9">
+        <v>118500</v>
+      </c>
+      <c r="X196" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE196" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX196" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP196" s="1">
+        <v>1</v>
+      </c>
       <c r="DX196" s="1">
         <f t="shared" ref="DX196:DX259" si="3">SUM(C196:DU196)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0</v>
+      </c>
       <c r="DX197" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="9"/>
+      <c r="A198" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B198" s="9">
+        <v>157650</v>
+      </c>
+      <c r="S198" s="1">
+        <v>1</v>
+      </c>
+      <c r="U198" s="1">
+        <v>1</v>
+      </c>
+      <c r="X198" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ198" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX198" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH198" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV198" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD198" s="1">
+        <v>1</v>
+      </c>
       <c r="DX198" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="9"/>
+      <c r="A199" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B199" s="9">
+        <v>139950</v>
+      </c>
+      <c r="U199" s="1">
+        <v>1</v>
+      </c>
+      <c r="W199" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ199" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK199" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA199" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ199" s="1">
+        <v>1</v>
+      </c>
       <c r="DX199" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="9"/>
+      <c r="A200" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B200" s="9">
+        <v>130900</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="S200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI200" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ200" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO200" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS200" s="1">
+        <v>1</v>
+      </c>
       <c r="DX200" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="9"/>
+      <c r="A201" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B201" s="9">
+        <v>46750</v>
+      </c>
+      <c r="W201" s="1">
+        <v>1</v>
+      </c>
+      <c r="X201" s="1">
+        <v>2</v>
+      </c>
       <c r="DX201" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="4">
+        <v>44937</v>
+      </c>
+      <c r="B202" s="9">
+        <v>101900</v>
+      </c>
+      <c r="W202" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE202" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR202" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX202" s="1">
+        <v>1</v>
+      </c>
       <c r="DX202" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="4">
+        <v>44968</v>
+      </c>
+      <c r="B203" s="9">
+        <v>37900</v>
+      </c>
+      <c r="W203" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC203" s="1">
+        <v>1</v>
+      </c>
       <c r="DX203" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="4">
+        <v>44996</v>
+      </c>
+      <c r="B204" s="9">
+        <v>0</v>
+      </c>
       <c r="DX204" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="9"/>
+      <c r="A205" s="4">
+        <v>45027</v>
+      </c>
+      <c r="B205" s="9">
+        <v>101000</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="U205" s="1">
+        <v>1</v>
+      </c>
+      <c r="W205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN205" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE205" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU205" s="1">
+        <v>1</v>
+      </c>
       <c r="DX205" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="9"/>
+      <c r="A206" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B206" s="9">
+        <v>35400</v>
+      </c>
+      <c r="R206" s="1">
+        <v>1</v>
+      </c>
+      <c r="S206" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH206" s="1">
+        <v>1</v>
+      </c>
       <c r="DX206" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="B207" s="9"/>
+      <c r="A207" s="4">
+        <v>45088</v>
+      </c>
+      <c r="B207" s="9">
+        <v>102900</v>
+      </c>
+      <c r="S207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC207" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL207" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU207" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC207" s="1">
+        <v>1</v>
+      </c>
       <c r="DX207" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="B208" s="9"/>
+      <c r="A208" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B208" s="9">
+        <v>125600</v>
+      </c>
+      <c r="W208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL208" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV208" s="1">
+        <v>1</v>
+      </c>
       <c r="DX208" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="B209" s="9"/>
+      <c r="A209" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B209" s="9">
+        <v>123800</v>
+      </c>
+      <c r="S209" s="1">
+        <v>1</v>
+      </c>
+      <c r="W209" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y209" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA209" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO209" s="1">
+        <v>1</v>
+      </c>
       <c r="DX209" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="B210" s="9"/>
+      <c r="A210" s="4">
+        <v>45180</v>
+      </c>
+      <c r="B210" s="9">
+        <v>149700</v>
+      </c>
+      <c r="W210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL210" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR210" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB210" s="1">
+        <v>1</v>
+      </c>
       <c r="DX210" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="B211" s="9"/>
+      <c r="A211" s="4">
+        <v>45210</v>
+      </c>
+      <c r="B211" s="9">
+        <v>0</v>
+      </c>
       <c r="DX211" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="B212" s="9"/>
+      <c r="A212" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B212" s="9">
+        <v>56000</v>
+      </c>
+      <c r="S212" s="1">
+        <v>1</v>
+      </c>
+      <c r="U212" s="1">
+        <v>1</v>
+      </c>
+      <c r="W212" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z212" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC212" s="1">
+        <v>2</v>
+      </c>
       <c r="DX212" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="B213" s="9"/>
+      <c r="A213" s="4">
+        <v>45271</v>
+      </c>
+      <c r="B213" s="9">
+        <v>55000</v>
+      </c>
+      <c r="W213" s="1">
+        <v>1</v>
+      </c>
+      <c r="X213" s="1">
+        <v>1</v>
+      </c>
       <c r="DX213" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="B214" s="9"/>
+      <c r="A214" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B214" s="9">
+        <v>40800</v>
+      </c>
+      <c r="W214" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>1</v>
+      </c>
       <c r="DX214" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215" s="9">
+        <v>117300</v>
+      </c>
+      <c r="R215" s="1">
+        <v>1</v>
+      </c>
+      <c r="X215" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE215" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP215" s="1">
+        <v>1</v>
+      </c>
       <c r="DX215" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="9"/>
+      <c r="A216" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B216" s="9">
+        <v>59900</v>
+      </c>
+      <c r="S216" s="1">
+        <v>1</v>
+      </c>
+      <c r="X216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC216" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE216" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ216" s="1">
+        <v>1</v>
+      </c>
       <c r="DX216" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="9"/>
+      <c r="A217" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B217" s="9">
+        <v>101300</v>
+      </c>
+      <c r="M217" s="1">
+        <v>1</v>
+      </c>
+      <c r="S217" s="1">
+        <v>2</v>
+      </c>
+      <c r="X217" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB217" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC217" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI217" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW217" s="1">
+        <v>1</v>
+      </c>
       <c r="DX217" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="9"/>
+      <c r="A218" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B218" s="9">
+        <v>0</v>
+      </c>
       <c r="DX218" s="1">
         <f t="shared" si="3"/>
         <v>0</v>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="2023_24" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -793,6 +793,57 @@
   </si>
   <si>
     <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>20/11/2023</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>26/11/2023</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>16/12/2023</t>
   </si>
 </sst>
 </file>
@@ -816,12 +867,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -836,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -852,9 +909,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,6 +922,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,94 +1212,93 @@
   <dimension ref="A1:DX496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="10" width="13" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" customWidth="1"/>
+    <col min="34" max="34" width="9.33203125" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" customWidth="1"/>
-    <col min="40" max="40" width="10.42578125" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" customWidth="1"/>
-    <col min="42" max="46" width="9.7109375" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" customWidth="1"/>
+    <col min="38" max="39" width="9.6640625" customWidth="1"/>
+    <col min="40" max="40" width="10.44140625" customWidth="1"/>
+    <col min="41" max="41" width="9.88671875" customWidth="1"/>
+    <col min="42" max="46" width="9.6640625" customWidth="1"/>
+    <col min="47" max="47" width="9.109375" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="12.109375" customWidth="1"/>
     <col min="50" max="50" width="10" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.5703125" customWidth="1"/>
-    <col min="53" max="53" width="10.5703125" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" customWidth="1"/>
+    <col min="51" max="51" width="10.5546875" customWidth="1"/>
+    <col min="52" max="52" width="9.5546875" customWidth="1"/>
+    <col min="53" max="53" width="10.5546875" customWidth="1"/>
+    <col min="54" max="54" width="9.109375" customWidth="1"/>
     <col min="55" max="56" width="11" customWidth="1"/>
-    <col min="57" max="58" width="9.42578125" customWidth="1"/>
+    <col min="57" max="58" width="9.44140625" customWidth="1"/>
     <col min="59" max="71" width="11" customWidth="1"/>
-    <col min="72" max="72" width="9.5703125" customWidth="1"/>
+    <col min="72" max="72" width="9.5546875" customWidth="1"/>
     <col min="73" max="77" width="11" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" customWidth="1"/>
+    <col min="78" max="78" width="10.44140625" customWidth="1"/>
     <col min="79" max="80" width="11" customWidth="1"/>
-    <col min="81" max="83" width="9.85546875" customWidth="1"/>
-    <col min="84" max="84" width="14.28515625" customWidth="1"/>
-    <col min="85" max="85" width="11.28515625" customWidth="1"/>
-    <col min="86" max="86" width="10.28515625" customWidth="1"/>
-    <col min="87" max="87" width="11.7109375" customWidth="1"/>
+    <col min="81" max="83" width="9.88671875" customWidth="1"/>
+    <col min="84" max="84" width="14.33203125" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" customWidth="1"/>
+    <col min="86" max="86" width="10.33203125" customWidth="1"/>
+    <col min="87" max="87" width="11.6640625" customWidth="1"/>
     <col min="88" max="88" width="12" customWidth="1"/>
-    <col min="89" max="89" width="13.140625" customWidth="1"/>
-    <col min="90" max="90" width="11.7109375" customWidth="1"/>
-    <col min="91" max="91" width="12.7109375" customWidth="1"/>
-    <col min="92" max="93" width="12.42578125" customWidth="1"/>
-    <col min="94" max="102" width="10.7109375" customWidth="1"/>
-    <col min="103" max="103" width="13.42578125" customWidth="1"/>
-    <col min="104" max="107" width="10.7109375" customWidth="1"/>
-    <col min="108" max="108" width="10.28515625" customWidth="1"/>
-    <col min="109" max="109" width="12.42578125" customWidth="1"/>
-    <col min="110" max="110" width="12.7109375" customWidth="1"/>
-    <col min="111" max="111" width="16.5703125" customWidth="1"/>
-    <col min="112" max="112" width="10.7109375" customWidth="1"/>
-    <col min="113" max="113" width="12.28515625" customWidth="1"/>
-    <col min="114" max="114" width="10.7109375" customWidth="1"/>
-    <col min="115" max="115" width="10.28515625" customWidth="1"/>
-    <col min="116" max="116" width="12.140625" customWidth="1"/>
-    <col min="117" max="117" width="9.28515625" customWidth="1"/>
-    <col min="118" max="121" width="12.7109375" customWidth="1"/>
-    <col min="122" max="122" width="10.5703125" customWidth="1"/>
-    <col min="123" max="123" width="8.7109375" customWidth="1"/>
-    <col min="124" max="126" width="9.7109375" customWidth="1"/>
-    <col min="128" max="128" width="9.140625" style="1"/>
+    <col min="89" max="89" width="13.109375" customWidth="1"/>
+    <col min="90" max="90" width="11.6640625" customWidth="1"/>
+    <col min="91" max="91" width="12.6640625" customWidth="1"/>
+    <col min="92" max="93" width="12.44140625" customWidth="1"/>
+    <col min="94" max="102" width="10.6640625" customWidth="1"/>
+    <col min="103" max="103" width="13.44140625" customWidth="1"/>
+    <col min="104" max="107" width="10.6640625" customWidth="1"/>
+    <col min="108" max="108" width="10.33203125" customWidth="1"/>
+    <col min="109" max="109" width="12.44140625" customWidth="1"/>
+    <col min="110" max="110" width="12.6640625" customWidth="1"/>
+    <col min="111" max="111" width="16.5546875" customWidth="1"/>
+    <col min="112" max="112" width="10.6640625" customWidth="1"/>
+    <col min="113" max="113" width="12.33203125" customWidth="1"/>
+    <col min="114" max="114" width="10.6640625" customWidth="1"/>
+    <col min="115" max="115" width="10.33203125" customWidth="1"/>
+    <col min="116" max="116" width="12.109375" customWidth="1"/>
+    <col min="117" max="117" width="9.33203125" customWidth="1"/>
+    <col min="118" max="121" width="12.6640625" customWidth="1"/>
+    <col min="122" max="122" width="10.5546875" customWidth="1"/>
+    <col min="123" max="123" width="8.6640625" customWidth="1"/>
+    <col min="124" max="126" width="9.6640625" customWidth="1"/>
+    <col min="128" max="128" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -1615,11 +1675,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>159750</v>
       </c>
       <c r="J2" s="1">
@@ -1661,18 +1721,18 @@
       <c r="CN2" s="1">
         <v>2</v>
       </c>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
       <c r="DX2" s="1">
         <f>SUM(C2:DU2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>513850</v>
       </c>
       <c r="K3" s="1">
@@ -1731,11 +1791,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>728350</v>
       </c>
       <c r="J4" s="1">
@@ -1785,11 +1845,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>430800</v>
       </c>
       <c r="K5" s="1">
@@ -1842,11 +1902,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>346450</v>
       </c>
       <c r="J6" s="1">
@@ -1899,11 +1959,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>258400</v>
       </c>
       <c r="K7" s="1">
@@ -1947,11 +2007,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>151900</v>
       </c>
       <c r="D8" s="1">
@@ -1989,11 +2049,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>136900</v>
       </c>
       <c r="K9" s="1">
@@ -2016,11 +2076,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>171250</v>
       </c>
       <c r="L10" s="1">
@@ -2043,11 +2103,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>193500</v>
       </c>
       <c r="L11" s="1">
@@ -2076,11 +2136,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>350810</v>
       </c>
       <c r="K12" s="1">
@@ -2136,11 +2196,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>208300</v>
       </c>
       <c r="M13" s="1">
@@ -2166,11 +2226,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>224250</v>
       </c>
       <c r="K14" s="1">
@@ -2202,11 +2262,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>78950</v>
       </c>
       <c r="K15" s="1">
@@ -2232,11 +2292,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>345150</v>
       </c>
       <c r="I16" s="1">
@@ -2283,11 +2343,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>287100</v>
       </c>
       <c r="L17" s="1">
@@ -2313,11 +2373,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44931</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>83450</v>
       </c>
       <c r="M18" s="1">
@@ -2334,11 +2394,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44962</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>165900</v>
       </c>
       <c r="K19" s="1">
@@ -2370,11 +2430,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44990</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>205200</v>
       </c>
       <c r="J20" s="1">
@@ -2412,11 +2472,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45021</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>182300</v>
       </c>
       <c r="M21" s="1">
@@ -2448,11 +2508,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45051</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0</v>
       </c>
       <c r="DX22" s="1">
@@ -2460,11 +2520,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45082</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>93050</v>
       </c>
       <c r="L23" s="1">
@@ -2493,11 +2553,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45112</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>235550</v>
       </c>
       <c r="L24" s="1">
@@ -2517,11 +2577,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45143</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>144000</v>
       </c>
       <c r="K25" s="1">
@@ -2556,11 +2616,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45174</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>181900</v>
       </c>
       <c r="L26" s="1">
@@ -2589,11 +2649,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45204</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>223500</v>
       </c>
       <c r="L27" s="1">
@@ -2625,11 +2685,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45235</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>376750</v>
       </c>
       <c r="K28" s="1">
@@ -2664,11 +2724,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45265</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0</v>
       </c>
       <c r="DX29" s="1">
@@ -2676,11 +2736,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>529323</v>
       </c>
       <c r="K30" s="1">
@@ -2724,11 +2784,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>286900</v>
       </c>
       <c r="K31" s="1">
@@ -2781,11 +2841,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>107500</v>
       </c>
       <c r="L32" s="1">
@@ -2808,11 +2868,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>157700</v>
       </c>
       <c r="K33" s="1">
@@ -2847,11 +2907,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>253550</v>
       </c>
       <c r="K34" s="1">
@@ -2883,11 +2943,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>367200</v>
       </c>
       <c r="K35" s="1">
@@ -2943,11 +3003,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>0</v>
       </c>
       <c r="DX36" s="1">
@@ -2955,11 +3015,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>142200</v>
       </c>
       <c r="M37" s="1">
@@ -2982,11 +3042,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>161450</v>
       </c>
       <c r="M38" s="1">
@@ -3009,11 +3069,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>128900</v>
       </c>
       <c r="K39" s="1">
@@ -3042,11 +3102,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>109600</v>
       </c>
       <c r="J40" s="1">
@@ -3069,11 +3129,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>42200</v>
       </c>
       <c r="M41" s="1">
@@ -3093,11 +3153,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>192100</v>
       </c>
       <c r="AC42" s="1">
@@ -3120,11 +3180,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>0</v>
       </c>
       <c r="DX43" s="1">
@@ -3132,11 +3192,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>164230</v>
       </c>
       <c r="T44" s="1">
@@ -3165,11 +3225,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>175050</v>
       </c>
       <c r="L45" s="1">
@@ -3207,11 +3267,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>186450</v>
       </c>
       <c r="I46" s="1">
@@ -3243,11 +3303,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>94850</v>
       </c>
       <c r="K47" s="1">
@@ -3279,11 +3339,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>180180</v>
       </c>
       <c r="J48" s="1">
@@ -3324,11 +3384,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44932</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>308650</v>
       </c>
       <c r="C49" s="1">
@@ -3375,11 +3435,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44963</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>0</v>
       </c>
       <c r="DX50" s="1">
@@ -3387,11 +3447,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>44991</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>305050</v>
       </c>
       <c r="K51" s="1">
@@ -3441,11 +3501,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45022</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>391810</v>
       </c>
       <c r="J52" s="1">
@@ -3486,11 +3546,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>45052</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>303850</v>
       </c>
       <c r="K53" s="1">
@@ -3534,11 +3594,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45083</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>284950</v>
       </c>
       <c r="K54" s="1">
@@ -3576,11 +3636,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45113</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>294220</v>
       </c>
       <c r="C55" s="1">
@@ -3630,11 +3690,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45144</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>156150</v>
       </c>
       <c r="M56" s="1">
@@ -3663,11 +3723,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45175</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>0</v>
       </c>
       <c r="DX57" s="1">
@@ -3675,11 +3735,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45205</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>262000</v>
       </c>
       <c r="D58" s="1">
@@ -3717,11 +3777,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45236</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>568350</v>
       </c>
       <c r="M59" s="1">
@@ -3762,11 +3822,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45266</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>192800</v>
       </c>
       <c r="BA60" s="1">
@@ -3786,11 +3846,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>558200</v>
       </c>
       <c r="D61" s="1">
@@ -3828,11 +3888,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>431400</v>
       </c>
       <c r="K62" s="1">
@@ -3867,11 +3927,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>296600</v>
       </c>
       <c r="L63" s="1">
@@ -3912,11 +3972,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>102400</v>
       </c>
       <c r="L64" s="1">
@@ -3939,11 +3999,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>161500</v>
       </c>
       <c r="M65" s="1">
@@ -3981,11 +4041,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>250200</v>
       </c>
       <c r="L66" s="1">
@@ -4023,11 +4083,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>209400</v>
       </c>
       <c r="J67" s="1">
@@ -4068,11 +4128,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>223300</v>
       </c>
       <c r="BA68" s="1">
@@ -4095,11 +4155,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>196000</v>
       </c>
       <c r="C69" s="1">
@@ -4128,11 +4188,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>556850</v>
       </c>
       <c r="S70" s="1">
@@ -4185,11 +4245,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>276200</v>
       </c>
       <c r="AE71" s="1">
@@ -4215,11 +4275,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>554650</v>
       </c>
       <c r="J72" s="1">
@@ -4272,11 +4332,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>770900</v>
       </c>
       <c r="S73" s="1">
@@ -4335,11 +4395,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>910800</v>
       </c>
       <c r="L74" s="1">
@@ -4416,11 +4476,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>1110200</v>
       </c>
       <c r="L75" s="1">
@@ -4494,11 +4554,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>789950</v>
       </c>
       <c r="S76" s="1">
@@ -4569,11 +4629,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>47700</v>
       </c>
       <c r="S77" s="1">
@@ -4593,11 +4653,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>62000</v>
       </c>
       <c r="AY78" s="1">
@@ -4611,11 +4671,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>44933</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>266500</v>
       </c>
       <c r="AJ79" s="1">
@@ -4641,11 +4701,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>44964</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>148600</v>
       </c>
       <c r="N80" s="1">
@@ -4671,11 +4731,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>44992</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>131700</v>
       </c>
       <c r="M81" s="1">
@@ -4698,11 +4758,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45023</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>289300</v>
       </c>
       <c r="M82" s="1">
@@ -4731,11 +4791,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45053</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>246800</v>
       </c>
       <c r="O83" s="1">
@@ -4776,11 +4836,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45084</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>267100</v>
       </c>
       <c r="L84" s="1">
@@ -4815,11 +4875,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>45114</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>0</v>
       </c>
       <c r="DX85" s="1">
@@ -4827,11 +4887,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45145</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="8">
         <v>160050</v>
       </c>
       <c r="N86" s="1">
@@ -4857,11 +4917,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>45176</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="8">
         <v>273900</v>
       </c>
       <c r="W87" s="1">
@@ -4878,11 +4938,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45206</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>178060</v>
       </c>
       <c r="M88" s="1">
@@ -4899,11 +4959,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>45237</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>183150</v>
       </c>
       <c r="L89" s="1">
@@ -4929,11 +4989,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45267</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>126100</v>
       </c>
       <c r="K90" s="1">
@@ -4968,11 +5028,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>277750</v>
       </c>
       <c r="M91" s="1">
@@ -4995,11 +5055,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>0</v>
       </c>
       <c r="DX92" s="1">
@@ -5007,11 +5067,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>198100</v>
       </c>
       <c r="M93" s="1">
@@ -5040,11 +5100,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="8">
         <v>227150</v>
       </c>
       <c r="O94" s="1">
@@ -5064,11 +5124,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>103300</v>
       </c>
       <c r="M95" s="1">
@@ -5094,11 +5154,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="8">
         <v>211200</v>
       </c>
       <c r="M96" s="1">
@@ -5127,11 +5187,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="8">
         <v>132600</v>
       </c>
       <c r="M97" s="1">
@@ -5154,11 +5214,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="8">
         <v>203900</v>
       </c>
       <c r="L98" s="1">
@@ -5187,11 +5247,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="8">
         <v>0</v>
       </c>
       <c r="DX99" s="1">
@@ -5199,11 +5259,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="8">
         <v>146500</v>
       </c>
       <c r="D100" s="1">
@@ -5235,11 +5295,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="8">
         <v>106200</v>
       </c>
       <c r="L101" s="1">
@@ -5271,11 +5331,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="8">
         <v>285000</v>
       </c>
       <c r="K102" s="1">
@@ -5322,11 +5382,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="8">
         <v>278700</v>
       </c>
       <c r="M103" s="1">
@@ -5364,11 +5424,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="8">
         <v>226700</v>
       </c>
       <c r="M104" s="1">
@@ -5394,11 +5454,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="8">
         <v>214650</v>
       </c>
       <c r="M105" s="1">
@@ -5433,11 +5493,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="8">
         <v>0</v>
       </c>
       <c r="DX106" s="1">
@@ -5445,11 +5505,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="8">
         <v>187700</v>
       </c>
       <c r="M107" s="1">
@@ -5484,11 +5544,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="8">
         <v>349000</v>
       </c>
       <c r="L108" s="1">
@@ -5529,11 +5589,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="8">
         <v>303700</v>
       </c>
       <c r="K109" s="1">
@@ -5565,11 +5625,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44934</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="8">
         <v>355150</v>
       </c>
       <c r="L110" s="1">
@@ -5607,11 +5667,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>44965</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>87400</v>
       </c>
       <c r="M111" s="1">
@@ -5634,11 +5694,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>44993</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="8">
         <v>145500</v>
       </c>
       <c r="D112" s="1">
@@ -5667,11 +5727,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>45024</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>0</v>
       </c>
       <c r="DX113" s="1">
@@ -5679,11 +5739,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45054</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>201700</v>
       </c>
       <c r="M114" s="1">
@@ -5709,11 +5769,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>45085</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>56400</v>
       </c>
       <c r="AC115" s="1">
@@ -5727,11 +5787,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45115</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>67350</v>
       </c>
       <c r="AH116" s="1">
@@ -5745,11 +5805,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>45146</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="8">
         <v>218800</v>
       </c>
       <c r="M117" s="1">
@@ -5775,11 +5835,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45177</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="8">
         <v>80000</v>
       </c>
       <c r="M118" s="1">
@@ -5799,11 +5859,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>45207</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="8">
         <v>190300</v>
       </c>
       <c r="L119" s="1">
@@ -5832,11 +5892,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45238</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="8">
         <v>0</v>
       </c>
       <c r="DX120" s="1">
@@ -5844,11 +5904,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>45268</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="8">
         <v>211200</v>
       </c>
       <c r="M121" s="1">
@@ -5883,11 +5943,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>190100</v>
       </c>
       <c r="L122" s="1">
@@ -5907,11 +5967,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>84000</v>
       </c>
       <c r="AI123" s="1">
@@ -5925,11 +5985,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>187000</v>
       </c>
       <c r="M124" s="1">
@@ -5949,11 +6009,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>191800</v>
       </c>
       <c r="M125" s="1">
@@ -5982,11 +6042,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="8">
         <v>80600</v>
       </c>
       <c r="L126" s="1">
@@ -6006,11 +6066,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="8">
         <v>0</v>
       </c>
       <c r="DX127" s="1">
@@ -6018,11 +6078,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>78100</v>
       </c>
       <c r="M128" s="1">
@@ -6039,11 +6099,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="8">
         <v>105200</v>
       </c>
       <c r="L129" s="1">
@@ -6060,11 +6120,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="8">
         <v>135850</v>
       </c>
       <c r="L130" s="1">
@@ -6090,11 +6150,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="8">
         <v>178000</v>
       </c>
       <c r="O131" s="1">
@@ -6117,11 +6177,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="8">
         <v>128200</v>
       </c>
       <c r="K132" s="1">
@@ -6150,11 +6210,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="8">
         <v>262700</v>
       </c>
       <c r="AC133" s="1">
@@ -6177,11 +6237,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="8">
         <v>0</v>
       </c>
       <c r="DX134" s="1">
@@ -6189,11 +6249,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="8">
         <v>87350</v>
       </c>
       <c r="O135" s="1">
@@ -6216,11 +6276,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="8">
         <v>127200</v>
       </c>
       <c r="AJ136" s="1">
@@ -6243,11 +6303,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="8">
         <v>87400</v>
       </c>
       <c r="S137" s="1">
@@ -6261,11 +6321,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="8">
         <v>124900</v>
       </c>
       <c r="M138" s="1">
@@ -6285,11 +6345,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="8">
         <v>163900</v>
       </c>
       <c r="M139" s="1">
@@ -6330,11 +6390,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="8">
         <v>144500</v>
       </c>
       <c r="L140" s="1">
@@ -6366,11 +6426,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44935</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="8">
         <v>0</v>
       </c>
       <c r="DX141" s="1">
@@ -6378,11 +6438,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44966</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="8">
         <v>222400</v>
       </c>
       <c r="K142" s="1">
@@ -6417,11 +6477,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44994</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="8">
         <v>132900</v>
       </c>
       <c r="M143" s="1">
@@ -6447,11 +6507,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>45025</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="8">
         <v>160400</v>
       </c>
       <c r="D144" s="1">
@@ -6480,11 +6540,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>45055</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="8">
         <v>103100</v>
       </c>
       <c r="L145" s="1">
@@ -6507,11 +6567,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>45086</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="8">
         <v>80800</v>
       </c>
       <c r="K146" s="1">
@@ -6540,11 +6600,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>45116</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="8">
         <v>54800</v>
       </c>
       <c r="L147" s="1">
@@ -6561,11 +6621,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45147</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="8">
         <v>0</v>
       </c>
       <c r="DX148" s="1">
@@ -6573,11 +6633,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>45178</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="8">
         <v>270000</v>
       </c>
       <c r="M149" s="1">
@@ -6618,11 +6678,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>45208</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="8">
         <v>225400</v>
       </c>
       <c r="C150" s="1">
@@ -6657,11 +6717,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>45239</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="8">
         <v>247500</v>
       </c>
       <c r="K151" s="1">
@@ -6696,11 +6756,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>45269</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="8">
         <v>56000</v>
       </c>
       <c r="M152" s="1">
@@ -6714,11 +6774,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="8">
         <v>160400</v>
       </c>
       <c r="L153" s="1">
@@ -6753,11 +6813,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="8">
         <v>240600</v>
       </c>
       <c r="L154" s="1">
@@ -6801,11 +6861,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="8">
         <v>0</v>
       </c>
       <c r="DX155" s="1">
@@ -6813,11 +6873,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="8">
         <v>74200</v>
       </c>
       <c r="K156" s="1">
@@ -6849,11 +6909,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="8">
         <v>286500</v>
       </c>
       <c r="M157" s="1">
@@ -6888,11 +6948,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="8">
         <v>201400</v>
       </c>
       <c r="L158" s="1">
@@ -6927,11 +6987,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="8">
         <v>165000</v>
       </c>
       <c r="M159" s="1">
@@ -6951,11 +7011,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="8">
         <v>145800</v>
       </c>
       <c r="L160" s="1">
@@ -6993,11 +7053,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="8">
         <v>164300</v>
       </c>
       <c r="M161" s="1">
@@ -7026,11 +7086,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="8">
         <v>0</v>
       </c>
       <c r="DX162" s="1">
@@ -7038,11 +7098,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="8">
         <v>62600</v>
       </c>
       <c r="S163" s="1">
@@ -7059,11 +7119,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="8">
         <v>144300</v>
       </c>
       <c r="M164" s="1">
@@ -7083,11 +7143,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="8">
         <v>123000</v>
       </c>
       <c r="M165" s="1">
@@ -7104,11 +7164,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="8">
         <v>138700</v>
       </c>
       <c r="M166" s="1">
@@ -7131,11 +7191,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="8">
         <v>139700</v>
       </c>
       <c r="K167" s="1">
@@ -7164,11 +7224,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="8">
         <v>135800</v>
       </c>
       <c r="M168" s="1">
@@ -7197,11 +7257,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="8">
         <v>0</v>
       </c>
       <c r="DX169" s="1">
@@ -7209,11 +7269,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="8">
         <v>172800</v>
       </c>
       <c r="M170" s="1">
@@ -7236,11 +7296,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>44936</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="8">
         <v>54150</v>
       </c>
       <c r="M171" s="1">
@@ -7263,11 +7323,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>44967</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="8">
         <v>118650</v>
       </c>
       <c r="AE172" s="1">
@@ -7290,11 +7350,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>44995</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="8">
         <v>95550</v>
       </c>
       <c r="N173" s="1">
@@ -7317,11 +7377,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>45026</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="8">
         <v>121700</v>
       </c>
       <c r="M174" s="1">
@@ -7341,11 +7401,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>45056</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="8">
         <v>144800</v>
       </c>
       <c r="T175" s="1">
@@ -7368,11 +7428,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>45087</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="8">
         <v>0</v>
       </c>
       <c r="DX176" s="1">
@@ -7380,11 +7440,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>45117</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="8">
         <v>143250</v>
       </c>
       <c r="L177" s="1">
@@ -7413,11 +7473,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>45148</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="8">
         <v>164700</v>
       </c>
       <c r="S178" s="1">
@@ -7446,11 +7506,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>45179</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="8">
         <v>121800</v>
       </c>
       <c r="W179" s="1">
@@ -7467,11 +7527,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>45209</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="8">
         <v>109800</v>
       </c>
       <c r="O180" s="1">
@@ -7494,11 +7554,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>45240</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="8">
         <v>133000</v>
       </c>
       <c r="M181" s="1">
@@ -7521,11 +7581,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>45270</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="8">
         <v>92500</v>
       </c>
       <c r="AB182" s="1">
@@ -7548,11 +7608,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="8">
         <v>0</v>
       </c>
       <c r="DX183" s="1">
@@ -7560,11 +7620,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184" s="7">
         <v>136950</v>
       </c>
       <c r="M184" s="1">
@@ -7602,11 +7662,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185" s="7">
         <v>164700</v>
       </c>
       <c r="W185" s="1">
@@ -7629,11 +7689,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186" s="7">
         <v>80300</v>
       </c>
       <c r="AB186" s="1">
@@ -7650,11 +7710,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="8">
         <v>100800</v>
       </c>
       <c r="O187" s="1">
@@ -7683,11 +7743,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="8">
         <v>71000</v>
       </c>
       <c r="W188" s="1">
@@ -7704,11 +7764,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="8">
         <v>58600</v>
       </c>
       <c r="O189" s="1">
@@ -7731,11 +7791,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="8">
         <v>57800</v>
       </c>
       <c r="W190" s="1">
@@ -7755,11 +7815,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="8">
         <v>15900</v>
       </c>
       <c r="AC191" s="1">
@@ -7773,11 +7833,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="8">
         <v>51000</v>
       </c>
       <c r="S192" s="1">
@@ -7794,11 +7854,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="8">
         <v>41900</v>
       </c>
       <c r="N193" s="1">
@@ -7818,11 +7878,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="8">
         <v>119600</v>
       </c>
       <c r="I194" s="1">
@@ -7842,11 +7902,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="8">
         <v>158700</v>
       </c>
       <c r="X195" s="1">
@@ -7863,11 +7923,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="8">
         <v>118500</v>
       </c>
       <c r="X196" s="1">
@@ -7887,11 +7947,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="8">
         <v>0</v>
       </c>
       <c r="DX197" s="1">
@@ -7899,11 +7959,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="8">
         <v>157650</v>
       </c>
       <c r="S198" s="1">
@@ -7935,11 +7995,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="8">
         <v>139950</v>
       </c>
       <c r="U199" s="1">
@@ -7965,11 +8025,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="8">
         <v>130900</v>
       </c>
       <c r="C200" s="1">
@@ -7995,11 +8055,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="8">
         <v>46750</v>
       </c>
       <c r="W201" s="1">
@@ -8013,11 +8073,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>44937</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="8">
         <v>101900</v>
       </c>
       <c r="W202" s="1">
@@ -8037,11 +8097,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>44968</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="8">
         <v>37900</v>
       </c>
       <c r="W203" s="1">
@@ -8055,11 +8115,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>44996</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="8">
         <v>0</v>
       </c>
       <c r="DX204" s="1">
@@ -8067,11 +8127,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>45027</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="8">
         <v>101000</v>
       </c>
       <c r="C205" s="1">
@@ -8103,11 +8163,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>45057</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="8">
         <v>35400</v>
       </c>
       <c r="R206" s="1">
@@ -8124,11 +8184,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>45088</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="8">
         <v>102900</v>
       </c>
       <c r="S207" s="1">
@@ -8151,11 +8211,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>45118</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="8">
         <v>125600</v>
       </c>
       <c r="W208" s="1">
@@ -8181,11 +8241,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>45149</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="8">
         <v>123800</v>
       </c>
       <c r="S209" s="1">
@@ -8208,11 +8268,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>45180</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="8">
         <v>149700</v>
       </c>
       <c r="W210" s="1">
@@ -8235,11 +8295,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>45210</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="8">
         <v>0</v>
       </c>
       <c r="DX211" s="1">
@@ -8247,11 +8307,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>45241</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="8">
         <v>56000</v>
       </c>
       <c r="S212" s="1">
@@ -8274,11 +8334,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>45271</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="8">
         <v>55000</v>
       </c>
       <c r="W213" s="1">
@@ -8292,11 +8352,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="8">
         <v>40800</v>
       </c>
       <c r="W214" s="1">
@@ -8310,11 +8370,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="8">
         <v>117300</v>
       </c>
       <c r="R215" s="1">
@@ -8334,11 +8394,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="8">
         <v>59900</v>
       </c>
       <c r="S216" s="1">
@@ -8361,11 +8421,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="8">
         <v>101300</v>
       </c>
       <c r="M217" s="1">
@@ -8394,11 +8454,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="8">
         <v>0</v>
       </c>
       <c r="DX218" s="1">
@@ -8406,1965 +8466,2463 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="9"/>
+    <row r="219" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B219" s="8">
+        <v>36450</v>
+      </c>
+      <c r="W219" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC219" s="1">
+        <v>1</v>
+      </c>
       <c r="DX219" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B220" s="8">
+        <v>161650</v>
+      </c>
+      <c r="R220" s="1">
+        <v>1</v>
+      </c>
+      <c r="S220" s="1">
+        <v>1</v>
+      </c>
+      <c r="W220" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC220" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH220" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ220" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA220" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU220" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE220" s="1">
+        <v>1</v>
+      </c>
       <c r="DX220" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B221" s="8">
+        <v>112000</v>
+      </c>
+      <c r="S221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL221" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI221" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP221" s="1">
+        <v>1</v>
+      </c>
       <c r="DX221" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222" s="8">
+        <v>59700</v>
+      </c>
+      <c r="T222" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA222" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE222" s="1">
+        <v>1</v>
+      </c>
       <c r="DX222" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223" s="8">
+        <v>50150</v>
+      </c>
+      <c r="Z223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE223" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ223" s="1">
+        <v>1</v>
+      </c>
       <c r="DX223" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B224" s="8">
+        <v>89800</v>
+      </c>
+      <c r="R224" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL224" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV224" s="1">
+        <v>1</v>
+      </c>
       <c r="DX224" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B225" s="8">
+        <v>0</v>
+      </c>
       <c r="DX225" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="9"/>
+    <row r="226" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226" s="8">
+        <v>58000</v>
+      </c>
+      <c r="T226" s="1">
+        <v>1</v>
+      </c>
+      <c r="W226" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH226" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ226" s="1">
+        <v>1</v>
+      </c>
       <c r="DX226" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227" s="8">
+        <v>135000</v>
+      </c>
+      <c r="R227" s="1">
+        <v>1</v>
+      </c>
+      <c r="W227" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC227" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE227" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ227" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV227" s="1">
+        <v>1</v>
+      </c>
       <c r="DX227" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228" s="8">
+        <v>71500</v>
+      </c>
+      <c r="S228" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z228" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH228" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI228" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ228" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU228" s="1">
+        <v>1</v>
+      </c>
       <c r="DX228" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229" s="8">
+        <v>29500</v>
+      </c>
+      <c r="S229" s="1">
+        <v>1</v>
+      </c>
+      <c r="U229" s="1">
+        <v>1</v>
+      </c>
       <c r="DX229" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230" s="8">
+        <v>67500</v>
+      </c>
+      <c r="O230" s="1">
+        <v>1</v>
+      </c>
+      <c r="U230" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH230" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR230" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ230" s="1">
+        <v>1</v>
+      </c>
       <c r="DX230" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231" s="8">
+        <v>161400</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+      <c r="W231" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA231" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ231" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR231" s="1">
+        <v>1</v>
+      </c>
       <c r="DX231" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>44938</v>
+      </c>
+      <c r="B232" s="8">
+        <v>0</v>
+      </c>
       <c r="DX232" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="9"/>
+    <row r="233" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>44969</v>
+      </c>
+      <c r="B233" s="8">
+        <v>145830</v>
+      </c>
+      <c r="S233" s="1">
+        <v>1</v>
+      </c>
+      <c r="W233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ233" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT233" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP233" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP233" s="1">
+        <v>1</v>
+      </c>
       <c r="DX233" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>44997</v>
+      </c>
+      <c r="B234" s="8">
+        <v>112800</v>
+      </c>
+      <c r="AE234" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ234" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL234" s="1">
+        <v>1</v>
+      </c>
       <c r="DX234" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>45028</v>
+      </c>
+      <c r="B235" s="8">
+        <v>153500</v>
+      </c>
+      <c r="O235" s="1">
+        <v>1</v>
+      </c>
+      <c r="S235" s="1">
+        <v>1</v>
+      </c>
+      <c r="W235" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF235" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ235" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK235" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL235" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU235" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ235" s="1">
+        <v>1</v>
+      </c>
       <c r="DX235" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>45058</v>
+      </c>
+      <c r="B236" s="8">
+        <v>111000</v>
+      </c>
+      <c r="X236" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y236" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK236" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB236" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI236" s="1">
+        <v>1</v>
+      </c>
       <c r="DX236" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>45089</v>
+      </c>
+      <c r="B237" s="8">
+        <v>163100</v>
+      </c>
+      <c r="N237" s="1">
+        <v>1</v>
+      </c>
+      <c r="W237" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE237" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ237" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP237" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ237" s="1">
+        <v>1</v>
+      </c>
       <c r="DX237" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B238" s="8">
+        <v>58300</v>
+      </c>
+      <c r="W238" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC238" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD238" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE238" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI238" s="1">
+        <v>1</v>
+      </c>
       <c r="DX238" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B239" s="8">
+        <v>0</v>
+      </c>
       <c r="DX239" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="9"/>
+    <row r="240" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>45181</v>
+      </c>
+      <c r="B240" s="8">
+        <v>132800</v>
+      </c>
+      <c r="R240" s="1">
+        <v>1</v>
+      </c>
+      <c r="S240" s="1">
+        <v>2</v>
+      </c>
+      <c r="W240" s="1">
+        <v>3</v>
+      </c>
+      <c r="X240" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ240" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL240" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA240" s="1">
+        <v>1</v>
+      </c>
       <c r="DX240" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>45211</v>
+      </c>
+      <c r="B241" s="8">
+        <v>399350</v>
+      </c>
+      <c r="I241" s="1">
+        <v>1</v>
+      </c>
+      <c r="N241" s="1">
+        <v>2</v>
+      </c>
+      <c r="T241" s="1">
+        <v>1</v>
+      </c>
+      <c r="W241" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG241" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU241" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS241" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ241" s="1">
+        <v>4</v>
+      </c>
       <c r="DX241" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
-      <c r="B242" s="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>45242</v>
+      </c>
+      <c r="B242" s="8">
+        <v>38250</v>
+      </c>
+      <c r="W242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC242" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU242" s="1">
+        <v>1</v>
+      </c>
       <c r="DX242" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>45272</v>
+      </c>
+      <c r="B243" s="8">
+        <v>75900</v>
+      </c>
+      <c r="R243" s="1">
+        <v>1</v>
+      </c>
+      <c r="W243" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH243" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU243" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ243" s="1">
+        <v>1</v>
+      </c>
       <c r="DX243" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B244" s="8">
+        <v>50650</v>
+      </c>
+      <c r="R244" s="1">
+        <v>2</v>
+      </c>
+      <c r="W244" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK244" s="1">
+        <v>1</v>
+      </c>
       <c r="DX244" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B245" s="8">
+        <v>76800</v>
+      </c>
+      <c r="R245" s="1">
+        <v>2</v>
+      </c>
+      <c r="W245" s="1">
+        <v>1</v>
+      </c>
+      <c r="X245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU245" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA245" s="1">
+        <v>1</v>
+      </c>
       <c r="DX245" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B246" s="8">
+        <v>0</v>
+      </c>
       <c r="DX246" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="9"/>
-      <c r="DX247" s="1">
+    <row r="247" spans="1:128" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B247" s="13"/>
+      <c r="DX247" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B248" s="10"/>
+    <row r="248" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="B248" s="9"/>
       <c r="DX248" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
-      <c r="B249" s="9"/>
+      <c r="B249" s="8"/>
       <c r="DX249" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
-      <c r="B250" s="9"/>
+      <c r="B250" s="8"/>
       <c r="DX250" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
-      <c r="B251" s="9"/>
+      <c r="B251" s="8"/>
       <c r="DX251" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
-      <c r="B252" s="9"/>
+      <c r="B252" s="8"/>
       <c r="DX252" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
-      <c r="B253" s="9"/>
+      <c r="B253" s="8"/>
       <c r="DX253" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
-      <c r="B254" s="9"/>
+      <c r="B254" s="8"/>
       <c r="DX254" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
-      <c r="B255" s="9"/>
+      <c r="B255" s="8"/>
       <c r="DX255" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
-      <c r="B256" s="9"/>
+      <c r="B256" s="8"/>
       <c r="DX256" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
-      <c r="B257" s="9"/>
+      <c r="B257" s="8"/>
       <c r="DX257" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
-      <c r="B258" s="9"/>
+      <c r="B258" s="8"/>
       <c r="DX258" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
-      <c r="B259" s="9"/>
+      <c r="B259" s="8"/>
       <c r="DX259" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
-      <c r="B260" s="9"/>
+      <c r="B260" s="8"/>
       <c r="DX260" s="1">
         <f t="shared" ref="DX260:DX323" si="4">SUM(C260:DU260)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
-      <c r="B261" s="9"/>
+      <c r="B261" s="8"/>
       <c r="DX261" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B262" s="10"/>
+    <row r="262" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="B262" s="9"/>
       <c r="DX262" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
-      <c r="B263" s="9"/>
+      <c r="B263" s="8"/>
       <c r="DX263" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
-      <c r="B264" s="9"/>
+      <c r="B264" s="8"/>
       <c r="DX264" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
-      <c r="B265" s="9"/>
+      <c r="B265" s="8"/>
       <c r="DX265" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
-      <c r="B266" s="9"/>
+      <c r="B266" s="8"/>
       <c r="DX266" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
-      <c r="B267" s="9"/>
+      <c r="B267" s="8"/>
       <c r="DX267" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
-      <c r="B268" s="9"/>
+      <c r="B268" s="8"/>
       <c r="DX268" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
-      <c r="B269" s="8"/>
+      <c r="B269" s="7"/>
       <c r="DX269" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
-      <c r="B270" s="9"/>
+      <c r="B270" s="8"/>
       <c r="DX270" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
-      <c r="B271" s="9"/>
+      <c r="B271" s="8"/>
       <c r="DX271" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
-      <c r="B272" s="9"/>
+      <c r="B272" s="8"/>
       <c r="DX272" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
-      <c r="B273" s="9"/>
+      <c r="B273" s="8"/>
       <c r="DX273" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
-      <c r="B274" s="9"/>
+      <c r="B274" s="8"/>
       <c r="DX274" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
-      <c r="B275" s="9"/>
+      <c r="B275" s="8"/>
       <c r="DX275" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
-      <c r="B276" s="9"/>
+      <c r="B276" s="8"/>
       <c r="DX276" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
-      <c r="B277" s="9"/>
+      <c r="B277" s="8"/>
       <c r="DX277" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
-      <c r="B278" s="9"/>
+      <c r="B278" s="8"/>
       <c r="DX278" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
-      <c r="B279" s="9"/>
+      <c r="B279" s="8"/>
       <c r="DX279" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
-      <c r="B280" s="9"/>
+      <c r="B280" s="8"/>
       <c r="DX280" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
-      <c r="B281" s="9"/>
+      <c r="B281" s="8"/>
       <c r="DX281" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
-      <c r="B282" s="9"/>
+      <c r="B282" s="8"/>
       <c r="DX282" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="8"/>
       <c r="DX283" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
-      <c r="B284" s="9"/>
+      <c r="B284" s="8"/>
       <c r="DX284" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
-      <c r="B285" s="9"/>
+      <c r="B285" s="8"/>
       <c r="DX285" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
-      <c r="B286" s="9"/>
+      <c r="B286" s="8"/>
       <c r="DX286" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
-      <c r="B287" s="9"/>
+      <c r="B287" s="8"/>
       <c r="DX287" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
-      <c r="B288" s="9"/>
+      <c r="B288" s="8"/>
       <c r="DX288" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
-      <c r="B289" s="9"/>
+      <c r="B289" s="8"/>
       <c r="DX289" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
-      <c r="B290" s="9"/>
+      <c r="B290" s="8"/>
       <c r="DX290" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
-      <c r="B291" s="9"/>
+      <c r="B291" s="8"/>
       <c r="DX291" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
-      <c r="B292" s="9"/>
+      <c r="B292" s="8"/>
       <c r="DX292" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
-      <c r="B293" s="9"/>
+      <c r="B293" s="8"/>
       <c r="DX293" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
-      <c r="B294" s="9"/>
+      <c r="B294" s="8"/>
       <c r="DX294" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
-      <c r="B295" s="9"/>
+      <c r="B295" s="8"/>
       <c r="DX295" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
-      <c r="B296" s="9"/>
+      <c r="B296" s="8"/>
       <c r="DX296" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
-      <c r="B297" s="9"/>
+      <c r="B297" s="8"/>
       <c r="DX297" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
-      <c r="B298" s="9"/>
+      <c r="B298" s="8"/>
       <c r="DX298" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
-      <c r="B299" s="9"/>
+      <c r="B299" s="8"/>
       <c r="DX299" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
-      <c r="B300" s="9"/>
+      <c r="B300" s="8"/>
       <c r="DX300" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
-      <c r="B301" s="9"/>
+      <c r="B301" s="8"/>
       <c r="DX301" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
-      <c r="B302" s="9"/>
+      <c r="B302" s="8"/>
       <c r="DX302" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
-      <c r="B303" s="9"/>
+      <c r="B303" s="8"/>
       <c r="DX303" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
-      <c r="B304" s="9"/>
+      <c r="B304" s="8"/>
       <c r="DX304" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
-      <c r="B305" s="9"/>
+      <c r="B305" s="8"/>
       <c r="DX305" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
-      <c r="B306" s="9"/>
+      <c r="B306" s="8"/>
       <c r="DX306" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
-      <c r="B307" s="9"/>
+      <c r="B307" s="8"/>
       <c r="DX307" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
-      <c r="B308" s="9"/>
+      <c r="B308" s="8"/>
       <c r="DX308" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
-      <c r="B309" s="9"/>
+      <c r="B309" s="8"/>
       <c r="DX309" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
-      <c r="B310" s="9"/>
+      <c r="B310" s="8"/>
       <c r="DX310" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B311" s="10"/>
+    <row r="311" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="B311" s="9"/>
       <c r="DX311" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
-      <c r="B312" s="9"/>
+      <c r="B312" s="8"/>
       <c r="DX312" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
-      <c r="B313" s="9"/>
+      <c r="B313" s="8"/>
       <c r="DX313" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
-      <c r="B314" s="9"/>
+      <c r="B314" s="8"/>
       <c r="DX314" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
-      <c r="B315" s="9"/>
+      <c r="B315" s="8"/>
       <c r="DX315" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
-      <c r="B316" s="9"/>
+      <c r="B316" s="8"/>
       <c r="DX316" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
-      <c r="B317" s="9"/>
+      <c r="B317" s="8"/>
       <c r="DX317" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
-      <c r="B318" s="9"/>
+      <c r="B318" s="8"/>
       <c r="DX318" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
-      <c r="B319" s="9"/>
+      <c r="B319" s="8"/>
       <c r="DX319" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
-      <c r="B320" s="9"/>
+      <c r="B320" s="8"/>
       <c r="DX320" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
-      <c r="B321" s="9"/>
+      <c r="B321" s="8"/>
       <c r="DX321" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
-      <c r="B322" s="9"/>
+      <c r="B322" s="8"/>
       <c r="DX322" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
-      <c r="B323" s="9"/>
+      <c r="B323" s="8"/>
       <c r="DX323" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
-      <c r="B324" s="9"/>
+      <c r="B324" s="8"/>
       <c r="DX324" s="1">
         <f t="shared" ref="DX324:DX387" si="5">SUM(C324:DU324)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
-      <c r="B325" s="9"/>
+      <c r="B325" s="8"/>
       <c r="DX325" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
-      <c r="B326" s="9"/>
+      <c r="B326" s="8"/>
       <c r="DX326" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
-      <c r="B327" s="9"/>
+      <c r="B327" s="8"/>
       <c r="DX327" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
-      <c r="B328" s="9"/>
+      <c r="B328" s="8"/>
       <c r="DX328" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
-      <c r="B329" s="9"/>
+      <c r="B329" s="8"/>
       <c r="DX329" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
-      <c r="B330" s="9"/>
+      <c r="B330" s="8"/>
       <c r="DX330" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
-      <c r="B331" s="9"/>
+      <c r="B331" s="8"/>
       <c r="DX331" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
-      <c r="B332" s="9"/>
+      <c r="B332" s="8"/>
       <c r="DX332" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
-      <c r="B333" s="9"/>
+      <c r="B333" s="8"/>
       <c r="DX333" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
-      <c r="B334" s="9"/>
+      <c r="B334" s="8"/>
       <c r="DX334" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
-      <c r="B335" s="9"/>
+      <c r="B335" s="8"/>
       <c r="DX335" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
-      <c r="B336" s="9"/>
+      <c r="B336" s="8"/>
       <c r="DX336" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
-      <c r="B337" s="9"/>
+      <c r="B337" s="8"/>
       <c r="DX337" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
-      <c r="B338" s="9"/>
+      <c r="B338" s="8"/>
       <c r="DX338" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
-      <c r="B339" s="9"/>
+      <c r="B339" s="8"/>
       <c r="DX339" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
-      <c r="B340" s="9"/>
+      <c r="B340" s="8"/>
       <c r="DX340" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
-      <c r="B341" s="9"/>
+      <c r="B341" s="8"/>
       <c r="DX341" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
-      <c r="B342" s="9"/>
+      <c r="B342" s="8"/>
       <c r="DX342" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
-      <c r="B343" s="9"/>
+      <c r="B343" s="8"/>
       <c r="DX343" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
-      <c r="B344" s="9"/>
+      <c r="B344" s="8"/>
       <c r="DX344" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
-      <c r="B345" s="9"/>
+      <c r="B345" s="8"/>
       <c r="DX345" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
-      <c r="B346" s="9"/>
+      <c r="B346" s="8"/>
       <c r="DX346" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
-      <c r="B347" s="9"/>
+      <c r="B347" s="8"/>
       <c r="DX347" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
-      <c r="B348" s="9"/>
+      <c r="B348" s="8"/>
       <c r="DX348" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
-      <c r="B349" s="9"/>
+      <c r="B349" s="8"/>
       <c r="DX349" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
-      <c r="B350" s="9"/>
+      <c r="B350" s="8"/>
       <c r="DX350" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
-      <c r="B351" s="9"/>
+      <c r="B351" s="8"/>
       <c r="DX351" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
-      <c r="B352" s="9"/>
+      <c r="B352" s="8"/>
       <c r="DX352" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
-      <c r="B353" s="9"/>
+      <c r="B353" s="8"/>
       <c r="DX353" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
-      <c r="B354" s="9"/>
+      <c r="B354" s="8"/>
       <c r="DX354" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
-      <c r="B355" s="9"/>
+      <c r="B355" s="8"/>
       <c r="DX355" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
-      <c r="B356" s="9"/>
+      <c r="B356" s="8"/>
       <c r="DX356" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
-      <c r="B357" s="9"/>
+      <c r="B357" s="8"/>
       <c r="DX357" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
-      <c r="B358" s="9"/>
+      <c r="B358" s="8"/>
       <c r="DX358" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
-      <c r="B359" s="9"/>
+      <c r="B359" s="8"/>
       <c r="DX359" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
-      <c r="B360" s="9"/>
+      <c r="B360" s="8"/>
       <c r="DX360" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
-      <c r="B361" s="9"/>
+      <c r="B361" s="8"/>
       <c r="DX361" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
-      <c r="B362" s="9"/>
+      <c r="B362" s="8"/>
       <c r="DX362" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
-      <c r="B363" s="9"/>
+      <c r="B363" s="8"/>
       <c r="DX363" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
-      <c r="B364" s="9"/>
+      <c r="B364" s="8"/>
       <c r="DX364" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
-      <c r="B365" s="9"/>
+      <c r="B365" s="8"/>
       <c r="DX365" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
-      <c r="B366" s="8"/>
+      <c r="B366" s="7"/>
       <c r="DX366" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
-      <c r="B367" s="8"/>
+      <c r="B367" s="7"/>
       <c r="DX367" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="B368" s="11"/>
+    <row r="368" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="B368" s="10"/>
       <c r="DX368" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="369" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX369" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="370" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX370" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="371" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX371" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="372" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX372" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="373" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX373" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="374" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX374" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="375" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX375" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="376" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX376" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="377" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX377" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="378" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX378" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="379" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX379" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="380" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX380" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="381" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX381" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="382" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX382" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="383" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX383" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="384" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX384" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="385" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX385" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="386" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX386" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="387" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX387" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="388" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX388" s="1">
         <f t="shared" ref="DX388:DX451" si="6">SUM(C388:DU388)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="389" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX389" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="390" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX390" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="391" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX391" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="392" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX392" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="393" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX393" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="394" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX394" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="395" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX395" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="396" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX396" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="397" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX397" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="398" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX398" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="399" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX399" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="400" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX400" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="401" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX401" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="402" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX402" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="403" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX403" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="404" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX404" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="405" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX405" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="406" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX406" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="407" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX407" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="408" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX408" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="409" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX409" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="410" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX410" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="411" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX411" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="412" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX412" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="413" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX413" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="414" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX414" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="415" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX415" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="416" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX416" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="417" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX417" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="418" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX418" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="419" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX419" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="420" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX420" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="421" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="422" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="423" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX423" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="424" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX424" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="425" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX425" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="426" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX426" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="427" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX427" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="428" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX428" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="429" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX429" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="430" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX430" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="431" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX431" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="432" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX432" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="433" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX433" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="434" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX434" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="435" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX435" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="436" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX436" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="437" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX437" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="438" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX438" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="439" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX439" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="440" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX440" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="441" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX441" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="442" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX442" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="443" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX443" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="444" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX444" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="445" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX445" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="446" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX446" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="447" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX447" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="448" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX448" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="449" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX449" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="450" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX450" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="451" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX451" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="452" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX452" s="1">
         <f t="shared" ref="DX452:DX496" si="7">SUM(C452:DU452)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="453" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX453" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="454" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX454" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="455" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX455" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="456" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX456" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="457" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX457" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="458" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX458" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="459" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX459" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="460" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX460" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="461" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX461" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="462" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX462" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="463" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX463" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="464" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX464" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="465" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX465" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="466" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX466" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="467" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX467" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="468" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX468" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="469" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX469" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="470" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX470" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="471" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX471" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="472" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX472" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="473" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX473" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="474" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX474" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="475" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX475" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="476" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX476" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="477" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX477" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="478" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX478" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="479" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX479" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="480" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX480" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="481" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX481" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="482" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX482" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="483" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX483" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="484" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX484" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="485" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX485" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="486" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX486" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="487" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX487" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="488" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX488" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="489" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX489" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="490" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX490" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="491" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX491" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="492" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX492" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="493" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX493" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="494" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX494" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="495" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX495" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="128:128" x14ac:dyDescent="0.25">
+    <row r="496" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX496" s="1">
         <f t="shared" si="7"/>
         <v>0</v>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -844,6 +844,60 @@
   </si>
   <si>
     <t>16/12/2023</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>23/12/2023</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
+  </si>
+  <si>
+    <t>13/1/2024</t>
+  </si>
+  <si>
+    <t>14/1/2024</t>
+  </si>
+  <si>
+    <t>15/1/2024</t>
   </si>
 </sst>
 </file>
@@ -867,18 +921,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -893,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -922,13 +970,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,14 +1253,14 @@
   <dimension ref="A1:DX496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
@@ -1277,14 +1318,16 @@
     <col min="89" max="89" width="13.109375" customWidth="1"/>
     <col min="90" max="90" width="11.6640625" customWidth="1"/>
     <col min="91" max="91" width="12.6640625" customWidth="1"/>
-    <col min="92" max="93" width="12.44140625" customWidth="1"/>
-    <col min="94" max="102" width="10.6640625" customWidth="1"/>
+    <col min="92" max="92" width="12.44140625" customWidth="1"/>
+    <col min="93" max="93" width="10" customWidth="1"/>
+    <col min="94" max="94" width="9.109375" customWidth="1"/>
+    <col min="95" max="102" width="10.6640625" customWidth="1"/>
     <col min="103" max="103" width="13.44140625" customWidth="1"/>
     <col min="104" max="107" width="10.6640625" customWidth="1"/>
     <col min="108" max="108" width="10.33203125" customWidth="1"/>
     <col min="109" max="109" width="12.44140625" customWidth="1"/>
     <col min="110" max="110" width="12.6640625" customWidth="1"/>
-    <col min="111" max="111" width="16.5546875" customWidth="1"/>
+    <col min="111" max="111" width="13.77734375" customWidth="1"/>
     <col min="112" max="112" width="10.6640625" customWidth="1"/>
     <col min="113" max="113" width="12.33203125" customWidth="1"/>
     <col min="114" max="114" width="10.6640625" customWidth="1"/>
@@ -9186,252 +9229,865 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:128" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="12" t="s">
+    <row r="247" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B247" s="13"/>
-      <c r="DX247" s="14">
+      <c r="B247" s="8">
+        <v>113720</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1</v>
+      </c>
+      <c r="W247" s="1">
+        <v>2</v>
+      </c>
+      <c r="X247" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE247" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU247" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV247" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX247" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B248" s="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B248" s="8">
+        <v>128350</v>
+      </c>
+      <c r="O248" s="1">
+        <v>3</v>
+      </c>
+      <c r="R248" s="1">
+        <v>1</v>
+      </c>
+      <c r="X248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ248" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP248" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR248" s="1">
+        <v>1</v>
+      </c>
       <c r="DX248" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
-      <c r="B249" s="8"/>
+      <c r="A249" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B249" s="8">
+        <v>205360</v>
+      </c>
+      <c r="S249" s="1">
+        <v>1</v>
+      </c>
+      <c r="W249" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH249" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA249" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB249" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ249" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ249" s="1">
+        <v>1</v>
+      </c>
       <c r="DX249" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="8"/>
+      <c r="A250" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B250" s="8">
+        <v>204800</v>
+      </c>
+      <c r="S250" s="1">
+        <v>1</v>
+      </c>
+      <c r="W250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL250" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ250" s="1">
+        <v>1</v>
+      </c>
       <c r="DX250" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B251" s="8">
+        <v>57400</v>
+      </c>
+      <c r="R251" s="1">
+        <v>2</v>
+      </c>
+      <c r="S251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG251" s="1">
+        <v>1</v>
+      </c>
       <c r="DX251" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3"/>
-      <c r="B252" s="8"/>
+      <c r="A252" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B252" s="8">
+        <v>45700</v>
+      </c>
+      <c r="R252" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE252" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB252" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI252" s="1">
+        <v>1</v>
+      </c>
       <c r="DX252" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B253" s="8">
+        <v>0</v>
+      </c>
       <c r="DX253" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B254" s="8">
+        <v>77550</v>
+      </c>
+      <c r="AC254" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ254" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI254" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV254" s="1">
+        <v>1</v>
+      </c>
       <c r="DX254" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B255" s="8">
+        <v>84900</v>
+      </c>
+      <c r="W255" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG255" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI255" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ255" s="1">
+        <v>1</v>
+      </c>
       <c r="DX255" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B256" s="8">
+        <v>103900</v>
+      </c>
+      <c r="I256" s="1">
+        <v>1</v>
+      </c>
+      <c r="N256" s="1">
+        <v>1</v>
+      </c>
+      <c r="R256" s="1">
+        <v>1</v>
+      </c>
+      <c r="W256" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z256" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ256" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV256" s="1">
+        <v>1</v>
+      </c>
       <c r="DX256" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="8"/>
+      <c r="A257" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B257" s="8">
+        <v>43800</v>
+      </c>
+      <c r="U257" s="1">
+        <v>1</v>
+      </c>
+      <c r="W257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ257" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE257" s="1">
+        <v>1</v>
+      </c>
       <c r="DX257" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="8"/>
+      <c r="A258" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B258" s="8">
+        <v>118350</v>
+      </c>
+      <c r="W258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC258" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL258" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ258" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG258" s="1">
+        <v>1</v>
+      </c>
       <c r="DX258" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="8"/>
+      <c r="A259" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B259" s="8">
+        <v>176500</v>
+      </c>
+      <c r="N259" s="1">
+        <v>1</v>
+      </c>
+      <c r="W259" s="1">
+        <v>1</v>
+      </c>
+      <c r="X259" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ259" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB259" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP259" s="1">
+        <v>2</v>
+      </c>
       <c r="DX259" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3"/>
-      <c r="B260" s="8"/>
+      <c r="A260" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B260" s="8">
+        <v>0</v>
+      </c>
       <c r="DX260" s="1">
         <f t="shared" ref="DX260:DX323" si="4">SUM(C260:DU260)</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3"/>
-      <c r="B261" s="8"/>
+      <c r="A261" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B261" s="8">
+        <v>109750</v>
+      </c>
+      <c r="W261" s="1">
+        <v>1</v>
+      </c>
+      <c r="X261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU261" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV261" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB261" s="1">
+        <v>1</v>
+      </c>
       <c r="DX261" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B262" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B262" s="8">
+        <v>99800</v>
+      </c>
+      <c r="AC262" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ262" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP262" s="1">
+        <v>1</v>
+      </c>
       <c r="DX262" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3"/>
-      <c r="B263" s="8"/>
+      <c r="A263" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B263" s="8">
+        <v>69300</v>
+      </c>
+      <c r="W263" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z263" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE263" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL263" s="1">
+        <v>1</v>
+      </c>
       <c r="DX263" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
-      <c r="B264" s="8"/>
+      <c r="A264" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B264" s="8">
+        <v>59550</v>
+      </c>
+      <c r="T264" s="1">
+        <v>1</v>
+      </c>
+      <c r="W264" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE264" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA264" s="1">
+        <v>1</v>
+      </c>
       <c r="DX264" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="4"/>
-      <c r="B265" s="8"/>
+      <c r="A265" s="4">
+        <v>45352</v>
+      </c>
+      <c r="B265" s="8">
+        <v>16850</v>
+      </c>
+      <c r="S265" s="1">
+        <v>1</v>
+      </c>
+      <c r="V265" s="1">
+        <v>1</v>
+      </c>
+      <c r="W265" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD265" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE265" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG265" s="1">
+        <v>1</v>
+      </c>
       <c r="DX265" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
-      <c r="B266" s="8"/>
+      <c r="A266" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B266" s="8">
+        <v>232600</v>
+      </c>
+      <c r="T266" s="1">
+        <v>1</v>
+      </c>
+      <c r="U266" s="1">
+        <v>1</v>
+      </c>
+      <c r="W266" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z266" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG266" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA266" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ266" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX266" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD266" s="1">
+        <v>1</v>
+      </c>
       <c r="DX266" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="4"/>
-      <c r="B267" s="8"/>
+      <c r="A267" s="4">
+        <v>45413</v>
+      </c>
+      <c r="B267" s="8">
+        <v>0</v>
+      </c>
       <c r="DX267" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="4"/>
-      <c r="B268" s="8"/>
+      <c r="A268" s="4">
+        <v>45444</v>
+      </c>
+      <c r="B268" s="8">
+        <v>171900</v>
+      </c>
+      <c r="W268" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z268" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC268" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD268" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE268" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG268" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ268" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU268" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ268" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG268" s="1">
+        <v>1</v>
+      </c>
       <c r="DX268" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="4"/>
-      <c r="B269" s="7"/>
+      <c r="A269" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B269" s="7">
+        <v>9000</v>
+      </c>
+      <c r="S269" s="1">
+        <v>1</v>
+      </c>
+      <c r="U269" s="1">
+        <v>1</v>
+      </c>
       <c r="DX269" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="4"/>
-      <c r="B270" s="8"/>
+      <c r="A270" s="4">
+        <v>45505</v>
+      </c>
+      <c r="B270" s="8">
+        <v>127950</v>
+      </c>
+      <c r="W270" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE270" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG270" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ270" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU270" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV270" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC270" s="1">
+        <v>1</v>
+      </c>
       <c r="DX270" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="4"/>
-      <c r="B271" s="8"/>
+      <c r="A271" s="4">
+        <v>45536</v>
+      </c>
+      <c r="B271" s="8">
+        <v>134200</v>
+      </c>
+      <c r="S271" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC271" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU271" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA271" s="1">
+        <v>1</v>
+      </c>
       <c r="DX271" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="4"/>
-      <c r="B272" s="8"/>
+      <c r="A272" s="4">
+        <v>45566</v>
+      </c>
+      <c r="B272" s="8">
+        <v>89100</v>
+      </c>
+      <c r="R272" s="1">
+        <v>1</v>
+      </c>
+      <c r="T272" s="1">
+        <v>1</v>
+      </c>
+      <c r="W272" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD272" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG272" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL272" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA272" s="1">
+        <v>1</v>
+      </c>
       <c r="DX272" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="4"/>
-      <c r="B273" s="8"/>
+      <c r="A273" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B273" s="8">
+        <v>129300</v>
+      </c>
+      <c r="R273" s="1">
+        <v>1</v>
+      </c>
+      <c r="W273" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z273" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG273" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ273" s="1">
+        <v>1</v>
+      </c>
       <c r="DX273" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="4"/>
-      <c r="B274" s="8"/>
+      <c r="A274" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B274" s="8">
+        <v>0</v>
+      </c>
       <c r="DX274" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="4"/>
-      <c r="B275" s="8"/>
+      <c r="A275" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B275" s="8">
+        <v>104400</v>
+      </c>
+      <c r="T275" s="1">
+        <v>1</v>
+      </c>
+      <c r="U275" s="1">
+        <v>1</v>
+      </c>
+      <c r="W275" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z275" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC275" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE275" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF275" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG275" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB275" s="1">
+        <v>1</v>
+      </c>
       <c r="DX275" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3"/>
-      <c r="B276" s="8"/>
+      <c r="A276" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B276" s="8">
+        <v>131000</v>
+      </c>
+      <c r="AC276" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG276" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI276" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV276" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY276" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB276" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ276" s="1">
+        <v>1</v>
+      </c>
       <c r="DX276" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3"/>
-      <c r="B277" s="8"/>
+      <c r="A277" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B277" s="8">
+        <v>117300</v>
+      </c>
+      <c r="W277" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG277" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT277" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM277" s="1">
+        <v>1</v>
+      </c>
       <c r="DX277" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -898,6 +898,93 @@
   </si>
   <si>
     <t>15/1/2024</t>
+  </si>
+  <si>
+    <t>16/1/2024</t>
+  </si>
+  <si>
+    <t>17/1/2024</t>
+  </si>
+  <si>
+    <t>18/1/2024</t>
+  </si>
+  <si>
+    <t>19/1/2024</t>
+  </si>
+  <si>
+    <t>20/1/2024</t>
+  </si>
+  <si>
+    <t>21/1/2024</t>
+  </si>
+  <si>
+    <t>22/1/2024</t>
+  </si>
+  <si>
+    <t>23/1/2024</t>
+  </si>
+  <si>
+    <t>24/1/2024</t>
+  </si>
+  <si>
+    <t>25/1/2024</t>
+  </si>
+  <si>
+    <t>26/1/2024</t>
+  </si>
+  <si>
+    <t>27/1/2024</t>
+  </si>
+  <si>
+    <t>28/1/2024</t>
+  </si>
+  <si>
+    <t>29/1/2024</t>
+  </si>
+  <si>
+    <t>30/1/2024</t>
+  </si>
+  <si>
+    <t>31/1/2024</t>
+  </si>
+  <si>
+    <t>13/2/2024</t>
+  </si>
+  <si>
+    <t>14/2/2024</t>
+  </si>
+  <si>
+    <t>15/2/2024</t>
+  </si>
+  <si>
+    <t>16/2/2024</t>
+  </si>
+  <si>
+    <t>17/2/2024</t>
+  </si>
+  <si>
+    <t>18/2/2024</t>
+  </si>
+  <si>
+    <t>19/2/2024</t>
+  </si>
+  <si>
+    <t>20/2/2024</t>
+  </si>
+  <si>
+    <t>21/2/2024</t>
+  </si>
+  <si>
+    <t>22/2/2024</t>
+  </si>
+  <si>
+    <t>23/2/2024</t>
+  </si>
+  <si>
+    <t>24/2/2024</t>
+  </si>
+  <si>
+    <t>25/2/2024</t>
   </si>
 </sst>
 </file>
@@ -921,12 +1008,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -941,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -963,13 +1056,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,8 +1350,8 @@
   <dimension ref="A1:DX496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1367,7 @@
     <col min="13" max="14" width="11.109375" customWidth="1"/>
     <col min="15" max="16" width="11.33203125" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" customWidth="1"/>
     <col min="19" max="19" width="10.5546875" customWidth="1"/>
     <col min="20" max="20" width="10.44140625" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" customWidth="1"/>
@@ -1764,8 +1861,8 @@
       <c r="CN2" s="1">
         <v>2</v>
       </c>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
+      <c r="DI2" s="10"/>
+      <c r="DJ2" s="10"/>
       <c r="DX2" s="1">
         <f>SUM(C2:DU2)</f>
         <v>18</v>
@@ -10091,328 +10188,1106 @@
       </c>
     </row>
     <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3"/>
-      <c r="B278" s="8"/>
+      <c r="A278" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B278" s="8">
+        <v>76100</v>
+      </c>
+      <c r="W278" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG278" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ278" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX278" s="1">
+        <v>1</v>
+      </c>
       <c r="DX278" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3"/>
-      <c r="B279" s="8"/>
+      <c r="A279" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B279" s="8">
+        <v>88600</v>
+      </c>
+      <c r="U279" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE279" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG279" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU279" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE279" s="1">
+        <v>1</v>
+      </c>
       <c r="DX279" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="3"/>
-      <c r="B280" s="8"/>
+      <c r="A280" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B280" s="8">
+        <v>191650</v>
+      </c>
+      <c r="S280" s="1">
+        <v>1</v>
+      </c>
+      <c r="W280" s="1">
+        <v>3</v>
+      </c>
+      <c r="X280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO280" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC280" s="1">
+        <v>1</v>
+      </c>
       <c r="DX280" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="3"/>
-      <c r="B281" s="8"/>
+      <c r="A281" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B281" s="8">
+        <v>0</v>
+      </c>
       <c r="DX281" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="3"/>
-      <c r="B282" s="8"/>
+      <c r="A282" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B282" s="8">
+        <v>110900</v>
+      </c>
+      <c r="V282" s="1">
+        <v>1</v>
+      </c>
+      <c r="W282" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC282" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ282" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA282" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ282" s="1">
+        <v>1</v>
+      </c>
       <c r="DX282" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="3"/>
-      <c r="B283" s="8"/>
+      <c r="A283" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B283" s="8">
+        <v>124100</v>
+      </c>
+      <c r="AC283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE283" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI283" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB283" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK283" s="1">
+        <v>1</v>
+      </c>
       <c r="DX283" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="3"/>
-      <c r="B284" s="8"/>
+      <c r="A284" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B284" s="8">
+        <v>49000</v>
+      </c>
+      <c r="M284" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF284" s="1">
+        <v>1</v>
+      </c>
       <c r="DX284" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="3"/>
-      <c r="B285" s="8"/>
+      <c r="A285" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B285" s="8">
+        <v>98000</v>
+      </c>
+      <c r="T285" s="1">
+        <v>1</v>
+      </c>
+      <c r="W285" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB285" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE285" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG285" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ285" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ285" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA285" s="1">
+        <v>1</v>
+      </c>
       <c r="DX285" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="3"/>
-      <c r="B286" s="8"/>
+      <c r="A286" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B286" s="8">
+        <v>69800</v>
+      </c>
+      <c r="S286" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC286" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ286" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU286" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH286" s="1">
+        <v>1</v>
+      </c>
       <c r="DX286" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="3"/>
-      <c r="B287" s="8"/>
+      <c r="A287" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B287" s="8">
+        <v>130900</v>
+      </c>
+      <c r="W287" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF287" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG287" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ287" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ287" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA287" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB287" s="1">
+        <v>1</v>
+      </c>
       <c r="DX287" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="3"/>
-      <c r="B288" s="8"/>
+      <c r="A288" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B288" s="8">
+        <v>0</v>
+      </c>
       <c r="DX288" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="3"/>
-      <c r="B289" s="8"/>
+      <c r="A289" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B289" s="8">
+        <v>98000</v>
+      </c>
+      <c r="R289" s="1">
+        <v>1</v>
+      </c>
+      <c r="U289" s="1">
+        <v>1</v>
+      </c>
+      <c r="W289" s="1">
+        <v>1</v>
+      </c>
+      <c r="X289" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB289" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC289" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE289" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ289" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA289" s="1">
+        <v>1</v>
+      </c>
       <c r="DX289" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="3"/>
-      <c r="B290" s="8"/>
+      <c r="A290" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B290" s="8">
+        <v>74000</v>
+      </c>
+      <c r="S290" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ290" s="1">
+        <v>1</v>
+      </c>
       <c r="DX290" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="3"/>
-      <c r="B291" s="8"/>
+      <c r="A291" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B291" s="8">
+        <v>84000</v>
+      </c>
+      <c r="M291" s="1">
+        <v>1</v>
+      </c>
+      <c r="O291" s="1">
+        <v>1</v>
+      </c>
+      <c r="S291" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z291" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU291" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL291" s="1">
+        <v>1</v>
+      </c>
       <c r="DX291" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3"/>
-      <c r="B292" s="8"/>
+      <c r="A292" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B292" s="8">
+        <v>51700</v>
+      </c>
+      <c r="AC292" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ292" s="1">
+        <v>2</v>
+      </c>
       <c r="DX292" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3"/>
-      <c r="B293" s="8"/>
+      <c r="A293" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B293" s="8">
+        <v>105500</v>
+      </c>
+      <c r="AU293" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR293" s="1">
+        <v>1</v>
+      </c>
       <c r="DX293" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3"/>
-      <c r="B294" s="8"/>
+      <c r="A294" s="4">
+        <v>45293</v>
+      </c>
+      <c r="B294" s="8">
+        <v>151400</v>
+      </c>
+      <c r="U294" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z294" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE294" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ294" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB294" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ294" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG294" s="1">
+        <v>1</v>
+      </c>
       <c r="DX294" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="4"/>
-      <c r="B295" s="8"/>
+      <c r="A295" s="4">
+        <v>45324</v>
+      </c>
+      <c r="B295" s="8">
+        <v>0</v>
+      </c>
       <c r="DX295" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="4"/>
-      <c r="B296" s="8"/>
+      <c r="A296" s="4">
+        <v>45353</v>
+      </c>
+      <c r="B296" s="8">
+        <v>67950</v>
+      </c>
+      <c r="M296" s="1">
+        <v>1</v>
+      </c>
+      <c r="S296" s="1">
+        <v>2</v>
+      </c>
+      <c r="W296" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z296" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB296" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC296" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE296" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ296" s="1">
+        <v>2</v>
+      </c>
       <c r="DX296" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="4"/>
-      <c r="B297" s="8"/>
+      <c r="A297" s="4">
+        <v>45384</v>
+      </c>
+      <c r="B297" s="8">
+        <v>45600</v>
+      </c>
+      <c r="AC297" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR297" s="1">
+        <v>1</v>
+      </c>
       <c r="DX297" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="4"/>
-      <c r="B298" s="8"/>
+      <c r="A298" s="4">
+        <v>45414</v>
+      </c>
+      <c r="B298" s="8">
+        <v>118150</v>
+      </c>
+      <c r="M298" s="1">
+        <v>1</v>
+      </c>
+      <c r="W298" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC298" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF298" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH298" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ298" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA298" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY298" s="1">
+        <v>1</v>
+      </c>
       <c r="DX298" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="4"/>
-      <c r="B299" s="8"/>
+      <c r="A299" s="4">
+        <v>45445</v>
+      </c>
+      <c r="B299" s="8">
+        <v>111200</v>
+      </c>
+      <c r="M299" s="1">
+        <v>2</v>
+      </c>
+      <c r="W299" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC299" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD299" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE299" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI299" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX299" s="1">
+        <v>1</v>
+      </c>
       <c r="DX299" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="4"/>
-      <c r="B300" s="8"/>
+      <c r="A300" s="4">
+        <v>45475</v>
+      </c>
+      <c r="B300" s="8">
+        <v>157300</v>
+      </c>
+      <c r="M300" s="1">
+        <v>1</v>
+      </c>
+      <c r="W300" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y300" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z300" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE300" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR300" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW300" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW300" s="1">
+        <v>1</v>
+      </c>
       <c r="DX300" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="4"/>
-      <c r="B301" s="8"/>
+      <c r="A301" s="4">
+        <v>45506</v>
+      </c>
+      <c r="B301" s="8">
+        <v>265800</v>
+      </c>
+      <c r="W301" s="1">
+        <v>1</v>
+      </c>
+      <c r="X301" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z301" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ301" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU301" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV301" s="1">
+        <v>1</v>
+      </c>
       <c r="DX301" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="4"/>
-      <c r="B302" s="8"/>
+      <c r="A302" s="4">
+        <v>45537</v>
+      </c>
+      <c r="B302" s="8">
+        <v>0</v>
+      </c>
       <c r="DX302" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="4"/>
-      <c r="B303" s="8"/>
+      <c r="A303" s="4">
+        <v>45567</v>
+      </c>
+      <c r="B303" s="8">
+        <v>252700</v>
+      </c>
+      <c r="S303" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC303" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR303" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB303" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI303" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL303" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM303" s="1">
+        <v>1</v>
+      </c>
       <c r="DX303" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="4"/>
-      <c r="B304" s="8"/>
+      <c r="A304" s="4">
+        <v>45598</v>
+      </c>
+      <c r="B304" s="8">
+        <v>183900</v>
+      </c>
+      <c r="O304" s="1">
+        <v>2</v>
+      </c>
+      <c r="R304" s="1">
+        <v>1</v>
+      </c>
+      <c r="S304" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z304" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC304" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE304" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ304" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW304" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC304" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE304" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL304" s="1">
+        <v>1</v>
+      </c>
       <c r="DX304" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="4"/>
-      <c r="B305" s="8"/>
+      <c r="A305" s="4">
+        <v>45628</v>
+      </c>
+      <c r="B305" s="8">
+        <v>286100</v>
+      </c>
+      <c r="I305" s="1">
+        <v>1</v>
+      </c>
+      <c r="S305" s="1">
+        <v>3</v>
+      </c>
+      <c r="T305" s="1">
+        <v>2</v>
+      </c>
+      <c r="U305" s="1">
+        <v>2</v>
+      </c>
+      <c r="W305" s="1">
+        <v>2</v>
+      </c>
+      <c r="X305" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC305" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE305" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ305" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA305" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI305" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ305" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN305" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR305" s="1">
+        <v>1</v>
+      </c>
       <c r="DX305" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="4"/>
-      <c r="B306" s="8"/>
+      <c r="A306" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306" s="8">
+        <v>289000</v>
+      </c>
+      <c r="AE306" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ306" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU306" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI306" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY306" s="1">
+        <v>1</v>
+      </c>
       <c r="DX306" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3"/>
-      <c r="B307" s="8"/>
+      <c r="A307" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307" s="8">
+        <v>58600</v>
+      </c>
+      <c r="Z307" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB307" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ307" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ307" s="1">
+        <v>1</v>
+      </c>
       <c r="DX307" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="3"/>
-      <c r="B308" s="8"/>
+      <c r="A308" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308" s="8">
+        <v>82500</v>
+      </c>
+      <c r="Z308" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE308" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD308" s="1">
+        <v>1</v>
+      </c>
       <c r="DX308" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="3"/>
-      <c r="B309" s="8"/>
+      <c r="A309" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309" s="8">
+        <v>0</v>
+      </c>
       <c r="DX309" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="3"/>
-      <c r="B310" s="8"/>
+      <c r="A310" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310" s="8">
+        <v>107650</v>
+      </c>
+      <c r="O310" s="1">
+        <v>1</v>
+      </c>
+      <c r="S310" s="1">
+        <v>1</v>
+      </c>
+      <c r="X310" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC310" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE310" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ310" s="1">
+        <v>2</v>
+      </c>
       <c r="DX310" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B311" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311" s="8">
+        <v>69950</v>
+      </c>
+      <c r="O311" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH311" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ311" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP311" s="1">
+        <v>1</v>
+      </c>
       <c r="DX311" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3"/>
-      <c r="B312" s="8"/>
+      <c r="A312" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B312" s="8">
+        <v>114850</v>
+      </c>
+      <c r="W312" s="1">
+        <v>1</v>
+      </c>
+      <c r="X312" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA312" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX312" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU312" s="1">
+        <v>1</v>
+      </c>
       <c r="DX312" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3"/>
-      <c r="B313" s="8"/>
+      <c r="A313" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313" s="8">
+        <v>84950</v>
+      </c>
+      <c r="AC313" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR313" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA313" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP313" s="1">
+        <v>1</v>
+      </c>
       <c r="DX313" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="3"/>
-      <c r="B314" s="8"/>
+      <c r="A314" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314" s="8">
+        <v>204050</v>
+      </c>
+      <c r="L314" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB314" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA314" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE314" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ314" s="1">
+        <v>2</v>
+      </c>
       <c r="DX314" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="3"/>
-      <c r="B315" s="8"/>
+      <c r="A315" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B315" s="8">
+        <v>42350</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+      <c r="S315" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z315" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE315" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH315" s="1">
+        <v>1</v>
+      </c>
       <c r="DX315" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="3"/>
-      <c r="B316" s="8"/>
+      <c r="A316" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316" s="8">
+        <v>204950</v>
+      </c>
+      <c r="O316" s="1">
+        <v>1</v>
+      </c>
+      <c r="T316" s="1">
+        <v>1</v>
+      </c>
+      <c r="W316" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB316" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE316" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR316" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB316" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW316" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE316" s="1">
+        <v>1</v>
+      </c>
       <c r="DX316" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3"/>
-      <c r="B317" s="8"/>
+      <c r="A317" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B317" s="8">
+        <v>0</v>
+      </c>
       <c r="DX317" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3"/>
-      <c r="B318" s="8"/>
-      <c r="DX318" s="1">
+    <row r="318" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318" s="12"/>
+      <c r="DX318" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10810,7 +11685,7 @@
       </c>
     </row>
     <row r="368" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B368" s="10"/>
+      <c r="B368" s="9"/>
       <c r="DX368" s="1">
         <f t="shared" si="5"/>
         <v>0</v>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -985,6 +985,30 @@
   </si>
   <si>
     <t>25/2/2024</t>
+  </si>
+  <si>
+    <t>26/2/2024</t>
+  </si>
+  <si>
+    <t>27/2/2024</t>
+  </si>
+  <si>
+    <t>28/2/2024</t>
+  </si>
+  <si>
+    <t>29/2/2024</t>
+  </si>
+  <si>
+    <t>13/3/2024</t>
+  </si>
+  <si>
+    <t>14/3/2024</t>
+  </si>
+  <si>
+    <t>15/3/2024</t>
+  </si>
+  <si>
+    <t>16/3/2024</t>
   </si>
 </sst>
 </file>
@@ -1347,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX496"/>
+  <dimension ref="A1:DX497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B318" sqref="B318"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1399,7 @@
     <col min="23" max="23" width="7.6640625" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
     <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
     <col min="27" max="27" width="13.88671875" customWidth="1"/>
     <col min="28" max="28" width="15.44140625" customWidth="1"/>
     <col min="29" max="29" width="12.5546875" customWidth="1"/>
@@ -1415,7 +1439,7 @@
     <col min="89" max="89" width="13.109375" customWidth="1"/>
     <col min="90" max="90" width="11.6640625" customWidth="1"/>
     <col min="91" max="91" width="12.6640625" customWidth="1"/>
-    <col min="92" max="92" width="12.44140625" customWidth="1"/>
+    <col min="92" max="92" width="9.5546875" customWidth="1"/>
     <col min="93" max="93" width="10" customWidth="1"/>
     <col min="94" max="94" width="9.109375" customWidth="1"/>
     <col min="95" max="102" width="10.6640625" customWidth="1"/>
@@ -9703,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="DX260" s="1">
-        <f t="shared" ref="DX260:DX323" si="4">SUM(C260:DU260)</f>
+        <f t="shared" ref="DX260:DX324" si="4">SUM(C260:DU260)</f>
         <v>0</v>
       </c>
     </row>
@@ -11236,38 +11260,11 @@
         <v>319</v>
       </c>
       <c r="B316" s="8">
-        <v>204950</v>
-      </c>
-      <c r="O316" s="1">
-        <v>1</v>
-      </c>
-      <c r="T316" s="1">
-        <v>1</v>
-      </c>
-      <c r="W316" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB316" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE316" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR316" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB316" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW316" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE316" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX316" s="1">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11275,179 +11272,802 @@
         <v>320</v>
       </c>
       <c r="B317" s="8">
-        <v>0</v>
+        <v>204950</v>
+      </c>
+      <c r="O317" s="1">
+        <v>1</v>
+      </c>
+      <c r="T317" s="1">
+        <v>1</v>
+      </c>
+      <c r="W317" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB317" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE317" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR317" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB317" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW317" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE317" s="1">
+        <v>1</v>
       </c>
       <c r="DX317" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B318" s="12"/>
-      <c r="DX318" s="13">
+      <c r="B318" s="8">
+        <v>196700</v>
+      </c>
+      <c r="M318" s="1">
+        <v>1</v>
+      </c>
+      <c r="S318" s="1">
+        <v>1</v>
+      </c>
+      <c r="W318" s="1">
+        <v>1</v>
+      </c>
+      <c r="X318" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE318" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ318" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL318" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE318" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN318" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX318" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="3"/>
-      <c r="B319" s="8"/>
+      <c r="A319" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319" s="8">
+        <v>128200</v>
+      </c>
+      <c r="S319" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR319" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU319" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV319" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW319" s="1">
+        <v>1</v>
+      </c>
       <c r="DX319" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3"/>
-      <c r="B320" s="8"/>
+      <c r="A320" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" s="8">
+        <v>136600</v>
+      </c>
+      <c r="AD320" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE320" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI320" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW320" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB320" s="1">
+        <v>1</v>
+      </c>
       <c r="DX320" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3"/>
-      <c r="B321" s="8"/>
+      <c r="A321" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B321" s="8">
+        <v>102700</v>
+      </c>
+      <c r="M321" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE321" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI321" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW321" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA321" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB321" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN321" s="1">
+        <v>1</v>
+      </c>
       <c r="DX321" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="3"/>
-      <c r="B322" s="8"/>
+      <c r="A322" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322" s="8">
+        <v>248150</v>
+      </c>
+      <c r="L322" s="1">
+        <v>1</v>
+      </c>
+      <c r="M322" s="1">
+        <v>4</v>
+      </c>
+      <c r="S322" s="1">
+        <v>1</v>
+      </c>
+      <c r="X322" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB322" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE322" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ322" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU322" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK322" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR322" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV322" s="1">
+        <v>1</v>
+      </c>
       <c r="DX322" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="4"/>
-      <c r="B323" s="8"/>
+      <c r="A323" s="4">
+        <v>45294</v>
+      </c>
+      <c r="B323" s="8">
+        <v>0</v>
+      </c>
       <c r="DX323" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="4"/>
-      <c r="B324" s="8"/>
+      <c r="A324" s="4">
+        <v>45325</v>
+      </c>
+      <c r="B324" s="8">
+        <v>151000</v>
+      </c>
+      <c r="K324" s="1">
+        <v>1</v>
+      </c>
+      <c r="L324" s="1">
+        <v>1</v>
+      </c>
+      <c r="M324" s="1">
+        <v>1</v>
+      </c>
+      <c r="O324" s="1">
+        <v>1</v>
+      </c>
+      <c r="P324" s="1">
+        <v>1</v>
+      </c>
+      <c r="S324" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC324" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE324" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF324" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ324" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU324" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW324" s="1">
+        <v>1</v>
+      </c>
       <c r="DX324" s="1">
-        <f t="shared" ref="DX324:DX387" si="5">SUM(C324:DU324)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="B325" s="8"/>
+      <c r="A325" s="4">
+        <v>45354</v>
+      </c>
+      <c r="B325" s="8">
+        <v>327000</v>
+      </c>
+      <c r="Z325" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC325" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI325" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ325" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN325" s="1">
+        <v>1</v>
+      </c>
       <c r="DX325" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="DX325:DX388" si="5">SUM(C325:DU325)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="B326" s="8"/>
+      <c r="A326" s="4">
+        <v>45385</v>
+      </c>
+      <c r="B326" s="8">
+        <v>412700</v>
+      </c>
+      <c r="S326" s="1">
+        <v>2</v>
+      </c>
+      <c r="T326" s="1">
+        <v>2</v>
+      </c>
+      <c r="W326" s="1">
+        <v>2</v>
+      </c>
+      <c r="X326" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB326" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE326" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL326" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR326" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU326" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV326" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK326" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ326" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA326" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP326" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU326" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY326" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ326" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ326" s="1">
+        <v>1</v>
+      </c>
       <c r="DX326" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
-      <c r="B327" s="8"/>
+      <c r="A327" s="4">
+        <v>45415</v>
+      </c>
+      <c r="B327" s="8">
+        <v>245200</v>
+      </c>
+      <c r="O327" s="1">
+        <v>3</v>
+      </c>
+      <c r="S327" s="1">
+        <v>1</v>
+      </c>
+      <c r="X327" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE327" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA327" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB327" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE327" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN327" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS327" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY327" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ327" s="1">
+        <v>1</v>
+      </c>
       <c r="DX327" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="B328" s="8"/>
+      <c r="A328" s="4">
+        <v>45446</v>
+      </c>
+      <c r="B328" s="8">
+        <v>248800</v>
+      </c>
+      <c r="M328" s="1">
+        <v>2</v>
+      </c>
+      <c r="S328" s="1">
+        <v>1</v>
+      </c>
+      <c r="T328" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC328" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE328" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR328" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI328" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN328" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP328" s="1">
+        <v>1</v>
+      </c>
       <c r="DX328" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="4"/>
-      <c r="B329" s="8"/>
+      <c r="A329" s="4">
+        <v>45476</v>
+      </c>
+      <c r="B329" s="8">
+        <v>153000</v>
+      </c>
+      <c r="M329" s="1">
+        <v>1</v>
+      </c>
+      <c r="O329" s="1">
+        <v>1</v>
+      </c>
+      <c r="X329" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z329" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC329" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD329" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE329" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF329" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV329" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK329" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO329" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR329" s="1">
+        <v>1</v>
+      </c>
       <c r="DX329" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="4"/>
-      <c r="B330" s="8"/>
+      <c r="A330" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B330" s="8">
+        <v>0</v>
+      </c>
       <c r="DX330" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="4"/>
-      <c r="B331" s="8"/>
+      <c r="A331" s="4">
+        <v>45538</v>
+      </c>
+      <c r="B331" s="8">
+        <v>320350</v>
+      </c>
+      <c r="M331" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB331" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC331" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE331" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR331" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI331" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR331" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE331" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ331" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT331" s="1">
+        <v>1</v>
+      </c>
       <c r="DX331" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="4"/>
-      <c r="B332" s="8"/>
+      <c r="A332" s="4">
+        <v>45568</v>
+      </c>
+      <c r="B332" s="8">
+        <v>313600</v>
+      </c>
+      <c r="L332" s="1">
+        <v>1</v>
+      </c>
+      <c r="M332" s="1">
+        <v>1</v>
+      </c>
+      <c r="W332" s="1">
+        <v>1</v>
+      </c>
+      <c r="X332" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y332" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z332" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC332" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD332" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE332" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB332" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC332" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI332" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX332" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE332" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG332" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA332" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD332" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT332" s="1">
+        <v>1</v>
+      </c>
       <c r="DX332" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="4"/>
-      <c r="B333" s="8"/>
+      <c r="A333" s="4">
+        <v>45599</v>
+      </c>
+      <c r="B333" s="8">
+        <v>266400</v>
+      </c>
+      <c r="L333" s="1">
+        <v>1</v>
+      </c>
+      <c r="M333" s="1">
+        <v>3</v>
+      </c>
+      <c r="X333" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y333" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z333" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC333" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE333" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA333" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB333" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE333" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI333" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ333" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ333" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD333" s="1">
+        <v>1</v>
+      </c>
       <c r="DX333" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="4"/>
-      <c r="B334" s="8"/>
+      <c r="A334" s="4">
+        <v>45629</v>
+      </c>
+      <c r="B334" s="8">
+        <v>163700</v>
+      </c>
+      <c r="L334" s="1">
+        <v>1</v>
+      </c>
+      <c r="W334" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC334" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE334" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU334" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP334" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD334" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI334" s="1">
+        <v>1</v>
+      </c>
       <c r="DX334" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="3"/>
-      <c r="B335" s="8"/>
+      <c r="A335" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B335" s="8">
+        <v>215600</v>
+      </c>
+      <c r="O335" s="1">
+        <v>1</v>
+      </c>
+      <c r="P335" s="1">
+        <v>1</v>
+      </c>
+      <c r="S335" s="1">
+        <v>1</v>
+      </c>
+      <c r="W335" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y335" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC335" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD335" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE335" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK335" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD335" s="1">
+        <v>1</v>
+      </c>
       <c r="DX335" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3"/>
-      <c r="B336" s="8"/>
+      <c r="A336" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B336" s="8">
+        <v>147700</v>
+      </c>
+      <c r="M336" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q336" s="1">
+        <v>1</v>
+      </c>
+      <c r="X336" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC336" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR336" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP336" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW336" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX336" s="1">
+        <v>2</v>
+      </c>
       <c r="DX336" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="3"/>
-      <c r="B337" s="8"/>
+      <c r="A337" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B337" s="8">
+        <v>0</v>
+      </c>
       <c r="DX337" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="3"/>
-      <c r="B338" s="8"/>
-      <c r="DX338" s="1">
+    <row r="338" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B338" s="12"/>
+      <c r="DX338" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -11573,7 +12193,7 @@
       </c>
     </row>
     <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="4"/>
+      <c r="A354" s="3"/>
       <c r="B354" s="8"/>
       <c r="DX354" s="1">
         <f t="shared" si="5"/>
@@ -11669,8 +12289,8 @@
       </c>
     </row>
     <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="3"/>
-      <c r="B366" s="7"/>
+      <c r="A366" s="4"/>
+      <c r="B366" s="8"/>
       <c r="DX366" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11684,104 +12304,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B368" s="9"/>
+    <row r="368" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3"/>
+      <c r="B368" s="7"/>
       <c r="DX368" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B369" s="9"/>
       <c r="DX369" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX370" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX371" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX372" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX373" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX374" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX375" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX376" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX377" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX378" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX379" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX380" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX381" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX382" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX383" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX384" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11807,13 +12429,13 @@
     </row>
     <row r="388" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX388" s="1">
-        <f t="shared" ref="DX388:DX451" si="6">SUM(C388:DU388)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX389" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="DX389:DX452" si="6">SUM(C389:DU389)</f>
         <v>0</v>
       </c>
     </row>
@@ -12191,13 +12813,13 @@
     </row>
     <row r="452" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX452" s="1">
-        <f t="shared" ref="DX452:DX496" si="7">SUM(C452:DU452)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX453" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="DX453:DX497" si="7">SUM(C453:DU453)</f>
         <v>0</v>
       </c>
     </row>
@@ -12455,6 +13077,12 @@
     </row>
     <row r="496" spans="128:128" x14ac:dyDescent="0.3">
       <c r="DX496" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="128:128" x14ac:dyDescent="0.3">
+      <c r="DX497" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -1009,6 +1009,57 @@
   </si>
   <si>
     <t>16/3/2024</t>
+  </si>
+  <si>
+    <t>17/3/2024</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>19/3/2024</t>
+  </si>
+  <si>
+    <t>20/3/2024</t>
+  </si>
+  <si>
+    <t>21/3/2024</t>
+  </si>
+  <si>
+    <t>22/3/2024</t>
+  </si>
+  <si>
+    <t>23/3/2024</t>
+  </si>
+  <si>
+    <t>24/3/2024</t>
+  </si>
+  <si>
+    <t>25/3/2024</t>
+  </si>
+  <si>
+    <t>26/3/2024</t>
+  </si>
+  <si>
+    <t>27/3/2024</t>
+  </si>
+  <si>
+    <t>28/3/2024</t>
+  </si>
+  <si>
+    <t>29/3/2024</t>
+  </si>
+  <si>
+    <t>30/3/2024</t>
+  </si>
+  <si>
+    <t>31/3/2024</t>
+  </si>
+  <si>
+    <t>13/4/2024</t>
+  </si>
+  <si>
+    <t>14/4/2024</t>
   </si>
 </sst>
 </file>
@@ -1032,18 +1083,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1058,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,13 +1129,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,8 +1412,8 @@
   <dimension ref="A1:DX497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12062,243 +12100,997 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:128" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="11" t="s">
+    <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B338" s="12"/>
-      <c r="DX338" s="13">
+      <c r="B338" s="8">
+        <v>177100</v>
+      </c>
+      <c r="M338" s="1">
+        <v>3</v>
+      </c>
+      <c r="N338" s="1">
+        <v>1</v>
+      </c>
+      <c r="O338" s="1">
+        <v>2</v>
+      </c>
+      <c r="P338" s="1">
+        <v>1</v>
+      </c>
+      <c r="S338" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y338" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z338" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC338" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD338" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE338" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ338" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL338" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU338" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI338" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ338" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA338" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX338" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="3"/>
-      <c r="B339" s="8"/>
+      <c r="A339" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B339" s="8">
+        <v>157000</v>
+      </c>
+      <c r="M339" s="1">
+        <v>2</v>
+      </c>
+      <c r="O339" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE339" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR339" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV339" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI339" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK339" s="1">
+        <v>1</v>
+      </c>
       <c r="DX339" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="3"/>
-      <c r="B340" s="8"/>
+      <c r="A340" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B340" s="8">
+        <v>130300</v>
+      </c>
+      <c r="M340" s="1">
+        <v>3</v>
+      </c>
+      <c r="O340" s="1">
+        <v>1</v>
+      </c>
+      <c r="X340" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF340" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU340" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA340" s="1">
+        <v>1</v>
+      </c>
       <c r="DX340" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="3"/>
-      <c r="B341" s="8"/>
+      <c r="A341" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B341" s="8">
+        <v>102900</v>
+      </c>
+      <c r="M341" s="1">
+        <v>1</v>
+      </c>
+      <c r="S341" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE341" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF341" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ341" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA341" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR341" s="1">
+        <v>1</v>
+      </c>
       <c r="DX341" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3"/>
-      <c r="B342" s="8"/>
+      <c r="A342" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B342" s="8">
+        <v>218150</v>
+      </c>
+      <c r="M342" s="1">
+        <v>1</v>
+      </c>
+      <c r="U342" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC342" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH342" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU342" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ342" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA342" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM342" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP342" s="1">
+        <v>1</v>
+      </c>
       <c r="DX342" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="3"/>
-      <c r="B343" s="8"/>
+      <c r="A343" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B343" s="8">
+        <v>188500</v>
+      </c>
+      <c r="S343" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC343" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF343" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU343" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA343" s="1">
+        <v>1</v>
+      </c>
       <c r="DX343" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="3"/>
-      <c r="B344" s="8"/>
+      <c r="A344" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B344" s="8">
+        <v>10400</v>
+      </c>
+      <c r="O344" s="1">
+        <v>2</v>
+      </c>
+      <c r="W344" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB344" s="1">
+        <v>1</v>
+      </c>
       <c r="DX344" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="3"/>
-      <c r="B345" s="8"/>
+      <c r="A345" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B345" s="8">
+        <v>86700</v>
+      </c>
+      <c r="O345" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE345" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF345" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU345" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI345" s="1">
+        <v>1</v>
+      </c>
       <c r="DX345" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="3"/>
-      <c r="B346" s="8"/>
+      <c r="A346" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B346" s="8">
+        <v>55400</v>
+      </c>
+      <c r="AJ346" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA346" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN346" s="1">
+        <v>1</v>
+      </c>
       <c r="DX346" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="3"/>
-      <c r="B347" s="8"/>
+      <c r="A347" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B347" s="8">
+        <v>109750</v>
+      </c>
+      <c r="M347" s="1">
+        <v>2</v>
+      </c>
+      <c r="X347" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX347" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP347" s="1">
+        <v>1</v>
+      </c>
       <c r="DX347" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="3"/>
-      <c r="B348" s="8"/>
+      <c r="A348" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B348" s="8">
+        <v>41600</v>
+      </c>
+      <c r="O348" s="1">
+        <v>8</v>
+      </c>
+      <c r="S348" s="1">
+        <v>1</v>
+      </c>
+      <c r="W348" s="1">
+        <v>1</v>
+      </c>
+      <c r="X348" s="1">
+        <v>1</v>
+      </c>
       <c r="DX348" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="3"/>
-      <c r="B349" s="8"/>
+      <c r="A349" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B349" s="8">
+        <v>128050</v>
+      </c>
+      <c r="I349" s="1">
+        <v>1</v>
+      </c>
+      <c r="X349" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE349" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL349" s="1">
+        <v>1</v>
+      </c>
       <c r="DX349" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="3"/>
-      <c r="B350" s="8"/>
+      <c r="A350" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B350" s="8">
+        <v>169600</v>
+      </c>
+      <c r="M350" s="1">
+        <v>3</v>
+      </c>
+      <c r="O350" s="1">
+        <v>1</v>
+      </c>
+      <c r="S350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH350" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ350" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP350" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD350" s="1">
+        <v>1</v>
+      </c>
       <c r="DX350" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="3"/>
-      <c r="B351" s="8"/>
+      <c r="A351" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B351" s="8">
+        <v>73300</v>
+      </c>
+      <c r="N351" s="1">
+        <v>1</v>
+      </c>
+      <c r="O351" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU351" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ351" s="1">
+        <v>1</v>
+      </c>
       <c r="DX351" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="3"/>
-      <c r="B352" s="8"/>
+      <c r="A352" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B352" s="8">
+        <v>149700</v>
+      </c>
+      <c r="K352" s="1">
+        <v>1</v>
+      </c>
+      <c r="L352" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC352" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA352" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI352" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK352" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV352" s="1">
+        <v>1</v>
+      </c>
       <c r="DX352" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="3"/>
-      <c r="B353" s="8"/>
+      <c r="A353" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B353" s="8">
+        <v>249000</v>
+      </c>
+      <c r="O353" s="1">
+        <v>1</v>
+      </c>
+      <c r="S353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO353" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA353" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI353" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF353" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB353" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD353" s="1">
+        <v>1</v>
+      </c>
       <c r="DX353" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3"/>
-      <c r="B354" s="8"/>
+      <c r="A354" s="4">
+        <v>45295</v>
+      </c>
+      <c r="B354" s="8">
+        <v>150800</v>
+      </c>
+      <c r="M354" s="1">
+        <v>6</v>
+      </c>
+      <c r="P354" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y354" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN354" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN354" s="1">
+        <v>1</v>
+      </c>
       <c r="DX354" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="B355" s="8"/>
+      <c r="A355" s="4">
+        <v>45326</v>
+      </c>
+      <c r="B355" s="8">
+        <v>132400</v>
+      </c>
+      <c r="L355" s="1">
+        <v>2</v>
+      </c>
+      <c r="M355" s="1">
+        <v>3</v>
+      </c>
+      <c r="O355" s="1">
+        <v>3</v>
+      </c>
+      <c r="S355" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC355" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN355" s="1">
+        <v>1</v>
+      </c>
       <c r="DX355" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
-      <c r="B356" s="8"/>
+      <c r="A356" s="4">
+        <v>45355</v>
+      </c>
+      <c r="B356" s="8">
+        <v>287300</v>
+      </c>
+      <c r="K356" s="1">
+        <v>2</v>
+      </c>
+      <c r="L356" s="1">
+        <v>2</v>
+      </c>
+      <c r="M356" s="1">
+        <v>9</v>
+      </c>
+      <c r="O356" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC356" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD356" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY356" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV356" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP356" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD356" s="1">
+        <v>2</v>
+      </c>
       <c r="DX356" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="357" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
-      <c r="B357" s="8"/>
+      <c r="A357" s="4">
+        <v>45386</v>
+      </c>
+      <c r="B357" s="8">
+        <v>228750</v>
+      </c>
+      <c r="L357" s="1">
+        <v>5</v>
+      </c>
+      <c r="M357" s="1">
+        <v>16</v>
+      </c>
+      <c r="N357" s="1">
+        <v>1</v>
+      </c>
+      <c r="O357" s="1">
+        <v>2</v>
+      </c>
+      <c r="S357" s="1">
+        <v>1</v>
+      </c>
+      <c r="X357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI357" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB357" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW357" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW357" s="1">
+        <v>1</v>
+      </c>
       <c r="DX357" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="358" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-      <c r="B358" s="8"/>
+      <c r="A358" s="4">
+        <v>45416</v>
+      </c>
+      <c r="B358" s="8">
+        <v>176650</v>
+      </c>
+      <c r="L358" s="1">
+        <v>1</v>
+      </c>
+      <c r="M358" s="1">
+        <v>9</v>
+      </c>
+      <c r="N358" s="1">
+        <v>1</v>
+      </c>
+      <c r="O358" s="1">
+        <v>3</v>
+      </c>
+      <c r="S358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY358" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY358" s="1">
+        <v>1</v>
+      </c>
       <c r="DX358" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="4"/>
-      <c r="B359" s="8"/>
+      <c r="A359" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B359" s="8">
+        <v>277500</v>
+      </c>
+      <c r="L359" s="1">
+        <v>2</v>
+      </c>
+      <c r="M359" s="1">
+        <v>23</v>
+      </c>
+      <c r="N359" s="1">
+        <v>2</v>
+      </c>
+      <c r="O359" s="1">
+        <v>2</v>
+      </c>
+      <c r="S359" s="1">
+        <v>1</v>
+      </c>
+      <c r="W359" s="1">
+        <v>1</v>
+      </c>
+      <c r="X359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ359" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA359" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI359" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN359" s="1">
+        <v>1</v>
+      </c>
       <c r="DX359" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="360" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="4"/>
-      <c r="B360" s="8"/>
+      <c r="A360" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B360" s="8">
+        <v>319100</v>
+      </c>
+      <c r="M360" s="1">
+        <v>7</v>
+      </c>
+      <c r="N360" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE360" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR360" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA360" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK360" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF360" s="1">
+        <v>1</v>
+      </c>
       <c r="DX360" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="4"/>
-      <c r="B361" s="8"/>
+      <c r="A361" s="4">
+        <v>45508</v>
+      </c>
+      <c r="B361" s="8">
+        <v>327900</v>
+      </c>
+      <c r="L361" s="1">
+        <v>1</v>
+      </c>
+      <c r="M361" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV361" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK361" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN361" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD361" s="1">
+        <v>1</v>
+      </c>
       <c r="DX361" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="4"/>
-      <c r="B362" s="8"/>
+      <c r="A362" s="4">
+        <v>45539</v>
+      </c>
+      <c r="B362" s="8">
+        <v>507500</v>
+      </c>
+      <c r="L362" s="1">
+        <v>2</v>
+      </c>
+      <c r="M362" s="1">
+        <v>4</v>
+      </c>
+      <c r="O362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU362" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI362" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ362" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK362" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP362" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX362" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC362" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ362" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN362" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD362" s="1">
+        <v>1</v>
+      </c>
       <c r="DX362" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="4"/>
-      <c r="B363" s="8"/>
+      <c r="A363" s="4">
+        <v>45569</v>
+      </c>
+      <c r="B363" s="8">
+        <v>268600</v>
+      </c>
+      <c r="M363" s="1">
+        <v>5</v>
+      </c>
+      <c r="O363" s="1">
+        <v>2</v>
+      </c>
+      <c r="X363" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY363" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI363" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ363" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV363" s="1">
+        <v>1</v>
+      </c>
       <c r="DX363" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="4"/>
-      <c r="B364" s="8"/>
+      <c r="A364" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B364" s="8">
+        <v>73500</v>
+      </c>
+      <c r="M364" s="1">
+        <v>2</v>
+      </c>
+      <c r="O364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU364" s="1">
+        <v>1</v>
+      </c>
       <c r="DX364" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4"/>
-      <c r="B365" s="8"/>
+      <c r="A365" s="4">
+        <v>45630</v>
+      </c>
+      <c r="B365" s="8">
+        <v>0</v>
+      </c>
       <c r="DX365" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
-      <c r="B366" s="8"/>
+      <c r="A366" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B366" s="8">
+        <v>208800</v>
+      </c>
+      <c r="M366" s="1">
+        <v>6</v>
+      </c>
+      <c r="S366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR366" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI366" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ366" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO366" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ366" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU366" s="1">
+        <v>1</v>
+      </c>
       <c r="DX366" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="3"/>
-      <c r="B367" s="7"/>
+      <c r="A367" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B367" s="7">
+        <v>0</v>
+      </c>
       <c r="DX367" s="1">
         <f t="shared" si="5"/>
         <v>0</v>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -1060,22 +1060,62 @@
   </si>
   <si>
     <t>14/4/2024</t>
+  </si>
+  <si>
+    <t>15/4/2024</t>
+  </si>
+  <si>
+    <t>16/4/2024</t>
+  </si>
+  <si>
+    <t>17/4/2024</t>
+  </si>
+  <si>
+    <t>18/4/2024</t>
+  </si>
+  <si>
+    <t>19/4/2024</t>
+  </si>
+  <si>
+    <t>20/4/2024</t>
+  </si>
+  <si>
+    <t>21/4/2024</t>
+  </si>
+  <si>
+    <t>22/4/2024</t>
+  </si>
+  <si>
+    <t>23/4/2024</t>
+  </si>
+  <si>
+    <t>24/4/2024</t>
+  </si>
+  <si>
+    <t>25/4/2024</t>
+  </si>
+  <si>
+    <t>26/4/2024</t>
+  </si>
+  <si>
+    <t>27/4/2024</t>
+  </si>
+  <si>
+    <t>28/4/2024</t>
+  </si>
+  <si>
+    <t>29/4/2024</t>
+  </si>
+  <si>
+    <t>30/4/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1103,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1125,10 +1165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,8 +1456,8 @@
   <dimension ref="A1:DX497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1509,9 @@
     <col min="57" max="58" width="9.44140625" customWidth="1"/>
     <col min="59" max="71" width="11" customWidth="1"/>
     <col min="72" max="72" width="9.5546875" customWidth="1"/>
-    <col min="73" max="77" width="11" customWidth="1"/>
+    <col min="73" max="75" width="11" customWidth="1"/>
+    <col min="76" max="76" width="9.33203125" customWidth="1"/>
+    <col min="77" max="77" width="11" customWidth="1"/>
     <col min="78" max="78" width="10.44140625" customWidth="1"/>
     <col min="79" max="80" width="11" customWidth="1"/>
     <col min="81" max="83" width="9.88671875" customWidth="1"/>
@@ -1493,10 +1539,13 @@
     <col min="115" max="115" width="10.33203125" customWidth="1"/>
     <col min="116" max="116" width="12.109375" customWidth="1"/>
     <col min="117" max="117" width="9.33203125" customWidth="1"/>
-    <col min="118" max="121" width="12.6640625" customWidth="1"/>
+    <col min="118" max="119" width="12.6640625" customWidth="1"/>
+    <col min="120" max="120" width="9.33203125" customWidth="1"/>
+    <col min="121" max="121" width="10.109375" customWidth="1"/>
     <col min="122" max="122" width="10.5546875" customWidth="1"/>
     <col min="123" max="123" width="8.6640625" customWidth="1"/>
-    <col min="124" max="126" width="9.6640625" customWidth="1"/>
+    <col min="124" max="124" width="8.109375" customWidth="1"/>
+    <col min="125" max="126" width="9.6640625" customWidth="1"/>
     <col min="128" max="128" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -1923,8 +1972,8 @@
       <c r="CN2" s="1">
         <v>2</v>
       </c>
-      <c r="DI2" s="10"/>
-      <c r="DJ2" s="10"/>
+      <c r="DI2" s="9"/>
+      <c r="DJ2" s="9"/>
       <c r="DX2" s="1">
         <f>SUM(C2:DU2)</f>
         <v>18</v>
@@ -13097,393 +13146,993 @@
       </c>
     </row>
     <row r="368" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3"/>
-      <c r="B368" s="7"/>
+      <c r="A368" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B368" s="7">
+        <v>258650</v>
+      </c>
+      <c r="M368" s="1">
+        <v>6</v>
+      </c>
+      <c r="N368" s="1">
+        <v>4</v>
+      </c>
+      <c r="O368" s="1">
+        <v>2</v>
+      </c>
+      <c r="P368" s="1">
+        <v>1</v>
+      </c>
+      <c r="S368" s="1">
+        <v>1</v>
+      </c>
+      <c r="T368" s="1">
+        <v>1</v>
+      </c>
+      <c r="X368" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA368" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE368" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI368" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV368" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO368" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ368" s="1">
+        <v>1</v>
+      </c>
       <c r="DX368" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B369" s="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B369" s="10">
+        <v>216170</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1</v>
+      </c>
+      <c r="L369" s="1">
+        <v>1</v>
+      </c>
+      <c r="M369" s="1">
+        <v>5</v>
+      </c>
+      <c r="N369" s="1">
+        <v>2</v>
+      </c>
+      <c r="O369" s="1">
+        <v>2</v>
+      </c>
+      <c r="P369" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM369" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR369" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ369" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP369" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA369" s="1">
+        <v>1</v>
+      </c>
       <c r="DX369" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="2:128" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="370" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B370" s="7">
+        <v>235800</v>
+      </c>
+      <c r="L370" s="1">
+        <v>2</v>
+      </c>
+      <c r="N370" s="1">
+        <v>1</v>
+      </c>
+      <c r="O370" s="1">
+        <v>1</v>
+      </c>
+      <c r="S370" s="1">
+        <v>1</v>
+      </c>
+      <c r="U370" s="1">
+        <v>1</v>
+      </c>
+      <c r="W370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC370" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN370" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE370" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP370" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW370" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR370" s="1">
+        <v>1</v>
+      </c>
       <c r="DX370" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="2:128" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B371" s="7">
+        <v>233000</v>
+      </c>
+      <c r="M371" s="1">
+        <v>1</v>
+      </c>
+      <c r="N371" s="1">
+        <v>1</v>
+      </c>
+      <c r="O371" s="1">
+        <v>1</v>
+      </c>
+      <c r="P371" s="1">
+        <v>1</v>
+      </c>
+      <c r="W371" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL371" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA371" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB371" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA371" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ371" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT371" s="1">
+        <v>1</v>
+      </c>
       <c r="DX371" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="2:128" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B372" s="7">
+        <v>0</v>
+      </c>
       <c r="DX372" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="2:128" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B373" s="7">
+        <v>209900</v>
+      </c>
+      <c r="L373" s="1">
+        <v>8</v>
+      </c>
+      <c r="M373" s="1">
+        <v>6</v>
+      </c>
+      <c r="O373" s="1">
+        <v>1</v>
+      </c>
+      <c r="U373" s="1">
+        <v>1</v>
+      </c>
+      <c r="X373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE373" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM373" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ373" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX373" s="1">
+        <v>1</v>
+      </c>
       <c r="DX373" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="2:128" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B374" s="7">
+        <v>234900</v>
+      </c>
+      <c r="L374" s="1">
+        <v>1</v>
+      </c>
+      <c r="M374" s="1">
+        <v>7</v>
+      </c>
+      <c r="N374" s="1">
+        <v>2</v>
+      </c>
+      <c r="P374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB374" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU374" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB374" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI374" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP374" s="1">
+        <v>1</v>
+      </c>
       <c r="DX374" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="2:128" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B375" s="7">
+        <v>290400</v>
+      </c>
+      <c r="L375" s="1">
+        <v>1</v>
+      </c>
+      <c r="M375" s="1">
+        <v>8</v>
+      </c>
+      <c r="N375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF375" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH375" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ375" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI375" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO375" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ375" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR375" s="1">
+        <v>2</v>
+      </c>
       <c r="DX375" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="2:128" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B376" s="7">
+        <v>271800</v>
+      </c>
+      <c r="L376" s="1">
+        <v>2</v>
+      </c>
+      <c r="M376" s="1">
+        <v>3</v>
+      </c>
+      <c r="N376" s="1">
+        <v>4</v>
+      </c>
+      <c r="P376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU376" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI376" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV376" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ376" s="1">
+        <v>1</v>
+      </c>
       <c r="DX376" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="2:128" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B377" s="7">
+        <v>336100</v>
+      </c>
+      <c r="L377" s="1">
+        <v>2</v>
+      </c>
+      <c r="M377" s="1">
+        <v>8</v>
+      </c>
+      <c r="O377" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ377" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ377" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA377" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ377" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC377" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF377" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT377" s="1">
+        <v>1</v>
+      </c>
       <c r="DX377" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="2:128" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B378" s="7">
+        <v>320400</v>
+      </c>
+      <c r="L378" s="1">
+        <v>2</v>
+      </c>
+      <c r="M378" s="1">
+        <v>6</v>
+      </c>
+      <c r="N378" s="1">
+        <v>4</v>
+      </c>
+      <c r="T378" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR378" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA378" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA378" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF378" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD378" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE378" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK378" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL378" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ378" s="1">
+        <v>1</v>
+      </c>
       <c r="DX378" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="2:128" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B379" s="11">
+        <v>0</v>
+      </c>
       <c r="DX379" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:128" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B380" s="7">
+        <v>582650</v>
+      </c>
+      <c r="L380" s="1">
+        <v>3</v>
+      </c>
+      <c r="M380" s="1">
+        <v>11</v>
+      </c>
+      <c r="N380" s="1">
+        <v>2</v>
+      </c>
+      <c r="O380" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE380" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF380" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR380" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX380" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP380" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ380" s="1">
+        <v>4</v>
+      </c>
+      <c r="DT380" s="12">
+        <v>1</v>
+      </c>
       <c r="DX380" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="2:128" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="381" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B381" s="7">
+        <v>367700</v>
+      </c>
+      <c r="L381" s="1">
+        <v>2</v>
+      </c>
+      <c r="M381" s="1">
+        <v>20</v>
+      </c>
+      <c r="N381" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR381" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB381" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI381" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW381" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX381" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ381" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR381" s="1">
+        <v>1</v>
+      </c>
       <c r="DX381" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="2:128" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="382" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B382" s="7">
+        <v>451000</v>
+      </c>
+      <c r="L382" s="1">
+        <v>5</v>
+      </c>
+      <c r="M382" s="1">
+        <v>25</v>
+      </c>
+      <c r="O382" s="1">
+        <v>2</v>
+      </c>
+      <c r="X382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD382" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE382" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI382" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX382" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN382" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT382" s="1">
+        <v>1</v>
+      </c>
       <c r="DX382" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="2:128" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B383" s="7">
+        <v>496000</v>
+      </c>
+      <c r="L383" s="1">
+        <v>11</v>
+      </c>
+      <c r="M383" s="1">
+        <v>38</v>
+      </c>
+      <c r="N383" s="1">
+        <v>1</v>
+      </c>
+      <c r="O383" s="1">
+        <v>1</v>
+      </c>
+      <c r="W383" s="1">
+        <v>2</v>
+      </c>
+      <c r="X383" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR383" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU383" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV383" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI383" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP383" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE383" s="1">
+        <v>1</v>
+      </c>
       <c r="DX383" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="2:128" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:128" x14ac:dyDescent="0.3">
+      <c r="B384" s="11"/>
       <c r="DX384" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B385" s="11"/>
       <c r="DX385" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B386" s="11"/>
       <c r="DX386" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B387" s="11"/>
       <c r="DX387" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B388" s="11"/>
       <c r="DX388" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B389" s="11"/>
       <c r="DX389" s="1">
         <f t="shared" ref="DX389:DX452" si="6">SUM(C389:DU389)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B390" s="11"/>
       <c r="DX390" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B391" s="11"/>
       <c r="DX391" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B392" s="11"/>
       <c r="DX392" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B393" s="11"/>
       <c r="DX393" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B394" s="11"/>
       <c r="DX394" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B395" s="11"/>
       <c r="DX395" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B396" s="11"/>
       <c r="DX396" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B397" s="11"/>
       <c r="DX397" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B398" s="11"/>
       <c r="DX398" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B399" s="11"/>
       <c r="DX399" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B400" s="11"/>
       <c r="DX400" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B401" s="11"/>
       <c r="DX401" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B402" s="11"/>
       <c r="DX402" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B403" s="11"/>
       <c r="DX403" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B404" s="11"/>
       <c r="DX404" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B405" s="11"/>
       <c r="DX405" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B406" s="11"/>
       <c r="DX406" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B407" s="11"/>
       <c r="DX407" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B408" s="11"/>
       <c r="DX408" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B409" s="11"/>
       <c r="DX409" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B410" s="11"/>
       <c r="DX410" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B411" s="11"/>
       <c r="DX411" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B412" s="11"/>
       <c r="DX412" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B413" s="11"/>
       <c r="DX413" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B414" s="11"/>
       <c r="DX414" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B415" s="11"/>
       <c r="DX415" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B416" s="11"/>
       <c r="DX416" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B417" s="11"/>
       <c r="DX417" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B418" s="11"/>
       <c r="DX418" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:128" x14ac:dyDescent="0.3">
+      <c r="B419" s="11"/>
       <c r="DX419" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX420" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX423" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX424" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX425" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX426" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX427" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX428" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX429" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX430" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX431" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="128:128" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:128" x14ac:dyDescent="0.3">
       <c r="DX432" s="1">
         <f t="shared" si="6"/>
         <v>0</v>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -1108,6 +1108,12 @@
   </si>
   <si>
     <t>30/4/2024</t>
+  </si>
+  <si>
+    <t>13/4/2022</t>
+  </si>
+  <si>
+    <t>14/4/2022</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1173,6 +1179,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,8 +1465,8 @@
   <dimension ref="A1:DX497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A384" sqref="A384"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A397" sqref="A397:XFD397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13809,118 +13818,569 @@
       </c>
     </row>
     <row r="384" spans="1:128" x14ac:dyDescent="0.3">
-      <c r="B384" s="11"/>
+      <c r="A384" s="13">
+        <v>44565</v>
+      </c>
+      <c r="B384" s="11">
+        <v>0</v>
+      </c>
       <c r="DX384" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B385" s="11"/>
+    <row r="385" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="4">
+        <v>44596</v>
+      </c>
+      <c r="B385" s="7">
+        <v>239400</v>
+      </c>
+      <c r="L385" s="1">
+        <v>1</v>
+      </c>
+      <c r="S385" s="1">
+        <v>1</v>
+      </c>
+      <c r="X385" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD385" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU385" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ385" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI385" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT385" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW385" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI385" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT385" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG385" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS385" s="1">
+        <v>1</v>
+      </c>
       <c r="DX385" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B386" s="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B386" s="7">
+        <v>274140</v>
+      </c>
+      <c r="L386" s="1">
+        <v>1</v>
+      </c>
+      <c r="T386" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD386" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU386" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO386" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU386" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW386" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ386" s="1">
+        <v>1</v>
+      </c>
       <c r="DX386" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B387" s="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="4">
+        <v>44655</v>
+      </c>
+      <c r="B387" s="7">
+        <v>177000</v>
+      </c>
+      <c r="M387" s="1">
+        <v>1</v>
+      </c>
+      <c r="N387" s="1">
+        <v>1</v>
+      </c>
+      <c r="O387" s="1">
+        <v>2</v>
+      </c>
+      <c r="S387" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC387" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE387" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF387" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ387" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC387" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD387" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT387" s="1">
+        <v>1</v>
+      </c>
       <c r="DX387" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B388" s="11"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="4">
+        <v>44685</v>
+      </c>
+      <c r="B388" s="7">
+        <v>106000</v>
+      </c>
+      <c r="D388" s="1">
+        <v>1</v>
+      </c>
+      <c r="M388" s="1">
+        <v>1</v>
+      </c>
+      <c r="O388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE388" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA388" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR388" s="1">
+        <v>1</v>
+      </c>
       <c r="DX388" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B389" s="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="4">
+        <v>44716</v>
+      </c>
+      <c r="B389" s="7">
+        <v>77650</v>
+      </c>
+      <c r="K389" s="1">
+        <v>1</v>
+      </c>
+      <c r="L389" s="1">
+        <v>2</v>
+      </c>
+      <c r="M389" s="1">
+        <v>6</v>
+      </c>
+      <c r="N389" s="1">
+        <v>1</v>
+      </c>
+      <c r="O389" s="1">
+        <v>1</v>
+      </c>
+      <c r="S389" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK389" s="1">
+        <v>1</v>
+      </c>
       <c r="DX389" s="1">
         <f t="shared" ref="DX389:DX452" si="6">SUM(C389:DU389)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B390" s="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="4">
+        <v>44746</v>
+      </c>
+      <c r="B390" s="7">
+        <v>89400</v>
+      </c>
+      <c r="L390" s="1">
+        <v>1</v>
+      </c>
+      <c r="M390" s="1">
+        <v>3</v>
+      </c>
+      <c r="N390" s="1">
+        <v>2</v>
+      </c>
+      <c r="O390" s="1">
+        <v>1</v>
+      </c>
+      <c r="X390" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA390" s="1">
+        <v>2</v>
+      </c>
       <c r="DX390" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B391" s="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="4">
+        <v>44777</v>
+      </c>
+      <c r="B391" s="7">
+        <v>45600</v>
+      </c>
+      <c r="K391" s="1">
+        <v>1</v>
+      </c>
+      <c r="M391" s="1">
+        <v>2</v>
+      </c>
+      <c r="N391" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC391" s="1">
+        <v>1</v>
+      </c>
       <c r="DX391" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B392" s="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="4">
+        <v>44808</v>
+      </c>
+      <c r="B392" s="7">
+        <v>218250</v>
+      </c>
+      <c r="K392" s="1">
+        <v>3</v>
+      </c>
+      <c r="L392" s="1">
+        <v>5</v>
+      </c>
+      <c r="M392" s="1">
+        <v>6</v>
+      </c>
+      <c r="N392" s="1">
+        <v>1</v>
+      </c>
+      <c r="O392" s="1">
+        <v>1</v>
+      </c>
+      <c r="X392" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA392" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC392" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD392" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE392" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA392" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM392" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP392" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT392" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK392" s="1">
+        <v>1</v>
+      </c>
       <c r="DX392" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B393" s="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="393" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="4">
+        <v>44838</v>
+      </c>
+      <c r="B393" s="7">
+        <v>79450</v>
+      </c>
+      <c r="K393" s="1">
+        <v>1</v>
+      </c>
+      <c r="L393" s="1">
+        <v>1</v>
+      </c>
+      <c r="M393" s="1">
+        <v>3</v>
+      </c>
+      <c r="N393" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE393" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF393" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR393" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT393" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA393" s="1">
+        <v>1</v>
+      </c>
       <c r="DX393" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B394" s="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="4">
+        <v>44869</v>
+      </c>
+      <c r="B394" s="7">
+        <v>220900</v>
+      </c>
+      <c r="L394" s="1">
+        <v>1</v>
+      </c>
+      <c r="M394" s="1">
+        <v>1</v>
+      </c>
+      <c r="O394" s="1">
+        <v>1</v>
+      </c>
+      <c r="W394" s="1">
+        <v>1</v>
+      </c>
+      <c r="X394" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ394" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR394" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC394" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU394" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW394" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM394" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP394" s="1">
+        <v>1</v>
+      </c>
       <c r="DX394" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B395" s="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="4">
+        <v>44899</v>
+      </c>
+      <c r="B395" s="7">
+        <v>180100</v>
+      </c>
+      <c r="L395" s="1">
+        <v>2</v>
+      </c>
+      <c r="M395" s="1">
+        <v>4</v>
+      </c>
+      <c r="X395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI395" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN395" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ395" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX395" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI395" s="1">
+        <v>1</v>
+      </c>
       <c r="DX395" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B396" s="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B396" s="7">
+        <v>360300</v>
+      </c>
+      <c r="L396" s="1">
+        <v>1</v>
+      </c>
+      <c r="M396" s="1">
+        <v>5</v>
+      </c>
+      <c r="X396" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD396" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR396" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY396" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA396" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI396" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN396" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX396" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP396" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ396" s="1">
+        <v>2</v>
+      </c>
       <c r="DX396" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="B397" s="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B397" s="7">
+        <v>58750</v>
+      </c>
+      <c r="L397" s="1">
+        <v>2</v>
+      </c>
+      <c r="M397" s="1">
+        <v>3</v>
+      </c>
+      <c r="P397" s="1">
+        <v>1</v>
+      </c>
+      <c r="X397" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE397" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX397" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ397" s="1">
+        <v>1</v>
+      </c>
       <c r="DX397" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="2:128" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B398" s="11"/>
       <c r="DX398" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:128" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B399" s="11"/>
       <c r="DX399" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:128" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B400" s="11"/>
       <c r="DX400" s="1">
         <f t="shared" si="6"/>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -1466,7 +1466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397:XFD397"/>
+      <selection pane="bottomLeft" activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -1462,11 +1462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX497"/>
+  <dimension ref="A1:DU419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397"/>
+    <sheetView tabSelected="1" topLeftCell="DO1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="EA7" sqref="EA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,11 +1554,10 @@
     <col min="122" max="122" width="10.5546875" customWidth="1"/>
     <col min="123" max="123" width="8.6640625" customWidth="1"/>
     <col min="124" max="124" width="8.109375" customWidth="1"/>
-    <col min="125" max="126" width="9.6640625" customWidth="1"/>
-    <col min="128" max="128" width="9.109375" style="1"/>
+    <col min="125" max="125" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -1983,12 +1982,8 @@
       </c>
       <c r="DI2" s="9"/>
       <c r="DJ2" s="9"/>
-      <c r="DX2" s="1">
-        <f>SUM(C2:DU2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -2046,12 +2041,8 @@
       <c r="DQ3" s="1">
         <v>3</v>
       </c>
-      <c r="DX3" s="1">
-        <f t="shared" ref="DX3:DX66" si="0">SUM(C3:DU3)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
@@ -2100,12 +2091,8 @@
       <c r="DT4" s="1">
         <v>1</v>
       </c>
-      <c r="DX4" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>128</v>
       </c>
@@ -2157,12 +2144,8 @@
       <c r="BQ5" s="1">
         <v>2</v>
       </c>
-      <c r="DX5" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
@@ -2214,12 +2197,8 @@
       <c r="DR6" s="1">
         <v>2</v>
       </c>
-      <c r="DX6" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -2262,12 +2241,8 @@
       <c r="CF7" s="1">
         <v>1</v>
       </c>
-      <c r="DX7" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -2304,12 +2279,8 @@
       <c r="BX8" s="1">
         <v>1</v>
       </c>
-      <c r="DX8" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
@@ -2331,12 +2302,8 @@
       <c r="CF9" s="1">
         <v>1</v>
       </c>
-      <c r="DX9" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -2358,12 +2325,8 @@
       <c r="BA10" s="1">
         <v>1</v>
       </c>
-      <c r="DX10" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
@@ -2391,12 +2354,8 @@
       <c r="BI11" s="1">
         <v>1</v>
       </c>
-      <c r="DX11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -2451,12 +2410,8 @@
       <c r="DR12" s="1">
         <v>1</v>
       </c>
-      <c r="DX12" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>136</v>
       </c>
@@ -2481,12 +2436,8 @@
       <c r="DL13" s="1">
         <v>1</v>
       </c>
-      <c r="DX13" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>137</v>
       </c>
@@ -2517,12 +2468,8 @@
       <c r="CR14" s="1">
         <v>1</v>
       </c>
-      <c r="DX14" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>138</v>
       </c>
@@ -2547,12 +2494,8 @@
       <c r="BE15" s="1">
         <v>1</v>
       </c>
-      <c r="DX15" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>139</v>
       </c>
@@ -2598,12 +2541,8 @@
       <c r="DL16" s="1">
         <v>1</v>
       </c>
-      <c r="DX16" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>140</v>
       </c>
@@ -2628,12 +2567,8 @@
       <c r="AE17" s="1">
         <v>1</v>
       </c>
-      <c r="DX17" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44931</v>
       </c>
@@ -2649,12 +2584,8 @@
       <c r="AR18" s="1">
         <v>1</v>
       </c>
-      <c r="DX18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44962</v>
       </c>
@@ -2685,12 +2616,8 @@
       <c r="CS19" s="1">
         <v>1</v>
       </c>
-      <c r="DX19" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44990</v>
       </c>
@@ -2727,12 +2654,8 @@
       <c r="CP20" s="1">
         <v>1</v>
       </c>
-      <c r="DX20" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45021</v>
       </c>
@@ -2763,24 +2686,16 @@
       <c r="DN21" s="1">
         <v>1</v>
       </c>
-      <c r="DX21" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45051</v>
       </c>
       <c r="B22" s="8">
         <v>0</v>
       </c>
-      <c r="DX22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45082</v>
       </c>
@@ -2808,12 +2723,8 @@
       <c r="CY23" s="1">
         <v>1</v>
       </c>
-      <c r="DX23" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45112</v>
       </c>
@@ -2832,12 +2743,8 @@
       <c r="DQ24" s="1">
         <v>1</v>
       </c>
-      <c r="DX24" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45143</v>
       </c>
@@ -2871,12 +2778,8 @@
       <c r="CV25" s="1">
         <v>1</v>
       </c>
-      <c r="DX25" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45174</v>
       </c>
@@ -2904,12 +2807,8 @@
       <c r="DQ26" s="1">
         <v>1</v>
       </c>
-      <c r="DX26" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45204</v>
       </c>
@@ -2940,12 +2839,8 @@
       <c r="DQ27" s="1">
         <v>1</v>
       </c>
-      <c r="DX27" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45235</v>
       </c>
@@ -2979,24 +2874,16 @@
       <c r="DQ28" s="1">
         <v>1</v>
       </c>
-      <c r="DX28" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45265</v>
       </c>
       <c r="B29" s="8">
         <v>0</v>
       </c>
-      <c r="DX29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
@@ -3039,12 +2926,8 @@
       <c r="CE30" s="1">
         <v>1</v>
       </c>
-      <c r="DX30" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
@@ -3096,12 +2979,8 @@
       <c r="DT31" s="1">
         <v>1</v>
       </c>
-      <c r="DX31" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
@@ -3123,12 +3002,8 @@
       <c r="BU32" s="1">
         <v>1</v>
       </c>
-      <c r="DX32" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>144</v>
       </c>
@@ -3162,12 +3037,8 @@
       <c r="BQ33" s="1">
         <v>1</v>
       </c>
-      <c r="DX33" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
@@ -3198,12 +3069,8 @@
       <c r="CV34" s="1">
         <v>1</v>
       </c>
-      <c r="DX34" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
@@ -3258,24 +3125,16 @@
       <c r="DD35" s="1">
         <v>1</v>
       </c>
-      <c r="DX35" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B36" s="8">
         <v>0</v>
       </c>
-      <c r="DX36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
@@ -3297,12 +3156,8 @@
       <c r="BT37" s="1">
         <v>1</v>
       </c>
-      <c r="DX37" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>149</v>
       </c>
@@ -3324,12 +3179,8 @@
       <c r="BV38" s="1">
         <v>1</v>
       </c>
-      <c r="DX38" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
@@ -3357,12 +3208,8 @@
       <c r="CJ39" s="1">
         <v>1</v>
       </c>
-      <c r="DX39" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
@@ -3384,12 +3231,8 @@
       <c r="AK40" s="1">
         <v>1</v>
       </c>
-      <c r="DX40" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -3408,12 +3251,8 @@
       <c r="AU41" s="1">
         <v>1</v>
       </c>
-      <c r="DX41" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
@@ -3435,24 +3274,16 @@
       <c r="CF42" s="1">
         <v>1</v>
       </c>
-      <c r="DX42" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B43" s="8">
         <v>0</v>
       </c>
-      <c r="DX43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
@@ -3480,12 +3311,8 @@
       <c r="CA44" s="1">
         <v>1</v>
       </c>
-      <c r="DX44" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
@@ -3522,12 +3349,8 @@
       <c r="BX45" s="1">
         <v>1</v>
       </c>
-      <c r="DX45" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
@@ -3558,12 +3381,8 @@
       <c r="BQ46" s="1">
         <v>1</v>
       </c>
-      <c r="DX46" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
@@ -3594,12 +3413,8 @@
       <c r="AU47" s="1">
         <v>2</v>
       </c>
-      <c r="DX47" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
@@ -3639,12 +3454,8 @@
       <c r="CN48" s="1">
         <v>1</v>
       </c>
-      <c r="DX48" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44932</v>
       </c>
@@ -3690,24 +3501,16 @@
       <c r="DS49" s="1">
         <v>1</v>
       </c>
-      <c r="DX49" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44963</v>
       </c>
       <c r="B50" s="8">
         <v>0</v>
       </c>
-      <c r="DX50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>44991</v>
       </c>
@@ -3756,12 +3559,8 @@
       <c r="DD51" s="1">
         <v>1</v>
       </c>
-      <c r="DX51" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45022</v>
       </c>
@@ -3801,12 +3600,8 @@
       <c r="DG52" s="1">
         <v>1</v>
       </c>
-      <c r="DX52" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>45052</v>
       </c>
@@ -3849,12 +3644,8 @@
       <c r="DQ53" s="1">
         <v>1</v>
       </c>
-      <c r="DX53" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45083</v>
       </c>
@@ -3891,12 +3682,8 @@
       <c r="CC54" s="1">
         <v>1</v>
       </c>
-      <c r="DX54" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>45113</v>
       </c>
@@ -3945,12 +3732,8 @@
       <c r="DS55" s="1">
         <v>1</v>
       </c>
-      <c r="DX55" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45144</v>
       </c>
@@ -3978,24 +3761,16 @@
       <c r="DO56" s="1">
         <v>1</v>
       </c>
-      <c r="DX56" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45175</v>
       </c>
       <c r="B57" s="8">
         <v>0</v>
       </c>
-      <c r="DX57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45205</v>
       </c>
@@ -4032,12 +3807,8 @@
       <c r="DR58" s="1">
         <v>1</v>
       </c>
-      <c r="DX58" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>45236</v>
       </c>
@@ -4077,12 +3848,8 @@
       <c r="CN59" s="1">
         <v>1</v>
       </c>
-      <c r="DX59" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45266</v>
       </c>
@@ -4101,12 +3868,8 @@
       <c r="CN60" s="1">
         <v>1</v>
       </c>
-      <c r="DX60" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>160</v>
       </c>
@@ -4143,12 +3906,8 @@
       <c r="DM61" s="1">
         <v>1</v>
       </c>
-      <c r="DX61" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>161</v>
       </c>
@@ -4182,12 +3941,8 @@
       <c r="DQ62" s="1">
         <v>1</v>
       </c>
-      <c r="DX62" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
@@ -4227,12 +3982,8 @@
       <c r="DD63" s="1">
         <v>1</v>
       </c>
-      <c r="DX63" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>163</v>
       </c>
@@ -4254,12 +4005,8 @@
       <c r="DC64" s="1">
         <v>1</v>
       </c>
-      <c r="DX64" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>164</v>
       </c>
@@ -4296,12 +4043,8 @@
       <c r="DM65" s="1">
         <v>1</v>
       </c>
-      <c r="DX65" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>165</v>
       </c>
@@ -4338,12 +4081,8 @@
       <c r="BO66" s="1">
         <v>1</v>
       </c>
-      <c r="DX66" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
@@ -4383,12 +4122,8 @@
       <c r="CP67" s="1">
         <v>1</v>
       </c>
-      <c r="DX67" s="1">
-        <f t="shared" ref="DX67:DX130" si="1">SUM(C67:DU67)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>167</v>
       </c>
@@ -4410,12 +4145,8 @@
       <c r="CU68" s="1">
         <v>1</v>
       </c>
-      <c r="DX68" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>168</v>
       </c>
@@ -4443,12 +4174,8 @@
       <c r="DD69" s="1">
         <v>1</v>
       </c>
-      <c r="DX69" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>169</v>
       </c>
@@ -4500,12 +4227,8 @@
       <c r="DM70" s="1">
         <v>1</v>
       </c>
-      <c r="DX70" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4530,12 +4253,8 @@
       <c r="CN71" s="1">
         <v>1</v>
       </c>
-      <c r="DX71" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>171</v>
       </c>
@@ -4587,12 +4306,8 @@
       <c r="DQ72" s="1">
         <v>1</v>
       </c>
-      <c r="DX72" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>172</v>
       </c>
@@ -4650,12 +4365,8 @@
       <c r="DG73" s="1">
         <v>1</v>
       </c>
-      <c r="DX73" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>173</v>
       </c>
@@ -4731,12 +4442,8 @@
       <c r="DN74" s="1">
         <v>1</v>
       </c>
-      <c r="DX74" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>174</v>
       </c>
@@ -4809,12 +4516,8 @@
       <c r="DG75" s="1">
         <v>1</v>
       </c>
-      <c r="DX75" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>175</v>
       </c>
@@ -4884,12 +4587,8 @@
       <c r="CX76" s="1">
         <v>1</v>
       </c>
-      <c r="DX76" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>176</v>
       </c>
@@ -4908,12 +4607,8 @@
       <c r="CA77" s="1">
         <v>1</v>
       </c>
-      <c r="DX77" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>177</v>
       </c>
@@ -4926,12 +4621,8 @@
       <c r="BA78" s="1">
         <v>2</v>
       </c>
-      <c r="DX78" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>44933</v>
       </c>
@@ -4956,12 +4647,8 @@
       <c r="DM79" s="1">
         <v>1</v>
       </c>
-      <c r="DX79" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>44964</v>
       </c>
@@ -4986,12 +4673,8 @@
       <c r="BQ80" s="1">
         <v>1</v>
       </c>
-      <c r="DX80" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>44992</v>
       </c>
@@ -5013,12 +4696,8 @@
       <c r="BQ81" s="1">
         <v>1</v>
       </c>
-      <c r="DX81" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45023</v>
       </c>
@@ -5046,12 +4725,8 @@
       <c r="DN82" s="1">
         <v>1</v>
       </c>
-      <c r="DX82" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45053</v>
       </c>
@@ -5091,12 +4766,8 @@
       <c r="DK83" s="1">
         <v>1</v>
       </c>
-      <c r="DX83" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45084</v>
       </c>
@@ -5130,24 +4801,16 @@
       <c r="BO84" s="1">
         <v>1</v>
       </c>
-      <c r="DX84" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>45114</v>
       </c>
       <c r="B85" s="8">
         <v>0</v>
       </c>
-      <c r="DX85" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45145</v>
       </c>
@@ -5172,12 +4835,8 @@
       <c r="DQ86" s="1">
         <v>1</v>
       </c>
-      <c r="DX86" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>45176</v>
       </c>
@@ -5193,12 +4852,8 @@
       <c r="DK87" s="1">
         <v>1</v>
       </c>
-      <c r="DX87" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45206</v>
       </c>
@@ -5214,12 +4869,8 @@
       <c r="BQ88" s="1">
         <v>1</v>
       </c>
-      <c r="DX88" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>45237</v>
       </c>
@@ -5244,12 +4895,8 @@
       <c r="CP89" s="1">
         <v>1</v>
       </c>
-      <c r="DX89" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45267</v>
       </c>
@@ -5283,12 +4930,8 @@
       <c r="DQ90" s="1">
         <v>1</v>
       </c>
-      <c r="DX90" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
@@ -5310,24 +4953,16 @@
       <c r="CF91" s="1">
         <v>1</v>
       </c>
-      <c r="DX91" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B92" s="8">
         <v>0</v>
       </c>
-      <c r="DX92" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>180</v>
       </c>
@@ -5355,12 +4990,8 @@
       <c r="CA93" s="1">
         <v>1</v>
       </c>
-      <c r="DX93" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>181</v>
       </c>
@@ -5379,12 +5010,8 @@
       <c r="DK94" s="1">
         <v>1</v>
       </c>
-      <c r="DX94" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>182</v>
       </c>
@@ -5409,12 +5036,8 @@
       <c r="BJ95" s="1">
         <v>1</v>
       </c>
-      <c r="DX95" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>183</v>
       </c>
@@ -5442,12 +5065,8 @@
       <c r="DQ96" s="1">
         <v>1</v>
       </c>
-      <c r="DX96" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>184</v>
       </c>
@@ -5469,12 +5088,8 @@
       <c r="BX97" s="1">
         <v>1</v>
       </c>
-      <c r="DX97" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
@@ -5502,24 +5117,16 @@
       <c r="CE98" s="1">
         <v>1</v>
       </c>
-      <c r="DX98" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="8">
         <v>0</v>
       </c>
-      <c r="DX99" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>187</v>
       </c>
@@ -5550,12 +5157,8 @@
       <c r="DA100" s="1">
         <v>1</v>
       </c>
-      <c r="DX100" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>188</v>
       </c>
@@ -5586,12 +5189,8 @@
       <c r="DR101" s="1">
         <v>1</v>
       </c>
-      <c r="DX101" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>189</v>
       </c>
@@ -5637,12 +5236,8 @@
       <c r="DQ102" s="1">
         <v>1</v>
       </c>
-      <c r="DX102" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>190</v>
       </c>
@@ -5679,12 +5274,8 @@
       <c r="DG103" s="1">
         <v>1</v>
       </c>
-      <c r="DX103" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>191</v>
       </c>
@@ -5709,12 +5300,8 @@
       <c r="CN104" s="1">
         <v>1</v>
       </c>
-      <c r="DX104" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>192</v>
       </c>
@@ -5748,24 +5335,16 @@
       <c r="DC105" s="1">
         <v>1</v>
       </c>
-      <c r="DX105" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B106" s="8">
         <v>0</v>
       </c>
-      <c r="DX106" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>194</v>
       </c>
@@ -5799,12 +5378,8 @@
       <c r="DE107" s="1">
         <v>1</v>
       </c>
-      <c r="DX107" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>195</v>
       </c>
@@ -5844,12 +5419,8 @@
       <c r="DQ108" s="1">
         <v>1</v>
       </c>
-      <c r="DX108" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>196</v>
       </c>
@@ -5880,12 +5451,8 @@
       <c r="BP109" s="1">
         <v>1</v>
       </c>
-      <c r="DX109" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44934</v>
       </c>
@@ -5922,12 +5489,8 @@
       <c r="DQ110" s="1">
         <v>1</v>
       </c>
-      <c r="DX110" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>44965</v>
       </c>
@@ -5949,12 +5512,8 @@
       <c r="AR111" s="1">
         <v>1</v>
       </c>
-      <c r="DX111" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>44993</v>
       </c>
@@ -5982,24 +5541,16 @@
       <c r="BI112" s="1">
         <v>1</v>
       </c>
-      <c r="DX112" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>45024</v>
       </c>
       <c r="B113" s="8">
         <v>0</v>
       </c>
-      <c r="DX113" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45054</v>
       </c>
@@ -6024,12 +5575,8 @@
       <c r="DQ114" s="1">
         <v>1</v>
       </c>
-      <c r="DX114" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>45085</v>
       </c>
@@ -6042,12 +5589,8 @@
       <c r="AJ115" s="1">
         <v>1</v>
       </c>
-      <c r="DX115" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45115</v>
       </c>
@@ -6060,12 +5603,8 @@
       <c r="AJ116" s="1">
         <v>1</v>
       </c>
-      <c r="DX116" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>45146</v>
       </c>
@@ -6090,12 +5629,8 @@
       <c r="CP117" s="1">
         <v>1</v>
       </c>
-      <c r="DX117" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45177</v>
       </c>
@@ -6114,12 +5649,8 @@
       <c r="BI118" s="1">
         <v>1</v>
       </c>
-      <c r="DX118" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>45207</v>
       </c>
@@ -6147,24 +5678,16 @@
       <c r="BX119" s="1">
         <v>1</v>
       </c>
-      <c r="DX119" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45238</v>
       </c>
       <c r="B120" s="8">
         <v>0</v>
       </c>
-      <c r="DX120" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>45268</v>
       </c>
@@ -6198,12 +5721,8 @@
       <c r="CE121" s="1">
         <v>1</v>
       </c>
-      <c r="DX121" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>197</v>
       </c>
@@ -6222,12 +5741,8 @@
       <c r="AE122" s="1">
         <v>1</v>
       </c>
-      <c r="DX122" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>198</v>
       </c>
@@ -6240,12 +5755,8 @@
       <c r="BI123" s="1">
         <v>1</v>
       </c>
-      <c r="DX123" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>199</v>
       </c>
@@ -6264,12 +5775,8 @@
       <c r="CP124" s="1">
         <v>1</v>
       </c>
-      <c r="DX124" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
@@ -6297,12 +5804,8 @@
       <c r="BV125" s="1">
         <v>1</v>
       </c>
-      <c r="DX125" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>201</v>
       </c>
@@ -6321,24 +5824,16 @@
       <c r="AC126" s="1">
         <v>1</v>
       </c>
-      <c r="DX126" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B127" s="8">
         <v>0</v>
       </c>
-      <c r="DX127" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>203</v>
       </c>
@@ -6354,12 +5849,8 @@
       <c r="CN128" s="1">
         <v>1</v>
       </c>
-      <c r="DX128" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
@@ -6375,12 +5866,8 @@
       <c r="DQ129" s="1">
         <v>1</v>
       </c>
-      <c r="DX129" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>205</v>
       </c>
@@ -6405,12 +5892,8 @@
       <c r="BW130" s="1">
         <v>1</v>
       </c>
-      <c r="DX130" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>206</v>
       </c>
@@ -6432,12 +5915,8 @@
       <c r="CE131" s="1">
         <v>1</v>
       </c>
-      <c r="DX131" s="1">
-        <f t="shared" ref="DX131:DX195" si="2">SUM(C131:DU131)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>207</v>
       </c>
@@ -6465,12 +5944,8 @@
       <c r="BO132" s="1">
         <v>1</v>
       </c>
-      <c r="DX132" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>208</v>
       </c>
@@ -6492,24 +5967,16 @@
       <c r="DE133" s="1">
         <v>1</v>
       </c>
-      <c r="DX133" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B134" s="8">
         <v>0</v>
       </c>
-      <c r="DX134" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>210</v>
       </c>
@@ -6531,12 +5998,8 @@
       <c r="BW135" s="1">
         <v>1</v>
       </c>
-      <c r="DX135" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>211</v>
       </c>
@@ -6558,12 +6021,8 @@
       <c r="BV136" s="1">
         <v>1</v>
       </c>
-      <c r="DX136" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>212</v>
       </c>
@@ -6576,12 +6035,8 @@
       <c r="DE137" s="1">
         <v>1</v>
       </c>
-      <c r="DX137" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>213</v>
       </c>
@@ -6600,12 +6055,8 @@
       <c r="BS138" s="1">
         <v>1</v>
       </c>
-      <c r="DX138" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>214</v>
       </c>
@@ -6645,12 +6096,8 @@
       <c r="BO139" s="1">
         <v>1</v>
       </c>
-      <c r="DX139" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>215</v>
       </c>
@@ -6681,24 +6128,16 @@
       <c r="DQ140" s="1">
         <v>1</v>
       </c>
-      <c r="DX140" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44935</v>
       </c>
       <c r="B141" s="8">
         <v>0</v>
       </c>
-      <c r="DX141" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44966</v>
       </c>
@@ -6732,12 +6171,8 @@
       <c r="CP142" s="1">
         <v>1</v>
       </c>
-      <c r="DX142" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44994</v>
       </c>
@@ -6762,12 +6197,8 @@
       <c r="BP143" s="1">
         <v>1</v>
       </c>
-      <c r="DX143" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>45025</v>
       </c>
@@ -6795,12 +6226,8 @@
       <c r="CE144" s="1">
         <v>1</v>
       </c>
-      <c r="DX144" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>45055</v>
       </c>
@@ -6822,12 +6249,8 @@
       <c r="AC145" s="1">
         <v>1</v>
       </c>
-      <c r="DX145" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>45086</v>
       </c>
@@ -6855,12 +6278,8 @@
       <c r="BP146" s="1">
         <v>1</v>
       </c>
-      <c r="DX146" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>45116</v>
       </c>
@@ -6876,24 +6295,16 @@
       <c r="BV147" s="1">
         <v>1</v>
       </c>
-      <c r="DX147" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45147</v>
       </c>
       <c r="B148" s="8">
         <v>0</v>
       </c>
-      <c r="DX148" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>45178</v>
       </c>
@@ -6933,12 +6344,8 @@
       <c r="CC149" s="1">
         <v>1</v>
       </c>
-      <c r="DX149" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>45208</v>
       </c>
@@ -6972,12 +6379,8 @@
       <c r="BX150" s="1">
         <v>1</v>
       </c>
-      <c r="DX150" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>45239</v>
       </c>
@@ -7011,12 +6414,8 @@
       <c r="DD151" s="1">
         <v>1</v>
       </c>
-      <c r="DX151" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>45269</v>
       </c>
@@ -7029,12 +6428,8 @@
       <c r="AE152" s="1">
         <v>1</v>
       </c>
-      <c r="DX152" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>216</v>
       </c>
@@ -7068,12 +6463,8 @@
       <c r="CP153" s="1">
         <v>1</v>
       </c>
-      <c r="DX153" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>217</v>
       </c>
@@ -7116,24 +6507,16 @@
       <c r="CP154" s="1">
         <v>1</v>
       </c>
-      <c r="DX154" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B155" s="8">
         <v>0</v>
       </c>
-      <c r="DX155" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>219</v>
       </c>
@@ -7164,12 +6547,8 @@
       <c r="DQ156" s="1">
         <v>1</v>
       </c>
-      <c r="DX156" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>220</v>
       </c>
@@ -7203,12 +6582,8 @@
       <c r="CV157" s="1">
         <v>1</v>
       </c>
-      <c r="DX157" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>221</v>
       </c>
@@ -7242,12 +6617,8 @@
       <c r="DB158" s="1">
         <v>1</v>
       </c>
-      <c r="DX158" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>222</v>
       </c>
@@ -7266,12 +6637,8 @@
       <c r="DE159" s="1">
         <v>1</v>
       </c>
-      <c r="DX159" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>223</v>
       </c>
@@ -7308,12 +6675,8 @@
       <c r="BV160" s="1">
         <v>1</v>
       </c>
-      <c r="DX160" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>224</v>
       </c>
@@ -7341,24 +6704,16 @@
       <c r="DR161" s="1">
         <v>1</v>
       </c>
-      <c r="DX161" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B162" s="8">
         <v>0</v>
       </c>
-      <c r="DX162" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>226</v>
       </c>
@@ -7374,12 +6729,8 @@
       <c r="BO163" s="1">
         <v>1</v>
       </c>
-      <c r="DX163" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>227</v>
       </c>
@@ -7398,12 +6749,8 @@
       <c r="DE164" s="1">
         <v>1</v>
       </c>
-      <c r="DX164" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>228</v>
       </c>
@@ -7419,12 +6766,8 @@
       <c r="AL165" s="1">
         <v>1</v>
       </c>
-      <c r="DX165" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>229</v>
       </c>
@@ -7446,12 +6789,8 @@
       <c r="DA166" s="1">
         <v>1</v>
       </c>
-      <c r="DX166" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>230</v>
       </c>
@@ -7479,12 +6818,8 @@
       <c r="CF167" s="1">
         <v>1</v>
       </c>
-      <c r="DX167" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>231</v>
       </c>
@@ -7512,24 +6847,16 @@
       <c r="CW168" s="1">
         <v>1</v>
       </c>
-      <c r="DX168" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B169" s="8">
         <v>0</v>
       </c>
-      <c r="DX169" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>233</v>
       </c>
@@ -7551,12 +6878,8 @@
       <c r="DE170" s="1">
         <v>1</v>
       </c>
-      <c r="DX170" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>44936</v>
       </c>
@@ -7578,12 +6901,8 @@
       <c r="AH171" s="1">
         <v>1</v>
       </c>
-      <c r="DX171" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>44967</v>
       </c>
@@ -7605,12 +6924,8 @@
       <c r="DQ172" s="1">
         <v>1</v>
       </c>
-      <c r="DX172" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>44995</v>
       </c>
@@ -7632,12 +6947,8 @@
       <c r="DE173" s="1">
         <v>1</v>
       </c>
-      <c r="DX173" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>45026</v>
       </c>
@@ -7656,12 +6967,8 @@
       <c r="CP174" s="1">
         <v>1</v>
       </c>
-      <c r="DX174" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>45056</v>
       </c>
@@ -7683,24 +6990,16 @@
       <c r="CU175" s="1">
         <v>1</v>
       </c>
-      <c r="DX175" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>45087</v>
       </c>
       <c r="B176" s="8">
         <v>0</v>
       </c>
-      <c r="DX176" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>45117</v>
       </c>
@@ -7728,12 +7027,8 @@
       <c r="BT177" s="1">
         <v>2</v>
       </c>
-      <c r="DX177" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>45148</v>
       </c>
@@ -7761,12 +7056,8 @@
       <c r="BP178" s="1">
         <v>1</v>
       </c>
-      <c r="DX178" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>45179</v>
       </c>
@@ -7782,12 +7073,8 @@
       <c r="BZ179" s="1">
         <v>1</v>
       </c>
-      <c r="DX179" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>45209</v>
       </c>
@@ -7809,12 +7096,8 @@
       <c r="DB180" s="1">
         <v>1</v>
       </c>
-      <c r="DX180" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>45240</v>
       </c>
@@ -7836,12 +7119,8 @@
       <c r="BN181" s="1">
         <v>1</v>
       </c>
-      <c r="DX181" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>45270</v>
       </c>
@@ -7863,24 +7142,16 @@
       <c r="CP182" s="1">
         <v>1</v>
       </c>
-      <c r="DX182" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B183" s="8">
         <v>0</v>
       </c>
-      <c r="DX183" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>235</v>
       </c>
@@ -7917,12 +7188,8 @@
       <c r="AN184" s="1">
         <v>1</v>
       </c>
-      <c r="DX184" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>236</v>
       </c>
@@ -7944,12 +7211,8 @@
       <c r="CW185" s="1">
         <v>1</v>
       </c>
-      <c r="DX185" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>237</v>
       </c>
@@ -7965,12 +7228,8 @@
       <c r="DE186" s="1">
         <v>1</v>
       </c>
-      <c r="DX186" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>238</v>
       </c>
@@ -7998,12 +7257,8 @@
       <c r="CE187" s="1">
         <v>1</v>
       </c>
-      <c r="DX187" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>239</v>
       </c>
@@ -8019,12 +7274,8 @@
       <c r="AE188" s="1">
         <v>2</v>
       </c>
-      <c r="DX188" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>240</v>
       </c>
@@ -8046,12 +7297,8 @@
       <c r="AI189" s="1">
         <v>1</v>
       </c>
-      <c r="DX189" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>241</v>
       </c>
@@ -8070,12 +7317,8 @@
       <c r="CV190" s="1">
         <v>1</v>
       </c>
-      <c r="DX190" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>242</v>
       </c>
@@ -8088,12 +7331,8 @@
       <c r="AT191" s="1">
         <v>1</v>
       </c>
-      <c r="DX191" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>243</v>
       </c>
@@ -8109,12 +7348,8 @@
       <c r="AU192" s="1">
         <v>1</v>
       </c>
-      <c r="DX192" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>244</v>
       </c>
@@ -8133,12 +7368,8 @@
       <c r="AK193" s="1">
         <v>1</v>
       </c>
-      <c r="DX193" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>245</v>
       </c>
@@ -8157,12 +7388,8 @@
       <c r="CZ194" s="1">
         <v>1</v>
       </c>
-      <c r="DX194" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>246</v>
       </c>
@@ -8178,12 +7405,8 @@
       <c r="AE195" s="1">
         <v>1</v>
       </c>
-      <c r="DX195" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>247</v>
       </c>
@@ -8202,24 +7425,16 @@
       <c r="CP196" s="1">
         <v>1</v>
       </c>
-      <c r="DX196" s="1">
-        <f t="shared" ref="DX196:DX259" si="3">SUM(C196:DU196)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B197" s="8">
         <v>0</v>
       </c>
-      <c r="DX197" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>249</v>
       </c>
@@ -8250,12 +7465,8 @@
       <c r="DD198" s="1">
         <v>1</v>
       </c>
-      <c r="DX198" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>250</v>
       </c>
@@ -8280,12 +7491,8 @@
       <c r="BQ199" s="1">
         <v>1</v>
       </c>
-      <c r="DX199" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>251</v>
       </c>
@@ -8310,12 +7517,8 @@
       <c r="BS200" s="1">
         <v>1</v>
       </c>
-      <c r="DX200" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>252</v>
       </c>
@@ -8328,12 +7531,8 @@
       <c r="X201" s="1">
         <v>2</v>
       </c>
-      <c r="DX201" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>44937</v>
       </c>
@@ -8352,12 +7551,8 @@
       <c r="BX202" s="1">
         <v>1</v>
       </c>
-      <c r="DX202" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>44968</v>
       </c>
@@ -8370,24 +7565,16 @@
       <c r="AC203" s="1">
         <v>1</v>
       </c>
-      <c r="DX203" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>44996</v>
       </c>
       <c r="B204" s="8">
         <v>0</v>
       </c>
-      <c r="DX204" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>45027</v>
       </c>
@@ -8418,12 +7605,8 @@
       <c r="CU205" s="1">
         <v>1</v>
       </c>
-      <c r="DX205" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>45057</v>
       </c>
@@ -8439,12 +7622,8 @@
       <c r="AH206" s="1">
         <v>1</v>
       </c>
-      <c r="DX206" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>45088</v>
       </c>
@@ -8466,12 +7645,8 @@
       <c r="BC207" s="1">
         <v>1</v>
       </c>
-      <c r="DX207" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>45118</v>
       </c>
@@ -8496,12 +7671,8 @@
       <c r="AV208" s="1">
         <v>1</v>
       </c>
-      <c r="DX208" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>45149</v>
       </c>
@@ -8523,12 +7694,8 @@
       <c r="BO209" s="1">
         <v>1</v>
       </c>
-      <c r="DX209" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>45180</v>
       </c>
@@ -8550,24 +7717,16 @@
       <c r="DB210" s="1">
         <v>1</v>
       </c>
-      <c r="DX210" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>45210</v>
       </c>
       <c r="B211" s="8">
         <v>0</v>
       </c>
-      <c r="DX211" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>45241</v>
       </c>
@@ -8589,12 +7748,8 @@
       <c r="AC212" s="1">
         <v>2</v>
       </c>
-      <c r="DX212" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>45271</v>
       </c>
@@ -8607,12 +7762,8 @@
       <c r="X213" s="1">
         <v>1</v>
       </c>
-      <c r="DX213" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>253</v>
       </c>
@@ -8625,12 +7776,8 @@
       <c r="AC214" s="1">
         <v>1</v>
       </c>
-      <c r="DX214" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>254</v>
       </c>
@@ -8649,12 +7796,8 @@
       <c r="CP215" s="1">
         <v>1</v>
       </c>
-      <c r="DX215" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>255</v>
       </c>
@@ -8676,12 +7819,8 @@
       <c r="BJ216" s="1">
         <v>1</v>
       </c>
-      <c r="DX216" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>256</v>
       </c>
@@ -8709,24 +7848,16 @@
       <c r="BW217" s="1">
         <v>1</v>
       </c>
-      <c r="DX217" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B218" s="8">
         <v>0</v>
       </c>
-      <c r="DX218" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>258</v>
       </c>
@@ -8739,12 +7870,8 @@
       <c r="AC219" s="1">
         <v>1</v>
       </c>
-      <c r="DX219" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>259</v>
       </c>
@@ -8778,12 +7905,8 @@
       <c r="DE220" s="1">
         <v>1</v>
       </c>
-      <c r="DX220" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>260</v>
       </c>
@@ -8808,12 +7931,8 @@
       <c r="CP221" s="1">
         <v>1</v>
       </c>
-      <c r="DX221" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>261</v>
       </c>
@@ -8829,12 +7948,8 @@
       <c r="AE222" s="1">
         <v>1</v>
       </c>
-      <c r="DX222" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>262</v>
       </c>
@@ -8853,12 +7968,8 @@
       <c r="AJ223" s="1">
         <v>1</v>
       </c>
-      <c r="DX223" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>263</v>
       </c>
@@ -8874,24 +7985,16 @@
       <c r="AV224" s="1">
         <v>1</v>
       </c>
-      <c r="DX224" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B225" s="8">
         <v>0</v>
       </c>
-      <c r="DX225" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>265</v>
       </c>
@@ -8910,12 +8013,8 @@
       <c r="BJ226" s="1">
         <v>1</v>
       </c>
-      <c r="DX226" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>266</v>
       </c>
@@ -8940,12 +8039,8 @@
       <c r="AV227" s="1">
         <v>1</v>
       </c>
-      <c r="DX227" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>267</v>
       </c>
@@ -8970,12 +8065,8 @@
       <c r="AU228" s="1">
         <v>1</v>
       </c>
-      <c r="DX228" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>268</v>
       </c>
@@ -8988,12 +8079,8 @@
       <c r="U229" s="1">
         <v>1</v>
       </c>
-      <c r="DX229" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>269</v>
       </c>
@@ -9015,12 +8102,8 @@
       <c r="BQ230" s="1">
         <v>1</v>
       </c>
-      <c r="DX230" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>270</v>
       </c>
@@ -9042,24 +8125,16 @@
       <c r="AR231" s="1">
         <v>1</v>
       </c>
-      <c r="DX231" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>44938</v>
       </c>
       <c r="B232" s="8">
         <v>0</v>
       </c>
-      <c r="DX232" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>44969</v>
       </c>
@@ -9087,12 +8162,8 @@
       <c r="CP233" s="1">
         <v>1</v>
       </c>
-      <c r="DX233" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>44997</v>
       </c>
@@ -9108,12 +8179,8 @@
       <c r="AL234" s="1">
         <v>1</v>
       </c>
-      <c r="DX234" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>45028</v>
       </c>
@@ -9147,12 +8214,8 @@
       <c r="BJ235" s="1">
         <v>1</v>
       </c>
-      <c r="DX235" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="236" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>45058</v>
       </c>
@@ -9183,12 +8246,8 @@
       <c r="BI236" s="1">
         <v>1</v>
       </c>
-      <c r="DX236" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>45089</v>
       </c>
@@ -9213,12 +8272,8 @@
       <c r="CZ237" s="1">
         <v>1</v>
       </c>
-      <c r="DX237" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>45119</v>
       </c>
@@ -9240,24 +8295,16 @@
       <c r="AI238" s="1">
         <v>1</v>
       </c>
-      <c r="DX238" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>45150</v>
       </c>
       <c r="B239" s="8">
         <v>0</v>
       </c>
-      <c r="DX239" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>45181</v>
       </c>
@@ -9285,12 +8332,8 @@
       <c r="BA240" s="1">
         <v>1</v>
       </c>
-      <c r="DX240" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>45211</v>
       </c>
@@ -9321,12 +8364,8 @@
       <c r="DQ241" s="1">
         <v>4</v>
       </c>
-      <c r="DX241" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>45242</v>
       </c>
@@ -9342,12 +8381,8 @@
       <c r="AU242" s="1">
         <v>1</v>
       </c>
-      <c r="DX242" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>45272</v>
       </c>
@@ -9372,12 +8407,8 @@
       <c r="BQ243" s="1">
         <v>1</v>
       </c>
-      <c r="DX243" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>271</v>
       </c>
@@ -9393,12 +8424,8 @@
       <c r="AK244" s="1">
         <v>1</v>
       </c>
-      <c r="DX244" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>272</v>
       </c>
@@ -9429,24 +8456,16 @@
       <c r="BA245" s="1">
         <v>1</v>
       </c>
-      <c r="DX245" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B246" s="8">
         <v>0</v>
       </c>
-      <c r="DX246" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>274</v>
       </c>
@@ -9480,12 +8499,8 @@
       <c r="BV247" s="1">
         <v>1</v>
       </c>
-      <c r="DX247" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>275</v>
       </c>
@@ -9513,12 +8528,8 @@
       <c r="BR248" s="1">
         <v>1</v>
       </c>
-      <c r="DX248" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>276</v>
       </c>
@@ -9555,12 +8566,8 @@
       <c r="BQ249" s="1">
         <v>1</v>
       </c>
-      <c r="DX249" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>277</v>
       </c>
@@ -9585,12 +8592,8 @@
       <c r="CZ250" s="1">
         <v>1</v>
       </c>
-      <c r="DX250" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>278</v>
       </c>
@@ -9606,12 +8609,8 @@
       <c r="AG251" s="1">
         <v>1</v>
       </c>
-      <c r="DX251" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>279</v>
       </c>
@@ -9630,24 +8629,16 @@
       <c r="BI252" s="1">
         <v>1</v>
       </c>
-      <c r="DX252" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B253" s="8">
         <v>0</v>
       </c>
-      <c r="DX253" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>281</v>
       </c>
@@ -9672,12 +8663,8 @@
       <c r="BV254" s="1">
         <v>1</v>
       </c>
-      <c r="DX254" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>282</v>
       </c>
@@ -9696,12 +8683,8 @@
       <c r="AJ255" s="1">
         <v>1</v>
       </c>
-      <c r="DX255" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>283</v>
       </c>
@@ -9729,12 +8712,8 @@
       <c r="BV256" s="1">
         <v>1</v>
       </c>
-      <c r="DX256" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>284</v>
       </c>
@@ -9753,12 +8732,8 @@
       <c r="DE257" s="1">
         <v>1</v>
       </c>
-      <c r="DX257" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>285</v>
       </c>
@@ -9780,12 +8755,8 @@
       <c r="DG258" s="1">
         <v>1</v>
       </c>
-      <c r="DX258" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>286</v>
       </c>
@@ -9810,24 +8781,16 @@
       <c r="CP259" s="1">
         <v>2</v>
       </c>
-      <c r="DX259" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B260" s="8">
         <v>0</v>
       </c>
-      <c r="DX260" s="1">
-        <f t="shared" ref="DX260:DX324" si="4">SUM(C260:DU260)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>288</v>
       </c>
@@ -9861,12 +8824,8 @@
       <c r="BB261" s="1">
         <v>1</v>
       </c>
-      <c r="DX261" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>289</v>
       </c>
@@ -9882,12 +8841,8 @@
       <c r="CP262" s="1">
         <v>1</v>
       </c>
-      <c r="DX262" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>45292</v>
       </c>
@@ -9906,12 +8861,8 @@
       <c r="AL263" s="1">
         <v>1</v>
       </c>
-      <c r="DX263" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>45323</v>
       </c>
@@ -9930,12 +8881,8 @@
       <c r="BA264" s="1">
         <v>1</v>
       </c>
-      <c r="DX264" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>45352</v>
       </c>
@@ -9960,12 +8907,8 @@
       <c r="AG265" s="1">
         <v>1</v>
       </c>
-      <c r="DX265" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>45383</v>
       </c>
@@ -9999,24 +8942,16 @@
       <c r="DD266" s="1">
         <v>1</v>
       </c>
-      <c r="DX266" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>45413</v>
       </c>
       <c r="B267" s="8">
         <v>0</v>
       </c>
-      <c r="DX267" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>45444</v>
       </c>
@@ -10053,12 +8988,8 @@
       <c r="CG268" s="1">
         <v>1</v>
       </c>
-      <c r="DX268" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="269" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>45474</v>
       </c>
@@ -10071,12 +9002,8 @@
       <c r="U269" s="1">
         <v>1</v>
       </c>
-      <c r="DX269" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>45505</v>
       </c>
@@ -10104,12 +9031,8 @@
       <c r="CC270" s="1">
         <v>1</v>
       </c>
-      <c r="DX270" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="271" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>45536</v>
       </c>
@@ -10134,12 +9057,8 @@
       <c r="CA271" s="1">
         <v>1</v>
       </c>
-      <c r="DX271" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>45566</v>
       </c>
@@ -10167,12 +9086,8 @@
       <c r="CA272" s="1">
         <v>1</v>
       </c>
-      <c r="DX272" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>45597</v>
       </c>
@@ -10194,24 +9109,16 @@
       <c r="AJ273" s="1">
         <v>1</v>
       </c>
-      <c r="DX273" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>45627</v>
       </c>
       <c r="B274" s="8">
         <v>0</v>
       </c>
-      <c r="DX274" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>290</v>
       </c>
@@ -10245,12 +9152,8 @@
       <c r="BB275" s="1">
         <v>1</v>
       </c>
-      <c r="DX275" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>291</v>
       </c>
@@ -10278,12 +9181,8 @@
       <c r="BJ276" s="1">
         <v>1</v>
       </c>
-      <c r="DX276" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>292</v>
       </c>
@@ -10302,12 +9201,8 @@
       <c r="DM277" s="1">
         <v>1</v>
       </c>
-      <c r="DX277" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>293</v>
       </c>
@@ -10329,12 +9224,8 @@
       <c r="BX278" s="1">
         <v>1</v>
       </c>
-      <c r="DX278" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>294</v>
       </c>
@@ -10356,12 +9247,8 @@
       <c r="DE279" s="1">
         <v>1</v>
       </c>
-      <c r="DX279" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>295</v>
       </c>
@@ -10389,24 +9276,16 @@
       <c r="CC280" s="1">
         <v>1</v>
       </c>
-      <c r="DX280" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B281" s="8">
         <v>0</v>
       </c>
-      <c r="DX281" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>297</v>
       </c>
@@ -10431,12 +9310,8 @@
       <c r="BQ282" s="1">
         <v>1</v>
       </c>
-      <c r="DX282" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>298</v>
       </c>
@@ -10458,12 +9333,8 @@
       <c r="DK283" s="1">
         <v>1</v>
       </c>
-      <c r="DX283" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>299</v>
       </c>
@@ -10476,12 +9347,8 @@
       <c r="CF284" s="1">
         <v>1</v>
       </c>
-      <c r="DX284" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>300</v>
       </c>
@@ -10512,12 +9379,8 @@
       <c r="BA285" s="1">
         <v>1</v>
       </c>
-      <c r="DX285" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>301</v>
       </c>
@@ -10539,12 +9402,8 @@
       <c r="CH286" s="1">
         <v>1</v>
       </c>
-      <c r="DX286" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>302</v>
       </c>
@@ -10572,24 +9431,16 @@
       <c r="BB287" s="1">
         <v>1</v>
       </c>
-      <c r="DX287" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B288" s="8">
         <v>0</v>
       </c>
-      <c r="DX288" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>304</v>
       </c>
@@ -10623,12 +9474,8 @@
       <c r="BA289" s="1">
         <v>1</v>
       </c>
-      <c r="DX289" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>305</v>
       </c>
@@ -10641,12 +9488,8 @@
       <c r="AJ290" s="1">
         <v>1</v>
       </c>
-      <c r="DX290" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>306</v>
       </c>
@@ -10671,12 +9514,8 @@
       <c r="DL291" s="1">
         <v>1</v>
       </c>
-      <c r="DX291" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>307</v>
       </c>
@@ -10689,12 +9528,8 @@
       <c r="AJ292" s="1">
         <v>2</v>
       </c>
-      <c r="DX292" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>308</v>
       </c>
@@ -10707,12 +9542,8 @@
       <c r="BR293" s="1">
         <v>1</v>
       </c>
-      <c r="DX293" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>45293</v>
       </c>
@@ -10740,24 +9571,16 @@
       <c r="DG294" s="1">
         <v>1</v>
       </c>
-      <c r="DX294" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>45324</v>
       </c>
       <c r="B295" s="8">
         <v>0</v>
       </c>
-      <c r="DX295" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>45353</v>
       </c>
@@ -10788,12 +9611,8 @@
       <c r="AJ296" s="1">
         <v>2</v>
       </c>
-      <c r="DX296" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="297" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>45384</v>
       </c>
@@ -10806,12 +9625,8 @@
       <c r="AR297" s="1">
         <v>1</v>
       </c>
-      <c r="DX297" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>45414</v>
       </c>
@@ -10842,12 +9657,8 @@
       <c r="CY298" s="1">
         <v>1</v>
       </c>
-      <c r="DX298" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="299" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>45445</v>
       </c>
@@ -10875,12 +9686,8 @@
       <c r="BX299" s="1">
         <v>1</v>
       </c>
-      <c r="DX299" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>45475</v>
       </c>
@@ -10911,12 +9718,8 @@
       <c r="CW300" s="1">
         <v>1</v>
       </c>
-      <c r="DX300" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>45506</v>
       </c>
@@ -10956,24 +9759,16 @@
       <c r="AV301" s="1">
         <v>1</v>
       </c>
-      <c r="DX301" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>45537</v>
       </c>
       <c r="B302" s="8">
         <v>0</v>
       </c>
-      <c r="DX302" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>45567</v>
       </c>
@@ -11001,12 +9796,8 @@
       <c r="CM303" s="1">
         <v>1</v>
       </c>
-      <c r="DX303" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:116" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>45598</v>
       </c>
@@ -11046,12 +9837,8 @@
       <c r="DL304" s="1">
         <v>1</v>
       </c>
-      <c r="DX304" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>45628</v>
       </c>
@@ -11103,12 +9890,8 @@
       <c r="BR305" s="1">
         <v>1</v>
       </c>
-      <c r="DX305" s="1">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="306" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>309</v>
       </c>
@@ -11130,12 +9913,8 @@
       <c r="CY306" s="1">
         <v>1</v>
       </c>
-      <c r="DX306" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>310</v>
       </c>
@@ -11154,12 +9933,8 @@
       <c r="BQ307" s="1">
         <v>1</v>
       </c>
-      <c r="DX307" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>311</v>
       </c>
@@ -11175,24 +9950,16 @@
       <c r="DD308" s="1">
         <v>1</v>
       </c>
-      <c r="DX308" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B309" s="8">
         <v>0</v>
       </c>
-      <c r="DX309" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>313</v>
       </c>
@@ -11217,12 +9984,8 @@
       <c r="BJ310" s="1">
         <v>2</v>
       </c>
-      <c r="DX310" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>314</v>
       </c>
@@ -11241,12 +10004,8 @@
       <c r="BP311" s="1">
         <v>1</v>
       </c>
-      <c r="DX311" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>315</v>
       </c>
@@ -11268,12 +10027,8 @@
       <c r="CU312" s="1">
         <v>1</v>
       </c>
-      <c r="DX312" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>316</v>
       </c>
@@ -11292,12 +10047,8 @@
       <c r="BP313" s="1">
         <v>1</v>
       </c>
-      <c r="DX313" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>317</v>
       </c>
@@ -11319,12 +10070,8 @@
       <c r="DQ314" s="1">
         <v>2</v>
       </c>
-      <c r="DX314" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="315" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>318</v>
       </c>
@@ -11346,24 +10093,16 @@
       <c r="AH315" s="1">
         <v>1</v>
       </c>
-      <c r="DX315" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B316" s="8">
         <v>0</v>
       </c>
-      <c r="DX316" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>320</v>
       </c>
@@ -11397,12 +10136,8 @@
       <c r="CE317" s="1">
         <v>1</v>
       </c>
-      <c r="DX317" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>321</v>
       </c>
@@ -11436,12 +10171,8 @@
       <c r="DN318" s="1">
         <v>1</v>
       </c>
-      <c r="DX318" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="319" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>322</v>
       </c>
@@ -11463,12 +10194,8 @@
       <c r="BW319" s="1">
         <v>1</v>
       </c>
-      <c r="DX319" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="320" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>323</v>
       </c>
@@ -11490,12 +10217,8 @@
       <c r="DB320" s="1">
         <v>1</v>
       </c>
-      <c r="DX320" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>324</v>
       </c>
@@ -11523,12 +10246,8 @@
       <c r="CN321" s="1">
         <v>1</v>
       </c>
-      <c r="DX321" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>325</v>
       </c>
@@ -11568,24 +10287,16 @@
       <c r="BV322" s="1">
         <v>1</v>
       </c>
-      <c r="DX322" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>45294</v>
       </c>
       <c r="B323" s="8">
         <v>0</v>
       </c>
-      <c r="DX323" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>45325</v>
       </c>
@@ -11628,12 +10339,8 @@
       <c r="BW324" s="1">
         <v>1</v>
       </c>
-      <c r="DX324" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>45354</v>
       </c>
@@ -11655,12 +10362,8 @@
       <c r="DN325" s="1">
         <v>1</v>
       </c>
-      <c r="DX325" s="1">
-        <f t="shared" ref="DX325:DX388" si="5">SUM(C325:DU325)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>45385</v>
       </c>
@@ -11721,12 +10424,8 @@
       <c r="DQ326" s="1">
         <v>1</v>
       </c>
-      <c r="DX326" s="1">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="327" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>45415</v>
       </c>
@@ -11766,12 +10465,8 @@
       <c r="CZ327" s="1">
         <v>1</v>
       </c>
-      <c r="DX327" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>45446</v>
       </c>
@@ -11805,12 +10500,8 @@
       <c r="CP328" s="1">
         <v>1</v>
       </c>
-      <c r="DX328" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>45476</v>
       </c>
@@ -11853,24 +10544,16 @@
       <c r="BR329" s="1">
         <v>1</v>
       </c>
-      <c r="DX329" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>45507</v>
       </c>
       <c r="B330" s="8">
         <v>0</v>
       </c>
-      <c r="DX330" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>45538</v>
       </c>
@@ -11907,12 +10590,8 @@
       <c r="DT331" s="1">
         <v>1</v>
       </c>
-      <c r="DX331" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>45568</v>
       </c>
@@ -11973,12 +10652,8 @@
       <c r="DT332" s="1">
         <v>1</v>
       </c>
-      <c r="DX332" s="1">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="333" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>45599</v>
       </c>
@@ -12027,12 +10702,8 @@
       <c r="CD333" s="1">
         <v>1</v>
       </c>
-      <c r="DX333" s="1">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>45629</v>
       </c>
@@ -12063,12 +10734,8 @@
       <c r="DI334" s="1">
         <v>1</v>
       </c>
-      <c r="DX334" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>326</v>
       </c>
@@ -12105,12 +10772,8 @@
       <c r="DD335" s="1">
         <v>1</v>
       </c>
-      <c r="DX335" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>327</v>
       </c>
@@ -12141,24 +10804,16 @@
       <c r="BX336" s="1">
         <v>2</v>
       </c>
-      <c r="DX336" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="337" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B337" s="8">
         <v>0</v>
       </c>
-      <c r="DX337" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>329</v>
       </c>
@@ -12213,12 +10868,8 @@
       <c r="CA338" s="1">
         <v>1</v>
       </c>
-      <c r="DX338" s="1">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>330</v>
       </c>
@@ -12246,12 +10897,8 @@
       <c r="DK339" s="1">
         <v>1</v>
       </c>
-      <c r="DX339" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="340" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>331</v>
       </c>
@@ -12276,12 +10923,8 @@
       <c r="BA340" s="1">
         <v>1</v>
       </c>
-      <c r="DX340" s="1">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>332</v>
       </c>
@@ -12309,12 +10952,8 @@
       <c r="BR341" s="1">
         <v>1</v>
       </c>
-      <c r="DX341" s="1">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="342" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>333</v>
       </c>
@@ -12348,12 +10987,8 @@
       <c r="CP342" s="1">
         <v>1</v>
       </c>
-      <c r="DX342" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>334</v>
       </c>
@@ -12375,12 +11010,8 @@
       <c r="BA343" s="1">
         <v>1</v>
       </c>
-      <c r="DX343" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>335</v>
       </c>
@@ -12396,12 +11027,8 @@
       <c r="AB344" s="1">
         <v>1</v>
       </c>
-      <c r="DX344" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>336</v>
       </c>
@@ -12423,12 +11050,8 @@
       <c r="BI345" s="1">
         <v>1</v>
       </c>
-      <c r="DX345" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>337</v>
       </c>
@@ -12444,12 +11067,8 @@
       <c r="CN346" s="1">
         <v>1</v>
       </c>
-      <c r="DX346" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>338</v>
       </c>
@@ -12468,12 +11087,8 @@
       <c r="CP347" s="1">
         <v>1</v>
       </c>
-      <c r="DX347" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>339</v>
       </c>
@@ -12492,12 +11107,8 @@
       <c r="X348" s="1">
         <v>1</v>
       </c>
-      <c r="DX348" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="349" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>340</v>
       </c>
@@ -12516,12 +11127,8 @@
       <c r="AL349" s="1">
         <v>1</v>
       </c>
-      <c r="DX349" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>341</v>
       </c>
@@ -12558,12 +11165,8 @@
       <c r="DD350" s="1">
         <v>1</v>
       </c>
-      <c r="DX350" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="351" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>342</v>
       </c>
@@ -12582,12 +11185,8 @@
       <c r="DQ351" s="1">
         <v>1</v>
       </c>
-      <c r="DX351" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:121" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>343</v>
       </c>
@@ -12615,12 +11214,8 @@
       <c r="BV352" s="1">
         <v>1</v>
       </c>
-      <c r="DX352" s="1">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>344</v>
       </c>
@@ -12657,12 +11252,8 @@
       <c r="DD353" s="1">
         <v>1</v>
       </c>
-      <c r="DX353" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="354" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>45295</v>
       </c>
@@ -12684,12 +11275,8 @@
       <c r="CN354" s="1">
         <v>1</v>
       </c>
-      <c r="DX354" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>45326</v>
       </c>
@@ -12714,12 +11301,8 @@
       <c r="CN355" s="1">
         <v>1</v>
       </c>
-      <c r="DX355" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="356" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>45355</v>
       </c>
@@ -12756,12 +11339,8 @@
       <c r="DD356" s="1">
         <v>2</v>
       </c>
-      <c r="DX356" s="1">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="357" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>45386</v>
       </c>
@@ -12801,12 +11380,8 @@
       <c r="CW357" s="1">
         <v>1</v>
       </c>
-      <c r="DX357" s="1">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="358" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>45416</v>
       </c>
@@ -12846,12 +11421,8 @@
       <c r="CY358" s="1">
         <v>1</v>
       </c>
-      <c r="DX358" s="1">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="359" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>45447</v>
       </c>
@@ -12894,12 +11465,8 @@
       <c r="CN359" s="1">
         <v>1</v>
       </c>
-      <c r="DX359" s="1">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="360" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>45477</v>
       </c>
@@ -12927,12 +11494,8 @@
       <c r="CF360" s="1">
         <v>1</v>
       </c>
-      <c r="DX360" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="361" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>45508</v>
       </c>
@@ -12966,12 +11529,8 @@
       <c r="DD361" s="1">
         <v>1</v>
       </c>
-      <c r="DX361" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="362" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>45539</v>
       </c>
@@ -13026,12 +11585,8 @@
       <c r="DD362" s="1">
         <v>1</v>
       </c>
-      <c r="DX362" s="1">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="363" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>45569</v>
       </c>
@@ -13065,12 +11620,8 @@
       <c r="CV363" s="1">
         <v>1</v>
       </c>
-      <c r="DX363" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="364" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>45600</v>
       </c>
@@ -13089,24 +11640,16 @@
       <c r="AU364" s="1">
         <v>1</v>
       </c>
-      <c r="DX364" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>45630</v>
       </c>
       <c r="B365" s="8">
         <v>0</v>
       </c>
-      <c r="DX365" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>345</v>
       </c>
@@ -13137,24 +11680,16 @@
       <c r="DU366" s="1">
         <v>1</v>
       </c>
-      <c r="DX366" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="367" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B367" s="7">
         <v>0</v>
       </c>
-      <c r="DX367" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>347</v>
       </c>
@@ -13200,12 +11735,8 @@
       <c r="DQ368" s="1">
         <v>1</v>
       </c>
-      <c r="DX368" s="1">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="369" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>348</v>
       </c>
@@ -13251,12 +11782,8 @@
       <c r="DA369" s="1">
         <v>1</v>
       </c>
-      <c r="DX369" s="1">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="370" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>349</v>
       </c>
@@ -13299,12 +11826,8 @@
       <c r="DR370" s="1">
         <v>1</v>
       </c>
-      <c r="DX370" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="371" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>350</v>
       </c>
@@ -13344,24 +11867,16 @@
       <c r="DT371" s="1">
         <v>1</v>
       </c>
-      <c r="DX371" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="372" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B372" s="7">
         <v>0</v>
       </c>
-      <c r="DX372" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>352</v>
       </c>
@@ -13401,12 +11916,8 @@
       <c r="BX373" s="1">
         <v>1</v>
       </c>
-      <c r="DX373" s="1">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="374" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>353</v>
       </c>
@@ -13440,12 +11951,8 @@
       <c r="BP374" s="1">
         <v>1</v>
       </c>
-      <c r="DX374" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="375" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>354</v>
       </c>
@@ -13485,12 +11992,8 @@
       <c r="DR375" s="1">
         <v>2</v>
       </c>
-      <c r="DX375" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="376" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>355</v>
       </c>
@@ -13524,12 +12027,8 @@
       <c r="DQ376" s="1">
         <v>1</v>
       </c>
-      <c r="DX376" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="377" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>356</v>
       </c>
@@ -13569,12 +12068,8 @@
       <c r="DT377" s="1">
         <v>1</v>
       </c>
-      <c r="DX377" s="1">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="378" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>357</v>
       </c>
@@ -13620,24 +12115,16 @@
       <c r="DQ378" s="1">
         <v>1</v>
       </c>
-      <c r="DX378" s="1">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="379" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B379" s="11">
         <v>0</v>
       </c>
-      <c r="DX379" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>359</v>
       </c>
@@ -13677,12 +12164,8 @@
       <c r="DT380" s="12">
         <v>1</v>
       </c>
-      <c r="DX380" s="1">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="381" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>360</v>
       </c>
@@ -13719,12 +12202,8 @@
       <c r="DR381" s="1">
         <v>1</v>
       </c>
-      <c r="DX381" s="1">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="382" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>361</v>
       </c>
@@ -13764,12 +12243,8 @@
       <c r="DT382" s="1">
         <v>1</v>
       </c>
-      <c r="DX382" s="1">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="383" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:124" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>362</v>
       </c>
@@ -13812,24 +12287,16 @@
       <c r="DE383" s="1">
         <v>1</v>
       </c>
-      <c r="DX383" s="1">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="384" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A384" s="13">
         <v>44565</v>
       </c>
       <c r="B384" s="11">
         <v>0</v>
       </c>
-      <c r="DX384" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>44596</v>
       </c>
@@ -13881,12 +12348,8 @@
       <c r="DS385" s="1">
         <v>1</v>
       </c>
-      <c r="DX385" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="386" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>44624</v>
       </c>
@@ -13917,12 +12380,8 @@
       <c r="DQ386" s="1">
         <v>1</v>
       </c>
-      <c r="DX386" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="387" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>44655</v>
       </c>
@@ -13965,12 +12424,8 @@
       <c r="CT387" s="1">
         <v>1</v>
       </c>
-      <c r="DX387" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="388" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>44685</v>
       </c>
@@ -13998,12 +12453,8 @@
       <c r="BR388" s="1">
         <v>1</v>
       </c>
-      <c r="DX388" s="1">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="389" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>44716</v>
       </c>
@@ -14034,12 +12485,8 @@
       <c r="DK389" s="1">
         <v>1</v>
       </c>
-      <c r="DX389" s="1">
-        <f t="shared" ref="DX389:DX452" si="6">SUM(C389:DU389)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="390" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>44746</v>
       </c>
@@ -14064,12 +12511,8 @@
       <c r="BA390" s="1">
         <v>2</v>
       </c>
-      <c r="DX390" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="391" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>44777</v>
       </c>
@@ -14088,12 +12531,8 @@
       <c r="BC391" s="1">
         <v>1</v>
       </c>
-      <c r="DX391" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>44808</v>
       </c>
@@ -14145,12 +12584,8 @@
       <c r="DK392" s="1">
         <v>1</v>
       </c>
-      <c r="DX392" s="1">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="393" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>44838</v>
       </c>
@@ -14184,12 +12619,8 @@
       <c r="BA393" s="1">
         <v>1</v>
       </c>
-      <c r="DX393" s="1">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="394" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>44869</v>
       </c>
@@ -14232,12 +12663,8 @@
       <c r="CP394" s="1">
         <v>1</v>
       </c>
-      <c r="DX394" s="1">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="395" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>44899</v>
       </c>
@@ -14280,12 +12707,8 @@
       <c r="CI395" s="1">
         <v>1</v>
       </c>
-      <c r="DX395" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="396" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>363</v>
       </c>
@@ -14328,12 +12751,8 @@
       <c r="DQ396" s="1">
         <v>2</v>
       </c>
-      <c r="DX396" s="1">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="397" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>364</v>
       </c>
@@ -14361,632 +12780,72 @@
       <c r="CJ397" s="1">
         <v>1</v>
       </c>
-      <c r="DX397" s="1">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="398" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:123" x14ac:dyDescent="0.3">
       <c r="B398" s="11"/>
-      <c r="DX398" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:123" x14ac:dyDescent="0.3">
       <c r="B399" s="11"/>
-      <c r="DX399" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:123" x14ac:dyDescent="0.3">
       <c r="B400" s="11"/>
-      <c r="DX400" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" s="11"/>
-      <c r="DX401" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" s="11"/>
-      <c r="DX402" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" s="11"/>
-      <c r="DX403" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" s="11"/>
-      <c r="DX404" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" s="11"/>
-      <c r="DX405" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" s="11"/>
-      <c r="DX406" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" s="11"/>
-      <c r="DX407" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" s="11"/>
-      <c r="DX408" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" s="11"/>
-      <c r="DX409" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" s="11"/>
-      <c r="DX410" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" s="11"/>
-      <c r="DX411" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" s="11"/>
-      <c r="DX412" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" s="11"/>
-      <c r="DX413" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" s="11"/>
-      <c r="DX414" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" s="11"/>
-      <c r="DX415" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" s="11"/>
-      <c r="DX416" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" s="11"/>
-      <c r="DX417" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" s="11"/>
-      <c r="DX418" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="2:128" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" s="11"/>
-      <c r="DX419" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX420" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX421" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX422" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX423" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX424" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX425" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX426" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX427" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX428" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX429" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX430" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX431" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="2:128" x14ac:dyDescent="0.3">
-      <c r="DX432" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX433" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX434" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX435" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX436" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX437" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX438" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX439" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX440" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX441" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX442" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX443" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX444" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX445" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX446" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX447" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX448" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX449" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX450" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX451" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX452" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX453" s="1">
-        <f t="shared" ref="DX453:DX497" si="7">SUM(C453:DU453)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX454" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX455" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX456" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX457" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX458" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX459" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX460" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX461" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX462" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX463" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX464" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX465" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX466" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX467" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX468" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX469" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX470" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX471" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX472" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX473" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX474" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX475" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX476" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX477" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX478" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX479" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX480" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX481" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX482" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX483" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX484" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX485" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX486" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX487" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX488" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX489" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX490" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX491" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX492" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX493" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX494" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX495" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX496" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="128:128" x14ac:dyDescent="0.3">
-      <c r="DX497" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Development Part/backup/dataset2.xlsx
+++ b/Development Part/backup/dataset2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>1F3GDEL</t>
   </si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>14/4/2022</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1182,6 +1185,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,11 +1466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DU419"/>
+  <dimension ref="A1:DV419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DO1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EA7" sqref="EA7"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12296,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>44596</v>
       </c>
@@ -12349,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>44624</v>
       </c>
@@ -12381,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>44655</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>44685</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>44716</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>44746</v>
       </c>
@@ -12512,7 +12516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>44777</v>
       </c>
@@ -12532,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>44808</v>
       </c>
@@ -12585,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>44838</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>44869</v>
       </c>
@@ -12664,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>44899</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>363</v>
       </c>
@@ -12752,7 +12756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:123" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>364</v>
       </c>
@@ -12781,13 +12785,515 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:123" x14ac:dyDescent="0.3">
-      <c r="B398" s="11"/>
-    </row>
-    <row r="399" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:126" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B398" s="11">
+        <f>SUM(B2:B397)</f>
+        <v>63274103</v>
+      </c>
+      <c r="C398" s="11">
+        <f t="shared" ref="C398:I398" si="0">SUM(C2:C397)</f>
+        <v>8</v>
+      </c>
+      <c r="D398" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E398" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F398" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G398" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H398" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I398" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J398" s="11">
+        <f>SUM(J2:J397)</f>
+        <v>12</v>
+      </c>
+      <c r="K398" s="11">
+        <f t="shared" ref="K398" si="1">SUM(K2:K397)</f>
+        <v>66</v>
+      </c>
+      <c r="L398" s="11">
+        <f t="shared" ref="L398" si="2">SUM(L2:L397)</f>
+        <v>263</v>
+      </c>
+      <c r="M398" s="11">
+        <f t="shared" ref="M398" si="3">SUM(M2:M397)</f>
+        <v>714</v>
+      </c>
+      <c r="N398" s="11">
+        <f t="shared" ref="N398" si="4">SUM(N2:N397)</f>
+        <v>76</v>
+      </c>
+      <c r="O398" s="11">
+        <f t="shared" ref="O398" si="5">SUM(O2:O397)</f>
+        <v>139</v>
+      </c>
+      <c r="P398" s="11">
+        <f>SUM(P2:P397)</f>
+        <v>25</v>
+      </c>
+      <c r="Q398" s="11">
+        <f t="shared" ref="Q398" si="6">SUM(Q2:Q397)</f>
+        <v>3</v>
+      </c>
+      <c r="R398" s="11">
+        <f t="shared" ref="R398" si="7">SUM(R2:R397)</f>
+        <v>20</v>
+      </c>
+      <c r="S398" s="11">
+        <f t="shared" ref="S398" si="8">SUM(S2:S397)</f>
+        <v>118</v>
+      </c>
+      <c r="T398" s="11">
+        <f t="shared" ref="T398" si="9">SUM(T2:T397)</f>
+        <v>45</v>
+      </c>
+      <c r="U398" s="11">
+        <f t="shared" ref="U398" si="10">SUM(U2:U397)</f>
+        <v>23</v>
+      </c>
+      <c r="V398" s="11">
+        <f t="shared" ref="V398" si="11">SUM(V2:V397)</f>
+        <v>5</v>
+      </c>
+      <c r="W398" s="11">
+        <f t="shared" ref="W398" si="12">SUM(W2:W397)</f>
+        <v>155</v>
+      </c>
+      <c r="X398" s="11">
+        <f>SUM(X2:X397)</f>
+        <v>119</v>
+      </c>
+      <c r="Y398" s="11">
+        <f t="shared" ref="Y398" si="13">SUM(Y2:Y397)</f>
+        <v>9</v>
+      </c>
+      <c r="Z398" s="11">
+        <f t="shared" ref="Z398" si="14">SUM(Z2:Z397)</f>
+        <v>37</v>
+      </c>
+      <c r="AA398" s="11">
+        <f t="shared" ref="AA398" si="15">SUM(AA2:AA397)</f>
+        <v>8</v>
+      </c>
+      <c r="AB398" s="11">
+        <f>SUM(AB2:AB397)</f>
+        <v>36</v>
+      </c>
+      <c r="AC398" s="11">
+        <f t="shared" ref="AC398" si="16">SUM(AC2:AC397)</f>
+        <v>148</v>
+      </c>
+      <c r="AD398" s="11">
+        <f t="shared" ref="AD398" si="17">SUM(AD2:AD397)</f>
+        <v>52</v>
+      </c>
+      <c r="AE398" s="11">
+        <f t="shared" ref="AE398" si="18">SUM(AE2:AE397)</f>
+        <v>148</v>
+      </c>
+      <c r="AF398" s="11">
+        <f t="shared" ref="AF398" si="19">SUM(AF2:AF397)</f>
+        <v>36</v>
+      </c>
+      <c r="AG398" s="11">
+        <f>SUM(AG2:AG397)</f>
+        <v>33</v>
+      </c>
+      <c r="AH398" s="11">
+        <f t="shared" ref="AH398" si="20">SUM(AH2:AH397)</f>
+        <v>32</v>
+      </c>
+      <c r="AI398" s="11">
+        <f t="shared" ref="AI398" si="21">SUM(AI2:AI397)</f>
+        <v>44</v>
+      </c>
+      <c r="AJ398" s="11">
+        <f t="shared" ref="AJ398" si="22">SUM(AJ2:AJ397)</f>
+        <v>143</v>
+      </c>
+      <c r="AK398" s="11">
+        <f t="shared" ref="AK398" si="23">SUM(AK2:AK397)</f>
+        <v>18</v>
+      </c>
+      <c r="AL398" s="11">
+        <f>SUM(AL2:AL397)</f>
+        <v>34</v>
+      </c>
+      <c r="AM398" s="11">
+        <f t="shared" ref="AM398" si="24">SUM(AM2:AM397)</f>
+        <v>9</v>
+      </c>
+      <c r="AN398" s="11">
+        <f t="shared" ref="AN398" si="25">SUM(AN2:AN397)</f>
+        <v>5</v>
+      </c>
+      <c r="AO398" s="11">
+        <f t="shared" ref="AO398" si="26">SUM(AO2:AO397)</f>
+        <v>3</v>
+      </c>
+      <c r="AP398" s="11">
+        <f t="shared" ref="AP398" si="27">SUM(AP2:AP397)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ398" s="11">
+        <f t="shared" ref="AQ398" si="28">SUM(AQ2:AQ397)</f>
+        <v>11</v>
+      </c>
+      <c r="AR398" s="11">
+        <f t="shared" ref="AR398" si="29">SUM(AR2:AR397)</f>
+        <v>68</v>
+      </c>
+      <c r="AS398" s="11">
+        <f t="shared" ref="AS398" si="30">SUM(AS2:AS397)</f>
+        <v>2</v>
+      </c>
+      <c r="AT398" s="11">
+        <f>SUM(AT2:AT397)</f>
+        <v>10</v>
+      </c>
+      <c r="AU398" s="11">
+        <f t="shared" ref="AU398" si="31">SUM(AU2:AU397)</f>
+        <v>77</v>
+      </c>
+      <c r="AV398" s="11">
+        <f t="shared" ref="AV398" si="32">SUM(AV2:AV397)</f>
+        <v>14</v>
+      </c>
+      <c r="AW398" s="11">
+        <f t="shared" ref="AW398" si="33">SUM(AW2:AW397)</f>
+        <v>0</v>
+      </c>
+      <c r="AX398" s="11">
+        <f t="shared" ref="AX398" si="34">SUM(AX2:AX397)</f>
+        <v>2</v>
+      </c>
+      <c r="AY398" s="11">
+        <f t="shared" ref="AY398" si="35">SUM(AY2:AY397)</f>
+        <v>18</v>
+      </c>
+      <c r="AZ398" s="11">
+        <f t="shared" ref="AZ398" si="36">SUM(AZ2:AZ397)</f>
+        <v>21</v>
+      </c>
+      <c r="BA398" s="11">
+        <f t="shared" ref="BA398" si="37">SUM(BA2:BA397)</f>
+        <v>90</v>
+      </c>
+      <c r="BB398" s="11">
+        <f>SUM(BB2:BB397)</f>
+        <v>54</v>
+      </c>
+      <c r="BC398" s="11">
+        <f t="shared" ref="BC398" si="38">SUM(BC2:BC397)</f>
+        <v>9</v>
+      </c>
+      <c r="BD398" s="11">
+        <f t="shared" ref="BD398" si="39">SUM(BD2:BD397)</f>
+        <v>1</v>
+      </c>
+      <c r="BE398" s="11">
+        <f t="shared" ref="BE398" si="40">SUM(BE2:BE397)</f>
+        <v>11</v>
+      </c>
+      <c r="BF398" s="11">
+        <f t="shared" ref="BF398" si="41">SUM(BF2:BF397)</f>
+        <v>0</v>
+      </c>
+      <c r="BG398" s="11">
+        <f t="shared" ref="BG398" si="42">SUM(BG2:BG397)</f>
+        <v>0</v>
+      </c>
+      <c r="BH398" s="11">
+        <f t="shared" ref="BH398" si="43">SUM(BH2:BH397)</f>
+        <v>0</v>
+      </c>
+      <c r="BI398" s="11">
+        <f t="shared" ref="BI398" si="44">SUM(BI2:BI397)</f>
+        <v>99</v>
+      </c>
+      <c r="BJ398" s="11">
+        <f>SUM(BJ2:BJ397)</f>
+        <v>53</v>
+      </c>
+      <c r="BK398" s="11">
+        <f t="shared" ref="BK398" si="45">SUM(BK2:BK397)</f>
+        <v>16</v>
+      </c>
+      <c r="BL398" s="11">
+        <f t="shared" ref="BL398" si="46">SUM(BL2:BL397)</f>
+        <v>3</v>
+      </c>
+      <c r="BM398" s="11">
+        <f t="shared" ref="BM398" si="47">SUM(BM2:BM397)</f>
+        <v>3</v>
+      </c>
+      <c r="BN398" s="11">
+        <f t="shared" ref="BN398" si="48">SUM(BN2:BN397)</f>
+        <v>5</v>
+      </c>
+      <c r="BO398" s="11">
+        <f t="shared" ref="BO398" si="49">SUM(BO2:BO397)</f>
+        <v>15</v>
+      </c>
+      <c r="BP398" s="11">
+        <f t="shared" ref="BP398" si="50">SUM(BP2:BP397)</f>
+        <v>40</v>
+      </c>
+      <c r="BQ398" s="11">
+        <f>SUM(BQ2:BQ397)</f>
+        <v>37</v>
+      </c>
+      <c r="BR398" s="11">
+        <f t="shared" ref="BR398" si="51">SUM(BR2:BR397)</f>
+        <v>12</v>
+      </c>
+      <c r="BS398" s="11">
+        <f t="shared" ref="BS398" si="52">SUM(BS2:BS397)</f>
+        <v>6</v>
+      </c>
+      <c r="BT398" s="11">
+        <f t="shared" ref="BT398" si="53">SUM(BT2:BT397)</f>
+        <v>6</v>
+      </c>
+      <c r="BU398" s="11">
+        <f t="shared" ref="BU398" si="54">SUM(BU2:BU397)</f>
+        <v>8</v>
+      </c>
+      <c r="BV398" s="11">
+        <f t="shared" ref="BV398" si="55">SUM(BV2:BV397)</f>
+        <v>20</v>
+      </c>
+      <c r="BW398" s="11">
+        <f t="shared" ref="BW398" si="56">SUM(BW2:BW397)</f>
+        <v>27</v>
+      </c>
+      <c r="BX398" s="11">
+        <f>SUM(BX2:BX397)</f>
+        <v>36</v>
+      </c>
+      <c r="BY398" s="11">
+        <f t="shared" ref="BY398" si="57">SUM(BY2:BY397)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ398" s="11">
+        <f t="shared" ref="BZ398" si="58">SUM(BZ2:BZ397)</f>
+        <v>7</v>
+      </c>
+      <c r="CA398" s="11">
+        <f t="shared" ref="CA398" si="59">SUM(CA2:CA397)</f>
+        <v>24</v>
+      </c>
+      <c r="CB398" s="11">
+        <f t="shared" ref="CB398" si="60">SUM(CB2:CB397)</f>
+        <v>2</v>
+      </c>
+      <c r="CC398" s="11">
+        <f t="shared" ref="CC398" si="61">SUM(CC2:CC397)</f>
+        <v>12</v>
+      </c>
+      <c r="CD398" s="11">
+        <f>SUM(CD2:CD397)</f>
+        <v>2</v>
+      </c>
+      <c r="CE398" s="11">
+        <f t="shared" ref="CE398" si="62">SUM(CE2:CE397)</f>
+        <v>22</v>
+      </c>
+      <c r="CF398" s="11">
+        <f t="shared" ref="CF398" si="63">SUM(CF2:CF397)</f>
+        <v>22</v>
+      </c>
+      <c r="CG398" s="11">
+        <f t="shared" ref="CG398" si="64">SUM(CG2:CG397)</f>
+        <v>3</v>
+      </c>
+      <c r="CH398" s="11">
+        <f t="shared" ref="CH398" si="65">SUM(CH2:CH397)</f>
+        <v>3</v>
+      </c>
+      <c r="CI398" s="11">
+        <f t="shared" ref="CI398" si="66">SUM(CI2:CI397)</f>
+        <v>2</v>
+      </c>
+      <c r="CJ398" s="11">
+        <f>SUM(CJ2:CJ397)</f>
+        <v>3</v>
+      </c>
+      <c r="CK398" s="11">
+        <f t="shared" ref="CK398" si="67">SUM(CK2:CK397)</f>
+        <v>0</v>
+      </c>
+      <c r="CL398" s="11">
+        <f t="shared" ref="CL398" si="68">SUM(CL2:CL397)</f>
+        <v>4</v>
+      </c>
+      <c r="CM398" s="11">
+        <f t="shared" ref="CM398" si="69">SUM(CM2:CM397)</f>
+        <v>6</v>
+      </c>
+      <c r="CN398" s="11">
+        <f t="shared" ref="CN398" si="70">SUM(CN2:CN397)</f>
+        <v>34</v>
+      </c>
+      <c r="CO398" s="11">
+        <f t="shared" ref="CO398" si="71">SUM(CO2:CO397)</f>
+        <v>3</v>
+      </c>
+      <c r="CP398" s="11">
+        <f t="shared" ref="CP398" si="72">SUM(CP2:CP397)</f>
+        <v>40</v>
+      </c>
+      <c r="CQ398" s="11">
+        <f>SUM(CQ2:CQ397)</f>
+        <v>0</v>
+      </c>
+      <c r="CR398" s="11">
+        <f t="shared" ref="CR398" si="73">SUM(CR2:CR397)</f>
+        <v>2</v>
+      </c>
+      <c r="CS398" s="11">
+        <f t="shared" ref="CS398" si="74">SUM(CS2:CS397)</f>
+        <v>5</v>
+      </c>
+      <c r="CT398" s="11">
+        <f t="shared" ref="CT398" si="75">SUM(CT2:CT397)</f>
+        <v>5</v>
+      </c>
+      <c r="CU398" s="11">
+        <f t="shared" ref="CU398" si="76">SUM(CU2:CU397)</f>
+        <v>8</v>
+      </c>
+      <c r="CV398" s="11">
+        <f t="shared" ref="CV398" si="77">SUM(CV2:CV397)</f>
+        <v>7</v>
+      </c>
+      <c r="CW398" s="11">
+        <f t="shared" ref="CW398" si="78">SUM(CW2:CW397)</f>
+        <v>6</v>
+      </c>
+      <c r="CX398" s="11">
+        <f>SUM(CX2:CX397)</f>
+        <v>4</v>
+      </c>
+      <c r="CY398" s="11">
+        <f t="shared" ref="CY398" si="79">SUM(CY2:CY397)</f>
+        <v>6</v>
+      </c>
+      <c r="CZ398" s="11">
+        <f t="shared" ref="CZ398" si="80">SUM(CZ2:CZ397)</f>
+        <v>7</v>
+      </c>
+      <c r="DA398" s="11">
+        <f t="shared" ref="DA398" si="81">SUM(DA2:DA397)</f>
+        <v>4</v>
+      </c>
+      <c r="DB398" s="11">
+        <f t="shared" ref="DB398" si="82">SUM(DB2:DB397)</f>
+        <v>5</v>
+      </c>
+      <c r="DC398" s="11">
+        <f t="shared" ref="DC398" si="83">SUM(DC2:DC397)</f>
+        <v>2</v>
+      </c>
+      <c r="DD398" s="11">
+        <f t="shared" ref="DD398" si="84">SUM(DD2:DD397)</f>
+        <v>23</v>
+      </c>
+      <c r="DE398" s="11">
+        <f t="shared" ref="DE398" si="85">SUM(DE2:DE397)</f>
+        <v>20</v>
+      </c>
+      <c r="DF398" s="11">
+        <f>SUM(DF2:DF397)</f>
+        <v>0</v>
+      </c>
+      <c r="DG398" s="11">
+        <f t="shared" ref="DG398" si="86">SUM(DG2:DG397)</f>
+        <v>8</v>
+      </c>
+      <c r="DH398" s="11">
+        <f>SUM(DH2:DH397)</f>
+        <v>1</v>
+      </c>
+      <c r="DI398" s="11">
+        <f t="shared" ref="DI398" si="87">SUM(DI2:DI397)</f>
+        <v>2</v>
+      </c>
+      <c r="DJ398" s="11">
+        <f t="shared" ref="DJ398" si="88">SUM(DJ2:DJ397)</f>
+        <v>2</v>
+      </c>
+      <c r="DK398" s="11">
+        <f t="shared" ref="DK398" si="89">SUM(DK2:DK397)</f>
+        <v>8</v>
+      </c>
+      <c r="DL398" s="11">
+        <f t="shared" ref="DL398" si="90">SUM(DL2:DL397)</f>
+        <v>6</v>
+      </c>
+      <c r="DM398" s="11">
+        <f t="shared" ref="DM398" si="91">SUM(DM2:DM397)</f>
+        <v>8</v>
+      </c>
+      <c r="DN398" s="11">
+        <f t="shared" ref="DN398" si="92">SUM(DN2:DN397)</f>
+        <v>5</v>
+      </c>
+      <c r="DO398" s="11">
+        <f t="shared" ref="DO398" si="93">SUM(DO2:DO397)</f>
+        <v>11</v>
+      </c>
+      <c r="DP398" s="11">
+        <f>SUM(DP2:DP397)</f>
+        <v>6</v>
+      </c>
+      <c r="DQ398" s="11">
+        <f t="shared" ref="DQ398" si="94">SUM(DQ2:DQ397)</f>
+        <v>47</v>
+      </c>
+      <c r="DR398" s="11">
+        <f t="shared" ref="DR398" si="95">SUM(DR2:DR397)</f>
+        <v>10</v>
+      </c>
+      <c r="DS398" s="11">
+        <f t="shared" ref="DS398" si="96">SUM(DS2:DS397)</f>
+        <v>3</v>
+      </c>
+      <c r="DT398" s="11">
+        <f t="shared" ref="DT398" si="97">SUM(DT2:DT397)</f>
+        <v>8</v>
+      </c>
+      <c r="DU398" s="11">
+        <f t="shared" ref="DU398" si="98">SUM(DU2:DU397)</f>
+        <v>1</v>
+      </c>
+      <c r="DV398" s="14">
+        <f>SUM(C398:DU398)</f>
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="399" spans="1:126" x14ac:dyDescent="0.3">
       <c r="B399" s="11"/>
     </row>
-    <row r="400" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:126" x14ac:dyDescent="0.3">
       <c r="B400" s="11"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.3">
